--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E636B-F1E9-B94F-8652-193BD9E1EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E50781-E844-6446-B406-712EF1AE23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="-5240" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
     <sheet name="amp_prediction" sheetId="1" r:id="rId2"/>
-    <sheet name="deseq2" sheetId="3" r:id="rId3"/>
-    <sheet name="amps_overexpressed_info" sheetId="4" r:id="rId4"/>
-    <sheet name="amps_allsamples_info" sheetId="5" r:id="rId5"/>
-    <sheet name="amps_top20_info" sheetId="6" r:id="rId6"/>
+    <sheet name="megan6_taxa" sheetId="7" r:id="rId3"/>
+    <sheet name="deseq2" sheetId="3" r:id="rId4"/>
+    <sheet name="amps_overexpressed_info" sheetId="4" r:id="rId5"/>
+    <sheet name="amps_allsamples_info" sheetId="5" r:id="rId6"/>
+    <sheet name="amps_top20_info" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1322">
   <si>
     <t>Seq ID</t>
   </si>
@@ -3812,6 +3813,201 @@
   </si>
   <si>
     <t>amp.id</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Bacteroidales</t>
+  </si>
+  <si>
+    <t>Bacteroidaceae</t>
+  </si>
+  <si>
+    <t>Bacteroides</t>
+  </si>
+  <si>
+    <t>Bacteroides caccae</t>
+  </si>
+  <si>
+    <t>Bacteroides xylanisolvens</t>
+  </si>
+  <si>
+    <t>Phocaeicola</t>
+  </si>
+  <si>
+    <t>Phocaeicola vulgatus</t>
+  </si>
+  <si>
+    <t>Barnesiella viscericola</t>
+  </si>
+  <si>
+    <t>Odoribacter splanchnicus</t>
+  </si>
+  <si>
+    <t>Paraprevotella xylaniphila</t>
+  </si>
+  <si>
+    <t>Parabacteroides</t>
+  </si>
+  <si>
+    <t>uncultured Sutterella sp.</t>
+  </si>
+  <si>
+    <t>Sutterella wadsworthensis</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Bifidobacterium</t>
+  </si>
+  <si>
+    <t>Eggerthella</t>
+  </si>
+  <si>
+    <t>Eggerthella lenta</t>
+  </si>
+  <si>
+    <t>Firmicutes</t>
+  </si>
+  <si>
+    <t>Lactobacillales</t>
+  </si>
+  <si>
+    <t>Streptococcus</t>
+  </si>
+  <si>
+    <t>Eubacteriales</t>
+  </si>
+  <si>
+    <t>Christensenella sp. MSJ-20</t>
+  </si>
+  <si>
+    <t>Clostridiaceae</t>
+  </si>
+  <si>
+    <t>Clostridium</t>
+  </si>
+  <si>
+    <t>Clostridium sp. CT4</t>
+  </si>
+  <si>
+    <t>Sarcina sp. JB2</t>
+  </si>
+  <si>
+    <t>Clostridiaceae bacterium Marseille-Q4143</t>
+  </si>
+  <si>
+    <t>Lachnospiraceae</t>
+  </si>
+  <si>
+    <t>Anaerobutyricum hallii</t>
+  </si>
+  <si>
+    <t>Anaerostipes hadrus</t>
+  </si>
+  <si>
+    <t>Blautia argi</t>
+  </si>
+  <si>
+    <t>Blautia obeum</t>
+  </si>
+  <si>
+    <t>uncultured Blautia sp.</t>
+  </si>
+  <si>
+    <t>Coprococcus comes</t>
+  </si>
+  <si>
+    <t>[Clostridium] scindens</t>
+  </si>
+  <si>
+    <t>[Ruminococcus] gnavus</t>
+  </si>
+  <si>
+    <t>[Ruminococcus] torques</t>
+  </si>
+  <si>
+    <t>Roseburia hominis</t>
+  </si>
+  <si>
+    <t>Roseburia intestinalis</t>
+  </si>
+  <si>
+    <t>unclassified Lachnospiraceae</t>
+  </si>
+  <si>
+    <t>Lachnospiraceae bacterium</t>
+  </si>
+  <si>
+    <t>Lachnospiraceae bacterium NSJ-29</t>
+  </si>
+  <si>
+    <t>Oscillospiraceae</t>
+  </si>
+  <si>
+    <t>Dysosmobacter sp. Marseille-Q4140</t>
+  </si>
+  <si>
+    <t>Faecalibacterium prausnitzii</t>
+  </si>
+  <si>
+    <t>Flavonifractor plautii</t>
+  </si>
+  <si>
+    <t>Pusillimonas faecalis</t>
+  </si>
+  <si>
+    <t>Ruminococcus bicirculans</t>
+  </si>
+  <si>
+    <t>Ruthenibacterium lactatiformans</t>
+  </si>
+  <si>
+    <t>Vescimonas fastidiosa</t>
+  </si>
+  <si>
+    <t>Peptostreptococcaceae</t>
+  </si>
+  <si>
+    <t>Romboutsia</t>
+  </si>
+  <si>
+    <t>Romboutsia ilealis</t>
+  </si>
+  <si>
+    <t>Terrisporobacter sp. MCA3</t>
+  </si>
+  <si>
+    <t>Veillonella</t>
+  </si>
+  <si>
+    <t>Caudovirales</t>
+  </si>
+  <si>
+    <t>Myoviridae sp.</t>
+  </si>
+  <si>
+    <t>Siphoviridae sp.</t>
+  </si>
+  <si>
+    <t>uncultured human fecal virus</t>
+  </si>
+  <si>
+    <t>Opuntia virus 2</t>
+  </si>
+  <si>
+    <t>Phage sp. ctXnn1</t>
+  </si>
+  <si>
+    <t>Not assigned</t>
+  </si>
+  <si>
+    <t>megan.blastn</t>
   </si>
 </sst>
 </file>
@@ -26533,8 +26729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C46"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51810,6 +52006,3531 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
+  <dimension ref="A1:E390"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>937</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>821</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>751</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>868</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>962</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>741</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>888</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>954</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>885</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>805</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>893</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>989</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>999</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>894</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>970</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>833</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>975</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>756</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>995</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>956</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>855</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>791</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>804</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>990</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>809</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>950</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>782</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>734</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>931</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>794</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>864</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>988</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>750</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>807</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>848</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>815</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>829</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>882</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>932</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>822</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>765</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>924</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>982</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>929</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>930</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>770</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>842</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>843</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>971</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>838</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>857</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>788</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>969</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>884</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>747</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>993</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>964</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>959</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>918</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>870</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>867</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>875</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>879</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>958</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>907</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>738</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>968</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>921</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>922</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>967</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>785</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>774</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>998</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>860</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>781</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>813</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>862</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>757</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>912</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>758</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>984</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>744</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>792</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>961</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>953</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>834</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>911</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>745</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>778</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>798</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>766</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>846</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>795</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>977</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>816</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>869</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>878</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>910</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>872</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>768</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>773</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>771</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>760</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>767</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>808</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>960</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>906</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>976</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>806</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>897</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>753</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>881</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>786</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>776</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>957</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>889</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>905</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>759</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>755</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>985</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>934</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>839</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>840</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>841</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>818</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>836</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>784</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>981</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>987</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>803</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>973</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>742</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>955</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>914</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>853</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>876</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>817</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>856</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>935</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>913</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>752</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>777</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>886</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>992</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>866</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>812</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>854</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>850</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>923</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>740</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>830</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>831</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>900</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>847</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>901</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>851</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>820</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>799</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>800</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>801</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>898</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>810</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>877</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>991</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>979</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>952</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>946</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>917</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>908</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>948</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>949</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>916</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>793</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>945</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>789</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>863</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>790</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>903</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>933</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>940</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>802</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>861</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>939</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>764</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>895</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>904</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>947</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>865</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>852</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>787</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>943</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>858</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>963</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>844</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>944</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>892</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>828</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>997</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>780</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>951</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>994</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>873</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>832</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>891</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>779</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>783</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>920</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>896</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>890</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>819</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>902</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>837</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>845</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>980</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>743</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>763</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>823</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>926</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>927</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>796</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>871</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>883</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>835</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>797</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>936</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>769</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>748</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>749</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>915</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>938</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>772</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>978</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>811</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>925</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>826</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>761</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>739</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>762</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>849</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DD8E9-5CCD-AF45-9D6A-B809B10417DE}">
   <dimension ref="A1:G424"/>
   <sheetViews>
@@ -61536,18 +65257,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O21" sqref="I2:O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62599,40 +66320,43 @@
       <c r="A23" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>1247</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1248</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>1248</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -62640,27 +66364,27 @@
       <c r="A24" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24" s="7">
         <v>0.45</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>0.63147299999999995</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>0.54166700000000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>0.63147299999999995</v>
       </c>
-      <c r="H24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I24" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62674,6 +66398,9 @@
         <v>#N/A</v>
       </c>
       <c r="M24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="7" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -62681,15 +66408,15 @@
       <c r="A25" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="D25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E25" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62711,10 +66438,13 @@
       <c r="K25" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N25" s="7">
         <v>0.99839999999999995</v>
       </c>
     </row>
@@ -62722,27 +66452,27 @@
       <c r="A26" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26" s="7">
         <v>0.64</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="7">
         <v>0.331208</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>0.31166700000000003</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>0.64</v>
       </c>
-      <c r="H26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I26" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62756,6 +66486,9 @@
         <v>#N/A</v>
       </c>
       <c r="M26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="7" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -62763,27 +66496,27 @@
       <c r="A27" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27" s="7">
         <v>0.59</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <v>0.53942800000000002</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>0.39083299999999999</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>0.59</v>
       </c>
-      <c r="H27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I27" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62797,6 +66530,9 @@
         <v>#N/A</v>
       </c>
       <c r="M27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="7" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -62804,15 +66540,15 @@
       <c r="A28" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="D28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E28" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62834,10 +66570,13 @@
       <c r="K28" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M28" s="7">
+      <c r="N28" s="7">
         <v>0.84119999999999995</v>
       </c>
     </row>
@@ -62845,27 +66584,27 @@
       <c r="A29" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E29" s="7">
         <v>0.8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <v>0.64090100000000005</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>0.8</v>
       </c>
-      <c r="H29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I29" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62875,10 +66614,13 @@
       <c r="K29" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>0.88400000000000001</v>
       </c>
     </row>
@@ -62886,27 +66628,27 @@
       <c r="A30" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="7">
+      <c r="E30" s="7">
         <v>0.49</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <v>0.62578500000000004</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>0.45333299999999999</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>0.62578500000000004</v>
       </c>
-      <c r="H30" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I30" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62920,6 +66662,9 @@
         <v>#N/A</v>
       </c>
       <c r="M30" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="7" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -62927,27 +66672,27 @@
       <c r="A31" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E31" s="7">
         <v>0.61</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <v>5.2666999999999999E-2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>0.1525</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <v>0.61</v>
       </c>
-      <c r="H31" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I31" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62961,6 +66706,9 @@
         <v>#N/A</v>
       </c>
       <c r="M31" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="7" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -62968,15 +66716,15 @@
       <c r="A32" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="D32" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E32" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -62998,26 +66746,29 @@
       <c r="K32" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M32" s="7">
+      <c r="N32" s="7">
         <v>0.59440000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="D33" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E33" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63039,38 +66790,41 @@
       <c r="K33" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N33" s="7">
         <v>0.99850000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="7">
         <v>0.59</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>0.310975</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>0.49916700000000003</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>0.59</v>
       </c>
-      <c r="H34" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I34" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63086,20 +66840,23 @@
       <c r="M34" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="D35" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E35" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63109,50 +66866,53 @@
       <c r="G35" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="7">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L35" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="M35" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="7">
         <v>0.83</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>2.5493999999999999E-2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>0.3</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="7">
         <v>0.83</v>
       </c>
-      <c r="H36" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I36" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63168,32 +66928,35 @@
       <c r="M36" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E37" s="7">
         <v>0.54</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <v>1.1776E-2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>0.29416700000000001</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H37" s="7">
         <v>0.54</v>
       </c>
-      <c r="H37" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I37" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63209,20 +66972,23 @@
       <c r="M37" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="D38" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E38" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63244,79 +67010,85 @@
       <c r="K38" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="7">
         <v>0.61570000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E39" s="7">
         <v>0.53</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <v>0.61239699999999997</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>0.59083300000000005</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>0.61239699999999997</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="K39" s="7">
+      <c r="L39" s="7">
         <v>0.752</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N39" s="7">
         <v>0.50060000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="D40" s="7">
+      <c r="E40" s="7">
         <v>0.61</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>0.534578</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>0.42333300000000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>0.61</v>
       </c>
-      <c r="H40" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I40" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63332,32 +67104,35 @@
       <c r="M40" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E41" s="7">
         <v>0.91</v>
-      </c>
-      <c r="E41" s="7">
-        <v>-1</v>
       </c>
       <c r="F41" s="7">
         <v>-1</v>
       </c>
       <c r="G41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="7">
         <v>0.91</v>
       </c>
-      <c r="H41" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I41" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63373,32 +67148,35 @@
       <c r="M41" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D42" s="7">
+      <c r="E42" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>0.33022400000000002</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>0.25583299999999998</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H42" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I42" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63414,32 +67192,35 @@
       <c r="M42" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E43" s="7">
         <v>0.47</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F43" s="7">
         <v>0.64642200000000005</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>0.47</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>0.64642200000000005</v>
       </c>
-      <c r="H43" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I43" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -63455,1214 +67236,176 @@
       <c r="M43" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4111CD-3CDF-CF4B-987C-2E286C9BEC80}">
-  <dimension ref="A1:O29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="N43" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B2">
-        <v>452.44</v>
-      </c>
-      <c r="C2">
-        <v>945.21</v>
-      </c>
-      <c r="D2">
-        <v>346.38</v>
-      </c>
-      <c r="E2">
-        <v>435.24</v>
-      </c>
-      <c r="F2">
-        <v>216.6</v>
-      </c>
-      <c r="G2">
-        <v>482.84</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J2">
-        <v>453.44</v>
-      </c>
-      <c r="K2">
-        <v>946.21</v>
-      </c>
-      <c r="L2">
-        <v>347.38</v>
-      </c>
-      <c r="M2">
-        <v>436.24</v>
-      </c>
-      <c r="N2">
-        <v>217.6</v>
-      </c>
-      <c r="O2">
-        <v>483.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B3">
-        <v>212.02</v>
-      </c>
-      <c r="C3">
-        <v>53.79</v>
-      </c>
-      <c r="D3">
-        <v>139.24</v>
-      </c>
-      <c r="E3">
-        <v>741.13</v>
-      </c>
-      <c r="F3">
-        <v>7.67</v>
-      </c>
-      <c r="G3">
-        <v>746.87</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J3">
-        <v>213.02</v>
-      </c>
-      <c r="K3">
-        <v>54.79</v>
-      </c>
-      <c r="L3">
-        <v>140.24</v>
-      </c>
-      <c r="M3">
-        <v>742.13</v>
-      </c>
-      <c r="N3">
-        <v>8.67</v>
-      </c>
-      <c r="O3">
-        <v>747.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B4">
-        <v>104.69</v>
-      </c>
-      <c r="C4">
-        <v>117</v>
-      </c>
-      <c r="D4">
-        <v>45.89</v>
-      </c>
-      <c r="E4">
-        <v>1113.78</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>96.8</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J4">
-        <v>105.69</v>
-      </c>
-      <c r="K4">
-        <v>118</v>
-      </c>
-      <c r="L4">
-        <v>46.89</v>
-      </c>
-      <c r="M4">
-        <v>1114.78</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5">
-        <v>298.32</v>
-      </c>
-      <c r="C5">
-        <v>5.73</v>
-      </c>
-      <c r="D5">
-        <v>25.52</v>
-      </c>
-      <c r="E5">
-        <v>19.78</v>
-      </c>
-      <c r="F5">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="G5">
-        <v>441.1</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="J5">
-        <v>299.32</v>
-      </c>
-      <c r="K5">
-        <v>6.73</v>
-      </c>
-      <c r="L5">
-        <v>26.52</v>
-      </c>
-      <c r="M5">
-        <v>20.78</v>
-      </c>
-      <c r="N5">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="O5">
-        <v>442.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B6">
-        <v>6.92</v>
-      </c>
-      <c r="C6">
-        <v>315.54000000000002</v>
-      </c>
-      <c r="D6">
-        <v>76.2</v>
-      </c>
-      <c r="E6">
-        <v>14.03</v>
-      </c>
-      <c r="F6">
-        <v>69.47</v>
-      </c>
-      <c r="G6">
-        <v>53.16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J6">
-        <v>7.92</v>
-      </c>
-      <c r="K6">
-        <v>316.54000000000002</v>
-      </c>
-      <c r="L6">
-        <v>77.2</v>
-      </c>
-      <c r="M6">
-        <v>15.03</v>
-      </c>
-      <c r="N6">
-        <v>70.47</v>
-      </c>
-      <c r="O6">
-        <v>54.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B7">
-        <v>1.02</v>
-      </c>
-      <c r="C7">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="D7">
-        <v>43.69</v>
-      </c>
-      <c r="E7">
-        <v>22.18</v>
-      </c>
-      <c r="F7">
-        <v>6.54</v>
-      </c>
-      <c r="G7">
-        <v>409.7</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J7">
-        <v>2.02</v>
-      </c>
-      <c r="K7">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="L7">
-        <v>44.69</v>
-      </c>
-      <c r="M7">
-        <v>23.18</v>
-      </c>
-      <c r="N7">
-        <v>7.54</v>
-      </c>
-      <c r="O7">
-        <v>410.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B8">
-        <v>27.15</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>137</v>
-      </c>
-      <c r="F8">
-        <v>1.99</v>
-      </c>
-      <c r="G8">
-        <v>117.26</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="J8">
-        <v>28.15</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>138</v>
-      </c>
-      <c r="N8">
-        <v>2.99</v>
-      </c>
-      <c r="O8">
-        <v>118.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B9">
-        <v>36.97</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>37.659999999999997</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>127</v>
-      </c>
-      <c r="G9">
-        <v>7.8</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J9">
-        <v>37.97</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>38.659999999999997</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>128</v>
-      </c>
-      <c r="O9">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>63</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>64</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>70.819999999999993</v>
-      </c>
-      <c r="N10">
-        <v>33</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>917</v>
-      </c>
-      <c r="B11">
-        <v>16.29</v>
-      </c>
-      <c r="C11">
-        <v>71</v>
-      </c>
-      <c r="D11">
-        <v>14.88</v>
-      </c>
-      <c r="E11">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10.55</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>917</v>
-      </c>
-      <c r="J11">
-        <v>17.29</v>
-      </c>
-      <c r="K11">
-        <v>72</v>
-      </c>
-      <c r="L11">
-        <v>15.88</v>
-      </c>
-      <c r="M11">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B12">
-        <v>18.04</v>
-      </c>
-      <c r="C12">
-        <v>9.42</v>
-      </c>
-      <c r="D12">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E12">
-        <v>24.82</v>
-      </c>
-      <c r="F12">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="G12">
-        <v>39.42</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J12">
-        <v>19.04</v>
-      </c>
-      <c r="K12">
-        <v>10.42</v>
-      </c>
-      <c r="L12">
-        <v>3.24</v>
-      </c>
-      <c r="M12">
-        <v>25.82</v>
-      </c>
-      <c r="N12">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="O12">
-        <v>40.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B13">
-        <v>12.81</v>
-      </c>
-      <c r="C13">
-        <v>1.07</v>
-      </c>
-      <c r="D13">
-        <v>1.93</v>
-      </c>
-      <c r="E13">
-        <v>22.06</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>27.95</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J13">
-        <v>13.81</v>
-      </c>
-      <c r="K13">
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="L13">
-        <v>2.9299999999999997</v>
-      </c>
-      <c r="M13">
-        <v>23.06</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>28.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="B14">
-        <v>0.69</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>6.46</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2.94</v>
-      </c>
-      <c r="G14">
-        <v>3.25</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="J14">
-        <v>1.69</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>7.46</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3.94</v>
-      </c>
-      <c r="O14">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.53243499999999999</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.340833</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.33201000000000003</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.3725</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.431226</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.37083300000000002</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="H19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.50106700000000004</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.37333300000000003</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="H20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.26076500000000002</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.42416700000000002</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="H21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.12471400000000001</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="H22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.80081199999999997</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.408333</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.80081199999999997</v>
-      </c>
-      <c r="H23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.57326999999999995</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.49916700000000003</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.57326999999999995</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.8377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.170295</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.278333</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="H25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>917</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.65795499999999996</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.66333299999999995</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.66333299999999995</v>
-      </c>
-      <c r="H26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.54454000000000002</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.54454000000000002</v>
-      </c>
-      <c r="H28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.73980999999999997</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.73980999999999997</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="7" t="e">
-        <v>#N/A</v>
+      <c r="B46" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1317</v>
       </c>
     </row>
   </sheetData>
@@ -64672,11 +67415,1376 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519665A-F5D4-E948-9FB9-8AECE3D533E4}">
-  <dimension ref="A1:O63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4111CD-3CDF-CF4B-987C-2E286C9BEC80}">
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O31"/>
+      <selection activeCell="C11" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2">
+        <v>452.44</v>
+      </c>
+      <c r="C2">
+        <v>945.21</v>
+      </c>
+      <c r="D2">
+        <v>346.38</v>
+      </c>
+      <c r="E2">
+        <v>435.24</v>
+      </c>
+      <c r="F2">
+        <v>216.6</v>
+      </c>
+      <c r="G2">
+        <v>482.84</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J2">
+        <v>453.44</v>
+      </c>
+      <c r="K2">
+        <v>946.21</v>
+      </c>
+      <c r="L2">
+        <v>347.38</v>
+      </c>
+      <c r="M2">
+        <v>436.24</v>
+      </c>
+      <c r="N2">
+        <v>217.6</v>
+      </c>
+      <c r="O2">
+        <v>483.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B3">
+        <v>212.02</v>
+      </c>
+      <c r="C3">
+        <v>53.79</v>
+      </c>
+      <c r="D3">
+        <v>139.24</v>
+      </c>
+      <c r="E3">
+        <v>741.13</v>
+      </c>
+      <c r="F3">
+        <v>7.67</v>
+      </c>
+      <c r="G3">
+        <v>746.87</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J3">
+        <v>213.02</v>
+      </c>
+      <c r="K3">
+        <v>54.79</v>
+      </c>
+      <c r="L3">
+        <v>140.24</v>
+      </c>
+      <c r="M3">
+        <v>742.13</v>
+      </c>
+      <c r="N3">
+        <v>8.67</v>
+      </c>
+      <c r="O3">
+        <v>747.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4">
+        <v>104.69</v>
+      </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>45.89</v>
+      </c>
+      <c r="E4">
+        <v>1113.78</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>96.8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J4">
+        <v>105.69</v>
+      </c>
+      <c r="K4">
+        <v>118</v>
+      </c>
+      <c r="L4">
+        <v>46.89</v>
+      </c>
+      <c r="M4">
+        <v>1114.78</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5">
+        <v>298.32</v>
+      </c>
+      <c r="C5">
+        <v>5.73</v>
+      </c>
+      <c r="D5">
+        <v>25.52</v>
+      </c>
+      <c r="E5">
+        <v>19.78</v>
+      </c>
+      <c r="F5">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="G5">
+        <v>441.1</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="J5">
+        <v>299.32</v>
+      </c>
+      <c r="K5">
+        <v>6.73</v>
+      </c>
+      <c r="L5">
+        <v>26.52</v>
+      </c>
+      <c r="M5">
+        <v>20.78</v>
+      </c>
+      <c r="N5">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="O5">
+        <v>442.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B6">
+        <v>6.92</v>
+      </c>
+      <c r="C6">
+        <v>315.54000000000002</v>
+      </c>
+      <c r="D6">
+        <v>76.2</v>
+      </c>
+      <c r="E6">
+        <v>14.03</v>
+      </c>
+      <c r="F6">
+        <v>69.47</v>
+      </c>
+      <c r="G6">
+        <v>53.16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J6">
+        <v>7.92</v>
+      </c>
+      <c r="K6">
+        <v>316.54000000000002</v>
+      </c>
+      <c r="L6">
+        <v>77.2</v>
+      </c>
+      <c r="M6">
+        <v>15.03</v>
+      </c>
+      <c r="N6">
+        <v>70.47</v>
+      </c>
+      <c r="O6">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="D7">
+        <v>43.69</v>
+      </c>
+      <c r="E7">
+        <v>22.18</v>
+      </c>
+      <c r="F7">
+        <v>6.54</v>
+      </c>
+      <c r="G7">
+        <v>409.7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J7">
+        <v>2.02</v>
+      </c>
+      <c r="K7">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="L7">
+        <v>44.69</v>
+      </c>
+      <c r="M7">
+        <v>23.18</v>
+      </c>
+      <c r="N7">
+        <v>7.54</v>
+      </c>
+      <c r="O7">
+        <v>410.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B8">
+        <v>27.15</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>137</v>
+      </c>
+      <c r="F8">
+        <v>1.99</v>
+      </c>
+      <c r="G8">
+        <v>117.26</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="J8">
+        <v>28.15</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>138</v>
+      </c>
+      <c r="N8">
+        <v>2.99</v>
+      </c>
+      <c r="O8">
+        <v>118.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B9">
+        <v>36.97</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>127</v>
+      </c>
+      <c r="G9">
+        <v>7.8</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J9">
+        <v>37.97</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B11">
+        <v>16.29</v>
+      </c>
+      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>14.88</v>
+      </c>
+      <c r="E11">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.55</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="J11">
+        <v>17.29</v>
+      </c>
+      <c r="K11">
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <v>15.88</v>
+      </c>
+      <c r="M11">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B12">
+        <v>18.04</v>
+      </c>
+      <c r="C12">
+        <v>9.42</v>
+      </c>
+      <c r="D12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E12">
+        <v>24.82</v>
+      </c>
+      <c r="F12">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="G12">
+        <v>39.42</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J12">
+        <v>19.04</v>
+      </c>
+      <c r="K12">
+        <v>10.42</v>
+      </c>
+      <c r="L12">
+        <v>3.24</v>
+      </c>
+      <c r="M12">
+        <v>25.82</v>
+      </c>
+      <c r="N12">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="O12">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B13">
+        <v>12.81</v>
+      </c>
+      <c r="C13">
+        <v>1.07</v>
+      </c>
+      <c r="D13">
+        <v>1.93</v>
+      </c>
+      <c r="E13">
+        <v>22.06</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>27.95</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J13">
+        <v>13.81</v>
+      </c>
+      <c r="K13">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="L13">
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="M13">
+        <v>23.06</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14">
+        <v>0.69</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6.46</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2.94</v>
+      </c>
+      <c r="G14">
+        <v>3.25</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="J14">
+        <v>1.69</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>7.46</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>3.94</v>
+      </c>
+      <c r="O14">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.53243499999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.340833</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.33201000000000003</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.3725</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.431226</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.37083300000000002</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="I19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.50106700000000004</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.37333300000000003</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.26076500000000002</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.42416700000000002</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="I21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.12471400000000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.80081199999999997</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.408333</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.80081199999999997</v>
+      </c>
+      <c r="I23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.57326999999999995</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.49916700000000003</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.57326999999999995</v>
+      </c>
+      <c r="I24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.8377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.170295</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.278333</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.65795499999999996</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.66333299999999995</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.66333299999999995</v>
+      </c>
+      <c r="I26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.54454000000000002</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.54454000000000002</v>
+      </c>
+      <c r="I28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.73980999999999997</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.73980999999999997</v>
+      </c>
+      <c r="I29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519665A-F5D4-E948-9FB9-8AECE3D533E4}">
+  <dimension ref="A1:O96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66049,72 +70157,75 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="D33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>1247</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>1248</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>1248</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="7">
         <v>0.16</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>0.52739199999999997</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>0.45833299999999999</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>0.52739199999999997</v>
       </c>
-      <c r="H34" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I34" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66130,32 +70241,35 @@
       <c r="M34" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="7">
+      <c r="E35" s="7">
         <v>0.8</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="7">
         <v>0.64090100000000005</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>0.8</v>
       </c>
-      <c r="H35" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I35" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66165,38 +70279,41 @@
       <c r="K35" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="7">
         <v>0.19</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>0.70607299999999995</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>0.57333299999999998</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="7">
         <v>0.70607299999999995</v>
       </c>
-      <c r="H36" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I36" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66206,38 +70323,41 @@
       <c r="K36" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N36" s="7">
         <v>0.99980000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E37" s="7">
         <v>0.5</v>
-      </c>
-      <c r="E37" s="7">
-        <v>-1</v>
       </c>
       <c r="F37" s="7">
         <v>-1</v>
       </c>
       <c r="G37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="7">
         <v>0.5</v>
       </c>
-      <c r="H37" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I37" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66253,32 +70373,35 @@
       <c r="M37" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D38" s="7">
+      <c r="E38" s="7">
         <v>0.16</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>0.52739199999999997</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>0.45833299999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="7">
         <v>0.52739199999999997</v>
       </c>
-      <c r="H38" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I38" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66294,32 +70417,35 @@
       <c r="M38" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E39" s="7">
         <v>0.77</v>
-      </c>
-      <c r="E39" s="7">
-        <v>-1</v>
       </c>
       <c r="F39" s="7">
         <v>-1</v>
       </c>
       <c r="G39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="7">
         <v>0.77</v>
       </c>
-      <c r="H39" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I39" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66329,38 +70455,41 @@
       <c r="K39" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N39" s="7">
         <v>0.99760000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="D40" s="7">
+      <c r="E40" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>0.53243499999999999</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>0.340833</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H40" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I40" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66376,73 +70505,79 @@
       <c r="M40" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E41" s="7">
         <v>0.72</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <v>0.83499400000000001</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>0.62083299999999997</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H41" s="7">
         <v>0.83499400000000001</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J41" s="7">
         <v>0.61399999999999999</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="K41" s="7">
+      <c r="L41" s="7">
         <v>0.58399999999999996</v>
       </c>
-      <c r="L41" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="M41" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="7">
+      <c r="E42" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>0.33201000000000003</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>0.3725</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H42" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I42" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66458,20 +70593,23 @@
       <c r="M42" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="D43" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="E43" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66493,38 +70631,41 @@
       <c r="K43" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N43" s="7">
         <v>0.84119999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="D44" s="7">
+      <c r="E44" s="7">
         <v>0.64</v>
       </c>
-      <c r="E44" s="7">
+      <c r="F44" s="7">
         <v>0.199654</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>0.26</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>0.64</v>
       </c>
-      <c r="H44" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I44" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66540,32 +70681,35 @@
       <c r="M44" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E45" s="7">
         <v>0.76</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F45" s="7">
         <v>0.38263599999999998</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <v>0.35083300000000001</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>0.76</v>
       </c>
-      <c r="H45" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I45" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66581,32 +70725,35 @@
       <c r="M45" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D46" s="7">
+      <c r="E46" s="7">
         <v>0.59</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>0.431226</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>0.37083300000000002</v>
       </c>
-      <c r="G46" s="7">
+      <c r="H46" s="7">
         <v>0.59</v>
       </c>
-      <c r="H46" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I46" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66622,32 +70769,35 @@
       <c r="M46" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D47" s="7">
+      <c r="E47" s="7">
         <v>0.44</v>
       </c>
-      <c r="E47" s="7">
+      <c r="F47" s="7">
         <v>0.77527699999999999</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>0.54249999999999998</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>0.77527699999999999</v>
       </c>
-      <c r="H47" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I47" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66663,32 +70813,35 @@
       <c r="M47" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D48" s="7">
+      <c r="E48" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E48" s="7">
+      <c r="F48" s="7">
         <v>0.43924400000000002</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>0.339167</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H48" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I48" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66704,32 +70857,35 @@
       <c r="M48" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E49" s="7">
         <v>0.59</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <v>0.53942800000000002</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>0.39083299999999999</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>0.59</v>
       </c>
-      <c r="H49" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I49" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66745,32 +70901,35 @@
       <c r="M49" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D50" s="7">
+      <c r="E50" s="7">
         <v>0.7</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>0.215833</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>0.7</v>
       </c>
-      <c r="H50" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I50" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66786,32 +70945,35 @@
       <c r="M50" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="D51" s="7">
+      <c r="E51" s="7">
         <v>0.81</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F51" s="7">
         <v>0.25647199999999998</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>0.16583300000000001</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>0.81</v>
       </c>
-      <c r="H51" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I51" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66827,32 +70989,35 @@
       <c r="M51" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D52" s="7">
+      <c r="E52" s="7">
         <v>0.76</v>
       </c>
-      <c r="E52" s="7">
+      <c r="F52" s="7">
         <v>0.50848199999999999</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>0.76</v>
       </c>
-      <c r="H52" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I52" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66862,38 +71027,41 @@
       <c r="K52" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M52" s="7">
+      <c r="N52" s="7">
         <v>0.83169999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E53" s="7">
         <v>0.52</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F53" s="7">
         <v>0.70991800000000005</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>0.406667</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H53" s="7">
         <v>0.70991800000000005</v>
       </c>
-      <c r="H53" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I53" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66909,32 +71077,35 @@
       <c r="M53" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D54" s="7">
+      <c r="E54" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E54" s="7">
+      <c r="F54" s="7">
         <v>0.48047699999999999</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>0.17166699999999999</v>
       </c>
-      <c r="G54" s="7">
+      <c r="H54" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H54" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I54" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66950,32 +71121,35 @@
       <c r="M54" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D55" s="7">
+      <c r="E55" s="7">
         <v>0.68</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F55" s="7">
         <v>0.50106700000000004</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>0.37333300000000003</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>0.68</v>
       </c>
-      <c r="H55" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I55" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -66991,32 +71165,35 @@
       <c r="M55" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="D56" s="7">
+      <c r="E56" s="7">
         <v>0.7</v>
       </c>
-      <c r="E56" s="7">
+      <c r="F56" s="7">
         <v>4.4323000000000001E-2</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>0.35583300000000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>0.7</v>
       </c>
-      <c r="H56" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I56" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67026,38 +71203,41 @@
       <c r="K56" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M56" s="7">
+      <c r="N56" s="7">
         <v>0.59819999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D57" s="7">
+      <c r="E57" s="7">
         <v>0.65</v>
-      </c>
-      <c r="E57" s="7">
-        <v>-1</v>
       </c>
       <c r="F57" s="7">
         <v>-1</v>
       </c>
       <c r="G57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="7">
         <v>0.65</v>
       </c>
-      <c r="H57" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I57" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67073,32 +71253,35 @@
       <c r="M57" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="D58" s="7">
+      <c r="E58" s="7">
         <v>0.85</v>
-      </c>
-      <c r="E58" s="7">
-        <v>-1</v>
       </c>
       <c r="F58" s="7">
         <v>-1</v>
       </c>
       <c r="G58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="7">
         <v>0.85</v>
       </c>
-      <c r="H58" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I58" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67114,32 +71297,35 @@
       <c r="M58" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D59" s="7">
+      <c r="E59" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E59" s="7">
+      <c r="F59" s="7">
         <v>0.42864000000000002</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="G59" s="7">
+      <c r="H59" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H59" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I59" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67149,38 +71335,41 @@
       <c r="K59" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="L59" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="M59" s="7">
+      <c r="N59" s="7">
         <v>0.7147</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D60" s="7">
+      <c r="E60" s="7">
         <v>0.74</v>
-      </c>
-      <c r="E60" s="7">
-        <v>-1</v>
       </c>
       <c r="F60" s="7">
         <v>-1</v>
       </c>
       <c r="G60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="7">
         <v>0.74</v>
       </c>
-      <c r="H60" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I60" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67196,32 +71385,35 @@
       <c r="M60" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D61" s="7">
+      <c r="E61" s="7">
         <v>0.92</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F61" s="7">
         <v>0.108085</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>0.3075</v>
       </c>
-      <c r="G61" s="7">
+      <c r="H61" s="7">
         <v>0.92</v>
       </c>
-      <c r="H61" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I61" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67237,32 +71429,35 @@
       <c r="M61" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D62" s="7">
+      <c r="E62" s="7">
         <v>0.71</v>
       </c>
-      <c r="E62" s="7">
+      <c r="F62" s="7">
         <v>0.37154799999999999</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <v>0.32083299999999998</v>
       </c>
-      <c r="G62" s="7">
+      <c r="H62" s="7">
         <v>0.71</v>
       </c>
-      <c r="H62" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I62" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67272,38 +71467,41 @@
       <c r="K62" s="7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="M62" s="7">
+      <c r="N62" s="7">
         <v>0.51890000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E63" s="7">
         <v>0.97</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F63" s="7">
         <v>4.64E-4</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>0.1225</v>
       </c>
-      <c r="G63" s="7">
+      <c r="H63" s="7">
         <v>0.97</v>
       </c>
-      <c r="H63" s="7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="I63" s="7" t="e">
         <v>#N/A</v>
       </c>
@@ -67318,6 +71516,257 @@
       </c>
       <c r="M63" s="7" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="N63" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1261</v>
       </c>
     </row>
   </sheetData>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E50781-E844-6446-B406-712EF1AE23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D07B4-598D-E64C-AEE0-1DDB4D7CB876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5240" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1325">
   <si>
     <t>Seq ID</t>
   </si>
@@ -4008,6 +4008,15 @@
   </si>
   <si>
     <t>megan.blastn</t>
+  </si>
+  <si>
+    <t>genomic.context</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -4068,7 +4077,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4099,6 +4108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4112,7 +4127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4125,6 +4140,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52009,7 +52025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
   <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -65261,14 +65277,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -67247,165 +67264,291 @@
       <c r="B46" s="4" t="s">
         <v>1321</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>1320</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>1000</v>
       </c>
       <c r="B50" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>1139</v>
       </c>
       <c r="B51" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>959</v>
       </c>
       <c r="B53" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>984</v>
       </c>
       <c r="B54" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="12" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="B56" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>1170</v>
       </c>
       <c r="B58" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>1070</v>
       </c>
       <c r="B60" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="B61" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>980</v>
       </c>
       <c r="B62" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="12" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>751</v>
       </c>
       <c r="B64" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>1317</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -67418,8 +67561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4111CD-3CDF-CF4B-987C-2E286C9BEC80}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67427,6 +67570,7 @@
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D07B4-598D-E64C-AEE0-1DDB4D7CB876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B1DF48-1C6A-4D4E-997C-93522F4ED5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" firstSheet="1" activeTab="5" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
     <sheet name="amp_prediction" sheetId="1" r:id="rId2"/>
-    <sheet name="megan6_taxa" sheetId="7" r:id="rId3"/>
+    <sheet name="blastn" sheetId="7" r:id="rId3"/>
     <sheet name="deseq2" sheetId="3" r:id="rId4"/>
     <sheet name="amps_overexpressed_info" sheetId="4" r:id="rId5"/>
     <sheet name="amps_allsamples_info" sheetId="5" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1389">
   <si>
     <t>Seq ID</t>
   </si>
@@ -3815,18 +3815,9 @@
     <t>amp.id</t>
   </si>
   <si>
-    <t>NCBI</t>
-  </si>
-  <si>
     <t>Bacteria</t>
   </si>
   <si>
-    <t>Bacteroidales</t>
-  </si>
-  <si>
-    <t>Bacteroidaceae</t>
-  </si>
-  <si>
     <t>Bacteroides</t>
   </si>
   <si>
@@ -3854,57 +3845,21 @@
     <t>Parabacteroides</t>
   </si>
   <si>
-    <t>uncultured Sutterella sp.</t>
-  </si>
-  <si>
     <t>Sutterella wadsworthensis</t>
   </si>
   <si>
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>Bifidobacterium</t>
-  </si>
-  <si>
-    <t>Eggerthella</t>
-  </si>
-  <si>
     <t>Eggerthella lenta</t>
   </si>
   <si>
-    <t>Firmicutes</t>
-  </si>
-  <si>
-    <t>Lactobacillales</t>
-  </si>
-  <si>
-    <t>Streptococcus</t>
-  </si>
-  <si>
     <t>Eubacteriales</t>
   </si>
   <si>
-    <t>Christensenella sp. MSJ-20</t>
-  </si>
-  <si>
-    <t>Clostridiaceae</t>
-  </si>
-  <si>
     <t>Clostridium</t>
   </si>
   <si>
-    <t>Clostridium sp. CT4</t>
-  </si>
-  <si>
-    <t>Sarcina sp. JB2</t>
-  </si>
-  <si>
-    <t>Clostridiaceae bacterium Marseille-Q4143</t>
-  </si>
-  <si>
-    <t>Lachnospiraceae</t>
-  </si>
-  <si>
     <t>Anaerobutyricum hallii</t>
   </si>
   <si>
@@ -3923,15 +3878,6 @@
     <t>Coprococcus comes</t>
   </si>
   <si>
-    <t>[Clostridium] scindens</t>
-  </si>
-  <si>
-    <t>[Ruminococcus] gnavus</t>
-  </si>
-  <si>
-    <t>[Ruminococcus] torques</t>
-  </si>
-  <si>
     <t>Roseburia hominis</t>
   </si>
   <si>
@@ -3944,15 +3890,6 @@
     <t>Lachnospiraceae bacterium</t>
   </si>
   <si>
-    <t>Lachnospiraceae bacterium NSJ-29</t>
-  </si>
-  <si>
-    <t>Oscillospiraceae</t>
-  </si>
-  <si>
-    <t>Dysosmobacter sp. Marseille-Q4140</t>
-  </si>
-  <si>
     <t>Faecalibacterium prausnitzii</t>
   </si>
   <si>
@@ -3965,30 +3902,12 @@
     <t>Ruminococcus bicirculans</t>
   </si>
   <si>
-    <t>Ruthenibacterium lactatiformans</t>
-  </si>
-  <si>
     <t>Vescimonas fastidiosa</t>
   </si>
   <si>
-    <t>Peptostreptococcaceae</t>
-  </si>
-  <si>
-    <t>Romboutsia</t>
-  </si>
-  <si>
     <t>Romboutsia ilealis</t>
   </si>
   <si>
-    <t>Terrisporobacter sp. MCA3</t>
-  </si>
-  <si>
-    <t>Veillonella</t>
-  </si>
-  <si>
-    <t>Caudovirales</t>
-  </si>
-  <si>
     <t>Myoviridae sp.</t>
   </si>
   <si>
@@ -3998,18 +3917,9 @@
     <t>uncultured human fecal virus</t>
   </si>
   <si>
-    <t>Opuntia virus 2</t>
-  </si>
-  <si>
-    <t>Phage sp. ctXnn1</t>
-  </si>
-  <si>
     <t>Not assigned</t>
   </si>
   <si>
-    <t>megan.blastn</t>
-  </si>
-  <si>
     <t>genomic.context</t>
   </si>
   <si>
@@ -4017,6 +3927,288 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Caudovirales sp.</t>
+  </si>
+  <si>
+    <t>Blautia wexlerae</t>
+  </si>
+  <si>
+    <t>Clostridium isatidis</t>
+  </si>
+  <si>
+    <t>Blautia massiliensis</t>
+  </si>
+  <si>
+    <t>Bacteroides ovatus</t>
+  </si>
+  <si>
+    <t>Phocaeicola dorei</t>
+  </si>
+  <si>
+    <t>Eubacterium rectale</t>
+  </si>
+  <si>
+    <t>Uncultured human fecal virus clone</t>
+  </si>
+  <si>
+    <t>Faecalibacterium sp.</t>
+  </si>
+  <si>
+    <t>Bacteroides uniformis</t>
+  </si>
+  <si>
+    <t>Qiania dongpingensis</t>
+  </si>
+  <si>
+    <t>Bifidobacterium longum</t>
+  </si>
+  <si>
+    <t>Faecalibacterium duncaniae</t>
+  </si>
+  <si>
+    <t>Ruminococcus torques</t>
+  </si>
+  <si>
+    <t>Parabacteroides sp.</t>
+  </si>
+  <si>
+    <t>Bacteroides humanifaecis</t>
+  </si>
+  <si>
+    <t>Dysosmobacter sp.</t>
+  </si>
+  <si>
+    <t>Clostridiales sp.</t>
+  </si>
+  <si>
+    <t>Bacteriophage sp.</t>
+  </si>
+  <si>
+    <t>Eubacterium eligens</t>
+  </si>
+  <si>
+    <t>Parabacteroides merdae</t>
+  </si>
+  <si>
+    <t>Parabacteroides goldsteinii</t>
+  </si>
+  <si>
+    <t>Clostridium symbiosum</t>
+  </si>
+  <si>
+    <t>Dorea longicatena</t>
+  </si>
+  <si>
+    <t>Hungatella xylanolytica</t>
+  </si>
+  <si>
+    <t>Parabacteroides johnsonii</t>
+  </si>
+  <si>
+    <t>Bacteroides dorei</t>
+  </si>
+  <si>
+    <t>Bacteroides cellulosilyticus</t>
+  </si>
+  <si>
+    <t>Subdoligranulum variabile</t>
+  </si>
+  <si>
+    <t>Clostridiales bacterium</t>
+  </si>
+  <si>
+    <t>Anaerocolumna sedimenticola</t>
+  </si>
+  <si>
+    <t>Christensenella sp.</t>
+  </si>
+  <si>
+    <t>Clostridiaceae bacterium</t>
+  </si>
+  <si>
+    <t>Bacteroides fragilis</t>
+  </si>
+  <si>
+    <t>Eubacterium sp.</t>
+  </si>
+  <si>
+    <t>Clostridium beijerinckii</t>
+  </si>
+  <si>
+    <t>Uncultured bacterium clone</t>
+  </si>
+  <si>
+    <t>Roseburia sp.</t>
+  </si>
+  <si>
+    <t>Wansuia hejianensis</t>
+  </si>
+  <si>
+    <t>Uncultured organism</t>
+  </si>
+  <si>
+    <t>Ruminococcus sp.</t>
+  </si>
+  <si>
+    <t>Bacteroides thetaiotaomicron</t>
+  </si>
+  <si>
+    <t>Clostridium baratii</t>
+  </si>
+  <si>
+    <t>Ruminococcus gnavus</t>
+  </si>
+  <si>
+    <t>Lacrimispora saccharolytica</t>
+  </si>
+  <si>
+    <t>Longibaculum sp.</t>
+  </si>
+  <si>
+    <t>Clostridium manihotivorum</t>
+  </si>
+  <si>
+    <t>Simiaoa sunii</t>
+  </si>
+  <si>
+    <t>Blautia liquoris</t>
+  </si>
+  <si>
+    <t>Ruminococcus obeum</t>
+  </si>
+  <si>
+    <t>Bacteroides faecis</t>
+  </si>
+  <si>
+    <t>Pseudoclostridium thermosuccinogenes</t>
+  </si>
+  <si>
+    <t>Microviridae sp.</t>
+  </si>
+  <si>
+    <t>Sarcina sp.</t>
+  </si>
+  <si>
+    <t>Intestinibacter bartlettii</t>
+  </si>
+  <si>
+    <t>Bacteroides stercoris</t>
+  </si>
+  <si>
+    <t>Bifidobacterium pseudocatenulatum</t>
+  </si>
+  <si>
+    <t>Sutterella sp.</t>
+  </si>
+  <si>
+    <t>Lachnospira eligens</t>
+  </si>
+  <si>
+    <t>Picobirnavirus sp.</t>
+  </si>
+  <si>
+    <t>Ruminococcus lactaris</t>
+  </si>
+  <si>
+    <t>Vitreoscilla sp.</t>
+  </si>
+  <si>
+    <t>Streptococcus salivarius</t>
+  </si>
+  <si>
+    <t>Solibaculum mannosilyticum</t>
+  </si>
+  <si>
+    <t>Clostridium asparagiforme</t>
+  </si>
+  <si>
+    <t>Phage sp. ctXnn1, partial genome</t>
+  </si>
+  <si>
+    <t>Romboutsia sp.</t>
+  </si>
+  <si>
+    <t>Bifidobacterium adolescentis</t>
+  </si>
+  <si>
+    <t>Terrisporobacter glycolicus</t>
+  </si>
+  <si>
+    <t>Hungatella hathewayi</t>
+  </si>
+  <si>
+    <t>Pseudobutyrivibrio xylanivorans</t>
+  </si>
+  <si>
+    <t>Veillonella sp.</t>
+  </si>
+  <si>
+    <t>Phocaeicola coprophilus</t>
+  </si>
+  <si>
+    <t>Clostridium sp.</t>
+  </si>
+  <si>
+    <t>Enterococcus faecium</t>
+  </si>
+  <si>
+    <t>Enterocloster clostridioformis</t>
+  </si>
+  <si>
+    <t>Eubacterium ventriosum</t>
+  </si>
+  <si>
+    <t>blastn.besthit</t>
+  </si>
+  <si>
+    <t>tax.id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Others (Various species)</t>
+  </si>
+  <si>
+    <t>AMP_145857_c2_g1_i5.p4</t>
+  </si>
+  <si>
+    <t>AMP_134571_c44_g1_i3.p7</t>
+  </si>
+  <si>
+    <t>AMP_143867_c81_g1_i4.p7</t>
+  </si>
+  <si>
+    <t>AMP_145422_c2_g1_i16.p11</t>
+  </si>
+  <si>
+    <t>AMP_144440_c1_g1_i2.p8</t>
+  </si>
+  <si>
+    <t>AMP_383713_c2_g1_i1.p8</t>
+  </si>
+  <si>
+    <t>AMP_144616_c7_g3_i6.p5</t>
+  </si>
+  <si>
+    <t>AMP_144746_c5_g1_i1.p8</t>
+  </si>
+  <si>
+    <t>AMP_143402_c2_g1_i6.p8</t>
+  </si>
+  <si>
+    <t>AMP_144878_c1_g1_i1.p9</t>
+  </si>
+  <si>
+    <t>AMP_141259_c3_g4_i3.p6</t>
+  </si>
+  <si>
+    <t>AMP_145462_c0_g1_i9.p9</t>
+  </si>
+  <si>
+    <t>AMP_145289_c1_g1_i1.p7</t>
   </si>
 </sst>
 </file>
@@ -4115,10 +4307,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4127,7 +4330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4141,6 +4344,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52023,2215 +52227,2846 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1372</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>978</v>
       </c>
       <c r="B2" t="s">
-        <v>1257</v>
+        <v>1371</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>954</v>
       </c>
       <c r="E2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" t="s">
         <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>974</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1257</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1128</v>
       </c>
       <c r="E3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1027</v>
+        <v>884</v>
       </c>
       <c r="B4" t="s">
-        <v>1257</v>
+        <v>1320</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>946</v>
       </c>
       <c r="E4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H4" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1139</v>
+        <v>836</v>
       </c>
       <c r="B5" t="s">
-        <v>1257</v>
+        <v>1313</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1309</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>972</v>
+        <v>891</v>
       </c>
       <c r="B6" t="s">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1139</v>
       </c>
       <c r="E6" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1268</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>966</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>815</v>
       </c>
       <c r="E7" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
-        <v>1257</v>
+        <v>1331</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>959</v>
       </c>
       <c r="E8" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1351</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="B9" t="s">
-        <v>1257</v>
+        <v>1342</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>984</v>
       </c>
       <c r="E9" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1108</v>
+        <v>1152</v>
       </c>
       <c r="B10" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1166</v>
       </c>
       <c r="E10" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1287</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1095</v>
+        <v>760</v>
       </c>
       <c r="B11" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="E11" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1096</v>
+        <v>994</v>
       </c>
       <c r="B12" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1002</v>
       </c>
       <c r="E12" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B13" t="s">
-        <v>1257</v>
+        <v>1347</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1170</v>
       </c>
       <c r="E13" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1368</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="B14" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>784</v>
       </c>
       <c r="E14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H14" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>868</v>
+        <v>1072</v>
       </c>
       <c r="B15" t="s">
-        <v>1257</v>
+        <v>1351</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1070</v>
       </c>
       <c r="E15" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1334</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1100</v>
+        <v>1153</v>
       </c>
       <c r="B16" t="s">
-        <v>1257</v>
+        <v>1296</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="E16" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="B17" t="s">
-        <v>1257</v>
+        <v>1339</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>980</v>
       </c>
       <c r="E17" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1288</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B18" t="s">
-        <v>1257</v>
+        <v>1357</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>986</v>
       </c>
       <c r="E18" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>888</v>
+        <v>1125</v>
       </c>
       <c r="B19" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>751</v>
       </c>
       <c r="E19" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="B20" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="E20" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>899</v>
+        <v>1154</v>
       </c>
       <c r="B21" t="s">
-        <v>1257</v>
+        <v>1308</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>936</v>
       </c>
       <c r="E21" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1302</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1070</v>
+        <v>825</v>
       </c>
       <c r="B22" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>1047</v>
       </c>
       <c r="E22" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
       <c r="B23" t="s">
-        <v>1257</v>
+        <v>1351</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="E23" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1295</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>885</v>
+        <v>1155</v>
       </c>
       <c r="B24" t="s">
-        <v>1257</v>
+        <v>1296</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1004</v>
       </c>
       <c r="E24" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
       <c r="B25" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>904</v>
       </c>
       <c r="E25" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>746</v>
+        <v>1018</v>
       </c>
       <c r="B26" t="s">
-        <v>1257</v>
+        <v>1295</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="E26" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H26" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1018</v>
+        <v>1086</v>
       </c>
       <c r="B27" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>1081</v>
       </c>
       <c r="E27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B28" t="s">
         <v>1320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>893</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1257</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>813</v>
       </c>
       <c r="E28" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1013</v>
+        <v>928</v>
       </c>
       <c r="B29" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>1017</v>
       </c>
       <c r="E29" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>965</v>
+      </c>
+      <c r="B30" t="s">
         <v>1282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>989</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1257</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>1075</v>
       </c>
       <c r="E30" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="B31" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>917</v>
       </c>
       <c r="E31" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>999</v>
+        <v>765</v>
       </c>
       <c r="B32" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="E32" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1298</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1000</v>
+        <v>761</v>
       </c>
       <c r="B33" t="s">
-        <v>1257</v>
+        <v>1301</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>1061</v>
       </c>
       <c r="E33" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B34" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>866</v>
       </c>
       <c r="E34" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>894</v>
+        <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>1083</v>
       </c>
       <c r="E35" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1037</v>
+        <v>880</v>
       </c>
       <c r="B36" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>815</v>
       </c>
       <c r="E36" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1038</v>
+        <v>908</v>
       </c>
       <c r="B37" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>884</v>
       </c>
       <c r="E37" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1320</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>970</v>
+        <v>1127</v>
       </c>
       <c r="B38" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>1109</v>
       </c>
       <c r="E38" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1260</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1165</v>
+        <v>1059</v>
       </c>
       <c r="B39" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="E39" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1081</v>
+        <v>982</v>
       </c>
       <c r="B40" t="s">
-        <v>1257</v>
+        <v>1321</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>841</v>
       </c>
       <c r="E40" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1301</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>833</v>
+        <v>1094</v>
       </c>
       <c r="B41" t="s">
-        <v>1257</v>
+        <v>1282</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="E41" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B42" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>782</v>
       </c>
       <c r="E42" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1260</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="B43" t="s">
-        <v>1258</v>
+        <v>1282</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>1018</v>
       </c>
       <c r="E43" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1295</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1127</v>
+        <v>742</v>
       </c>
       <c r="B44" t="s">
-        <v>1258</v>
+        <v>1282</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>1139</v>
       </c>
       <c r="E44" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1268</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>756</v>
+        <v>1104</v>
       </c>
       <c r="B45" t="s">
-        <v>1258</v>
+        <v>1282</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>950</v>
       </c>
       <c r="E45" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1260</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1107</v>
+        <v>1074</v>
       </c>
       <c r="B46" t="s">
-        <v>1258</v>
+        <v>1312</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>849</v>
       </c>
       <c r="E46" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1303</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1055</v>
+        <v>781</v>
       </c>
       <c r="B47" t="s">
-        <v>1258</v>
+        <v>1298</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>1004</v>
       </c>
       <c r="E47" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1031</v>
+        <v>770</v>
       </c>
       <c r="B48" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>835</v>
       </c>
       <c r="E48" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>995</v>
+        <v>750</v>
       </c>
       <c r="B49" t="s">
-        <v>1258</v>
+        <v>1299</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>1055</v>
       </c>
       <c r="E49" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>956</v>
+        <v>1036</v>
       </c>
       <c r="B50" t="s">
-        <v>1258</v>
+        <v>1336</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>1001</v>
       </c>
       <c r="E50" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1063</v>
+        <v>1157</v>
       </c>
       <c r="B51" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>885</v>
       </c>
       <c r="E51" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1128</v>
       </c>
       <c r="B52" t="s">
-        <v>1259</v>
+        <v>1345</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>810</v>
       </c>
       <c r="E52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1078</v>
+        <v>995</v>
       </c>
       <c r="B53" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>848</v>
       </c>
       <c r="E53" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1304</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>855</v>
+        <v>1158</v>
       </c>
       <c r="B54" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>883</v>
       </c>
       <c r="E54" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1289</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>791</v>
+        <v>987</v>
       </c>
       <c r="B55" t="s">
-        <v>1261</v>
+        <v>1311</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>1040</v>
       </c>
       <c r="E55" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1083</v>
+        <v>983</v>
       </c>
       <c r="B56" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>904</v>
       </c>
       <c r="E56" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1084</v>
+        <v>920</v>
       </c>
       <c r="B57" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>887</v>
       </c>
       <c r="E57" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>804</v>
+        <v>743</v>
       </c>
       <c r="B58" t="s">
-        <v>1261</v>
+        <v>1289</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>930</v>
       </c>
       <c r="E58" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1367</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>990</v>
+        <v>1064</v>
       </c>
       <c r="B59" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>772</v>
       </c>
       <c r="E59" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1288</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1099</v>
+        <v>1159</v>
       </c>
       <c r="B60" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>1042</v>
       </c>
       <c r="E60" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1036</v>
+        <v>1095</v>
       </c>
       <c r="B61" t="s">
-        <v>1261</v>
+        <v>1289</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>864</v>
       </c>
       <c r="E61" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>809</v>
+        <v>1160</v>
       </c>
       <c r="B62" t="s">
-        <v>1261</v>
+        <v>1304</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>748</v>
       </c>
       <c r="E62" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1302</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1091</v>
+        <v>766</v>
       </c>
       <c r="B63" t="s">
-        <v>1261</v>
+        <v>1348</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>882</v>
       </c>
       <c r="E63" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>950</v>
+        <v>1087</v>
       </c>
       <c r="B64" t="s">
-        <v>1261</v>
+        <v>1296</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>734</v>
       </c>
       <c r="E64" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1142</v>
+        <v>819</v>
       </c>
       <c r="B65" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1361</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1109</v>
+        <v>1161</v>
       </c>
       <c r="B66" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1043</v>
+        <v>851</v>
       </c>
       <c r="B67" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
       <c r="B68" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>734</v>
+        <v>1037</v>
       </c>
       <c r="B69" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1312</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>931</v>
+        <v>1038</v>
       </c>
       <c r="B70" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1312</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B71" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>794</v>
+        <v>906</v>
       </c>
       <c r="B72" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1276</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>864</v>
+        <v>996</v>
       </c>
       <c r="B73" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1262</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>988</v>
+        <v>1129</v>
       </c>
       <c r="B74" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>750</v>
+        <v>1096</v>
       </c>
       <c r="B75" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1289</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1068</v>
+        <v>821</v>
       </c>
       <c r="B76" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1355</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1157</v>
+        <v>1088</v>
       </c>
       <c r="B77" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1318</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>807</v>
+        <v>959</v>
       </c>
       <c r="B78" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1351</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="B79" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1269</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1138</v>
+        <v>1053</v>
       </c>
       <c r="B80" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1059</v>
+        <v>934</v>
       </c>
       <c r="B81" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1301</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>815</v>
+        <v>1162</v>
       </c>
       <c r="B82" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>989</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>997</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H87" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>829</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>882</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>932</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>955</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>826</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>827</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>875</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>867</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>744</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>859</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>892</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>926</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>966</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>860</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>998</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>822</v>
       </c>
-      <c r="B88" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>765</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>924</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>982</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>929</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>930</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>770</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>842</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>843</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>971</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>838</v>
-      </c>
       <c r="B105" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>857</v>
+        <v>1132</v>
       </c>
       <c r="B106" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1164</v>
+        <v>1097</v>
       </c>
       <c r="B107" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1126</v>
+        <v>751</v>
       </c>
       <c r="B108" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="B109" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>788</v>
+        <v>1105</v>
       </c>
       <c r="B110" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1152</v>
+        <v>868</v>
       </c>
       <c r="B111" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1001</v>
+        <v>874</v>
       </c>
       <c r="B112" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>969</v>
+        <v>814</v>
       </c>
       <c r="B113" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>884</v>
+        <v>1009</v>
       </c>
       <c r="B114" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>747</v>
+        <v>1165</v>
       </c>
       <c r="B115" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>993</v>
+        <v>901</v>
       </c>
       <c r="B116" t="s">
-        <v>1271</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>964</v>
+        <v>1134</v>
       </c>
       <c r="B117" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>959</v>
+        <v>828</v>
       </c>
       <c r="B118" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>918</v>
+        <v>1106</v>
       </c>
       <c r="B119" t="s">
-        <v>1273</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1052</v>
+        <v>999</v>
       </c>
       <c r="B120" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="B121" t="s">
-        <v>1275</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>867</v>
+        <v>1001</v>
       </c>
       <c r="B122" t="s">
-        <v>1276</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="B123" t="s">
-        <v>1277</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>879</v>
+        <v>823</v>
       </c>
       <c r="B124" t="s">
-        <v>1278</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B125" t="s">
-        <v>1279</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>907</v>
+        <v>1039</v>
       </c>
       <c r="B126" t="s">
-        <v>1279</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="B127" t="s">
-        <v>1279</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>968</v>
+        <v>861</v>
       </c>
       <c r="B128" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>921</v>
+        <v>1011</v>
       </c>
       <c r="B129" t="s">
-        <v>1279</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>922</v>
+        <v>1012</v>
       </c>
       <c r="B130" t="s">
-        <v>1279</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1137</v>
+        <v>784</v>
       </c>
       <c r="B131" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>967</v>
+        <v>1020</v>
       </c>
       <c r="B132" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1097</v>
+        <v>775</v>
       </c>
       <c r="B133" t="s">
-        <v>1279</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1011</v>
+        <v>837</v>
       </c>
       <c r="B134" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>785</v>
+        <v>1098</v>
       </c>
       <c r="B135" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1169</v>
+        <v>783</v>
       </c>
       <c r="B136" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>774</v>
+        <v>1135</v>
       </c>
       <c r="B137" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1075</v>
+        <v>967</v>
       </c>
       <c r="B138" t="s">
-        <v>1279</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>998</v>
+        <v>745</v>
       </c>
       <c r="B139" t="s">
-        <v>1279</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>860</v>
+        <v>1054</v>
       </c>
       <c r="B140" t="s">
-        <v>1279</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>781</v>
+        <v>897</v>
       </c>
       <c r="B141" t="s">
-        <v>1279</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>813</v>
+        <v>869</v>
       </c>
       <c r="B142" t="s">
-        <v>1279</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>862</v>
+        <v>909</v>
       </c>
       <c r="B143" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>757</v>
+        <v>902</v>
       </c>
       <c r="B144" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>912</v>
+        <v>776</v>
       </c>
       <c r="B145" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>758</v>
+        <v>1166</v>
       </c>
       <c r="B146" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>984</v>
+        <v>777</v>
       </c>
       <c r="B147" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1171</v>
+        <v>1099</v>
       </c>
       <c r="B148" t="s">
-        <v>1279</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1172</v>
+        <v>838</v>
       </c>
       <c r="B149" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="B150" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1019</v>
+        <v>883</v>
       </c>
       <c r="B151" t="s">
-        <v>1279</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="B152" t="s">
-        <v>1279</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1003</v>
+        <v>1167</v>
       </c>
       <c r="B153" t="s">
-        <v>1279</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B154" t="s">
-        <v>1279</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1170</v>
+        <v>763</v>
       </c>
       <c r="B155" t="s">
-        <v>1279</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>961</v>
+        <v>1089</v>
       </c>
       <c r="B156" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>953</v>
+        <v>1136</v>
       </c>
       <c r="B157" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1085</v>
+        <v>968</v>
       </c>
       <c r="B158" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>834</v>
+        <v>1066</v>
       </c>
       <c r="B159" t="s">
-        <v>1279</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1023</v>
+        <v>738</v>
       </c>
       <c r="B160" t="s">
-        <v>1280</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>911</v>
+        <v>815</v>
       </c>
       <c r="B161" t="s">
-        <v>1281</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1022</v>
+        <v>845</v>
       </c>
       <c r="B162" t="s">
-        <v>1282</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>745</v>
+        <v>921</v>
       </c>
       <c r="B163" t="s">
-        <v>1282</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1017</v>
+        <v>922</v>
       </c>
       <c r="B164" t="s">
-        <v>1282</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="B165" t="s">
-        <v>1282</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>798</v>
+        <v>1168</v>
       </c>
       <c r="B166" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>766</v>
+        <v>829</v>
       </c>
       <c r="B167" t="s">
-        <v>1284</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>846</v>
+        <v>1021</v>
       </c>
       <c r="B168" t="s">
-        <v>1285</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>795</v>
+        <v>1030</v>
       </c>
       <c r="B169" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1024</v>
+        <v>1137</v>
       </c>
       <c r="B170" t="s">
-        <v>1285</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1034</v>
+        <v>846</v>
       </c>
       <c r="B171" t="s">
-        <v>1285</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B172" t="s">
-        <v>1286</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="B173" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="B174" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1105</v>
+        <v>771</v>
       </c>
       <c r="B175" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1012</v>
+        <v>852</v>
       </c>
       <c r="B176" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>816</v>
+        <v>1075</v>
       </c>
       <c r="B177" t="s">
-        <v>1286</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>869</v>
+        <v>1107</v>
       </c>
       <c r="B178" t="s">
-        <v>1286</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>878</v>
+        <v>785</v>
       </c>
       <c r="B179" t="s">
-        <v>1286</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>910</v>
+        <v>1169</v>
       </c>
       <c r="B180" t="s">
-        <v>1287</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>872</v>
+        <v>939</v>
       </c>
       <c r="B181" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B182" t="s">
-        <v>1287</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>773</v>
+        <v>870</v>
       </c>
       <c r="B183" t="s">
-        <v>1288</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>771</v>
+        <v>1023</v>
       </c>
       <c r="B184" t="s">
-        <v>1288</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>760</v>
+        <v>924</v>
       </c>
       <c r="B185" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="B186" t="s">
-        <v>1288</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
       <c r="B187" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1032</v>
+        <v>900</v>
       </c>
       <c r="B188" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="B189" t="s">
-        <v>1289</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1174</v>
+        <v>937</v>
       </c>
       <c r="B190" t="s">
-        <v>1290</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="B191" t="s">
-        <v>1290</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>906</v>
+        <v>807</v>
       </c>
       <c r="B192" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1141</v>
+        <v>910</v>
       </c>
       <c r="B193" t="s">
-        <v>1292</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>976</v>
+        <v>1170</v>
       </c>
       <c r="B194" t="s">
-        <v>1292</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>806</v>
+        <v>839</v>
       </c>
       <c r="B195" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1010</v>
+        <v>840</v>
       </c>
       <c r="B196" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>897</v>
+        <v>841</v>
       </c>
       <c r="B197" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1106</v>
+        <v>1003</v>
       </c>
       <c r="B198" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>753</v>
+        <v>1004</v>
       </c>
       <c r="B199" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>881</v>
+        <v>927</v>
       </c>
       <c r="B200" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>786</v>
+        <v>960</v>
       </c>
       <c r="B201" t="s">
-        <v>1295</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1067</v>
+        <v>792</v>
       </c>
       <c r="B202" t="s">
-        <v>1296</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>776</v>
+        <v>961</v>
       </c>
       <c r="B203" t="s">
-        <v>1296</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>957</v>
+        <v>894</v>
       </c>
       <c r="B204" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>889</v>
+        <v>1076</v>
       </c>
       <c r="B205" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="B206" t="s">
-        <v>1297</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>905</v>
+        <v>1077</v>
       </c>
       <c r="B207" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1133</v>
+        <v>824</v>
       </c>
       <c r="B208" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>759</v>
+        <v>1108</v>
       </c>
       <c r="B209" t="s">
-        <v>1298</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>755</v>
+        <v>881</v>
       </c>
       <c r="B210" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>985</v>
+        <v>940</v>
       </c>
       <c r="B211" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1054</v>
+        <v>756</v>
       </c>
       <c r="B212" t="s">
-        <v>1298</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B213" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="B214" t="s">
-        <v>1298</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>840</v>
+        <v>942</v>
       </c>
       <c r="B215" t="s">
-        <v>1298</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>841</v>
+        <v>778</v>
       </c>
       <c r="B216" t="s">
-        <v>1298</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="B217" t="s">
-        <v>1298</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>836</v>
+        <v>1171</v>
       </c>
       <c r="B218" t="s">
-        <v>1298</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="B219" t="s">
-        <v>1299</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1076</v>
+        <v>739</v>
       </c>
       <c r="B220" t="s">
-        <v>1299</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>784</v>
+        <v>1173</v>
       </c>
       <c r="B221" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1051</v>
+        <v>808</v>
       </c>
       <c r="B222" t="s">
-        <v>1299</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>981</v>
+        <v>842</v>
       </c>
       <c r="B223" t="s">
-        <v>1300</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1066</v>
+        <v>984</v>
       </c>
       <c r="B224" t="s">
-        <v>1301</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1130</v>
+        <v>915</v>
       </c>
       <c r="B225" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1131</v>
+        <v>735</v>
       </c>
       <c r="B226" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>987</v>
+        <v>736</v>
       </c>
       <c r="B227" t="s">
         <v>1302</v>
@@ -54239,63 +55074,63 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1020</v>
+        <v>1174</v>
       </c>
       <c r="B228" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>803</v>
+        <v>1175</v>
       </c>
       <c r="B229" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>973</v>
+        <v>890</v>
       </c>
       <c r="B230" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>742</v>
+        <v>885</v>
       </c>
       <c r="B231" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>955</v>
+        <v>1138</v>
       </c>
       <c r="B232" t="s">
-        <v>1303</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>914</v>
+        <v>734</v>
       </c>
       <c r="B233" t="s">
-        <v>1303</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>853</v>
+        <v>1025</v>
       </c>
       <c r="B234" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1008</v>
+        <v>850</v>
       </c>
       <c r="B235" t="s">
         <v>1303</v>
@@ -54303,31 +55138,31 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>876</v>
+        <v>1069</v>
       </c>
       <c r="B236" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>817</v>
+        <v>899</v>
       </c>
       <c r="B237" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>856</v>
+        <v>787</v>
       </c>
       <c r="B238" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="B239" t="s">
         <v>1303</v>
@@ -54335,127 +55170,127 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1093</v>
+        <v>1070</v>
       </c>
       <c r="B240" t="s">
-        <v>1303</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>913</v>
+        <v>943</v>
       </c>
       <c r="B241" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1089</v>
+        <v>737</v>
       </c>
       <c r="B242" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>752</v>
+        <v>876</v>
       </c>
       <c r="B243" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1140</v>
+        <v>944</v>
       </c>
       <c r="B244" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1016</v>
+        <v>788</v>
       </c>
       <c r="B245" t="s">
-        <v>1303</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1006</v>
+        <v>871</v>
       </c>
       <c r="B246" t="s">
-        <v>1303</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="B247" t="s">
-        <v>1303</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="B248" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>992</v>
+        <v>758</v>
       </c>
       <c r="B249" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1062</v>
+        <v>813</v>
       </c>
       <c r="B250" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B251" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>812</v>
+        <v>929</v>
       </c>
       <c r="B252" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1090</v>
+        <v>1013</v>
       </c>
       <c r="B253" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>854</v>
+        <v>977</v>
       </c>
       <c r="B254" t="s">
-        <v>1303</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1073</v>
+        <v>789</v>
       </c>
       <c r="B255" t="s">
         <v>1303</v>
@@ -54463,47 +55298,47 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1129</v>
+        <v>769</v>
       </c>
       <c r="B256" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>850</v>
+        <v>1040</v>
       </c>
       <c r="B257" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1064</v>
+        <v>863</v>
       </c>
       <c r="B258" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>923</v>
+        <v>809</v>
       </c>
       <c r="B259" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>740</v>
+        <v>793</v>
       </c>
       <c r="B260" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1044</v>
+        <v>945</v>
       </c>
       <c r="B261" t="s">
         <v>1303</v>
@@ -54511,55 +55346,55 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1047</v>
+        <v>1092</v>
       </c>
       <c r="B262" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1046</v>
+        <v>886</v>
       </c>
       <c r="B263" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>830</v>
+        <v>957</v>
       </c>
       <c r="B264" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>831</v>
+        <v>988</v>
       </c>
       <c r="B265" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1053</v>
+        <v>1005</v>
       </c>
       <c r="B266" t="s">
-        <v>1303</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1162</v>
+        <v>1017</v>
       </c>
       <c r="B267" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1158</v>
+        <v>853</v>
       </c>
       <c r="B268" t="s">
         <v>1303</v>
@@ -54567,47 +55402,47 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>900</v>
+        <v>1071</v>
       </c>
       <c r="B269" t="s">
-        <v>1303</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="B270" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>901</v>
+        <v>1176</v>
       </c>
       <c r="B271" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="B272" t="s">
-        <v>1303</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B273" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="B274" t="s">
         <v>1303</v>
@@ -54615,7 +55450,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>800</v>
+        <v>1008</v>
       </c>
       <c r="B275" t="s">
         <v>1303</v>
@@ -54623,71 +55458,71 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>801</v>
+        <v>963</v>
       </c>
       <c r="B276" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>898</v>
+        <v>747</v>
       </c>
       <c r="B277" t="s">
-        <v>1303</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="B278" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1082</v>
+        <v>946</v>
       </c>
       <c r="B279" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
       <c r="B280" t="s">
-        <v>1303</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>877</v>
+        <v>930</v>
       </c>
       <c r="B281" t="s">
-        <v>1303</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>991</v>
+        <v>799</v>
       </c>
       <c r="B282" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1060</v>
+        <v>779</v>
       </c>
       <c r="B283" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1061</v>
+        <v>780</v>
       </c>
       <c r="B284" t="s">
         <v>1303</v>
@@ -54695,151 +55530,151 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1029</v>
+        <v>878</v>
       </c>
       <c r="B285" t="s">
-        <v>1303</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B286" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>952</v>
+        <v>800</v>
       </c>
       <c r="B287" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1136</v>
+        <v>801</v>
       </c>
       <c r="B288" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1168</v>
+        <v>1041</v>
       </c>
       <c r="B289" t="s">
-        <v>1303</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>946</v>
+        <v>1083</v>
       </c>
       <c r="B290" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>917</v>
+        <v>1084</v>
       </c>
       <c r="B291" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="B292" t="s">
-        <v>1303</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1079</v>
+        <v>905</v>
       </c>
       <c r="B293" t="s">
-        <v>1303</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>948</v>
+        <v>1006</v>
       </c>
       <c r="B294" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="B295" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>916</v>
+        <v>797</v>
       </c>
       <c r="B296" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1161</v>
+        <v>971</v>
       </c>
       <c r="B297" t="s">
-        <v>1303</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>793</v>
+        <v>993</v>
       </c>
       <c r="B298" t="s">
-        <v>1303</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="B299" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="B300" t="s">
-        <v>1303</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>863</v>
+        <v>990</v>
       </c>
       <c r="B301" t="s">
-        <v>1303</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B302" t="s">
-        <v>1303</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="B303" t="s">
         <v>1303</v>
@@ -54847,26 +55682,26 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>933</v>
+        <v>759</v>
       </c>
       <c r="B304" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1104</v>
+        <v>931</v>
       </c>
       <c r="B305" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>940</v>
+        <v>1035</v>
       </c>
       <c r="B306" t="s">
-        <v>1303</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -54874,76 +55709,76 @@
         <v>802</v>
       </c>
       <c r="B307" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>861</v>
+        <v>1100</v>
       </c>
       <c r="B308" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>939</v>
+        <v>794</v>
       </c>
       <c r="B309" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1065</v>
+        <v>740</v>
       </c>
       <c r="B310" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>764</v>
+        <v>962</v>
       </c>
       <c r="B311" t="s">
-        <v>1303</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1056</v>
+        <v>748</v>
       </c>
       <c r="B312" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1057</v>
+        <v>749</v>
       </c>
       <c r="B313" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="B314" t="s">
-        <v>1303</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>895</v>
+        <v>973</v>
       </c>
       <c r="B315" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="B316" t="s">
         <v>1303</v>
@@ -54951,95 +55786,95 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>947</v>
+        <v>782</v>
       </c>
       <c r="B317" t="s">
-        <v>1303</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B318" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="B319" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>787</v>
+        <v>1090</v>
       </c>
       <c r="B320" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>943</v>
+        <v>882</v>
       </c>
       <c r="B321" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>858</v>
+        <v>1042</v>
       </c>
       <c r="B322" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="B323" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>844</v>
+        <v>790</v>
       </c>
       <c r="B324" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1094</v>
+        <v>795</v>
       </c>
       <c r="B325" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>944</v>
+        <v>796</v>
       </c>
       <c r="B326" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1173</v>
+        <v>903</v>
       </c>
       <c r="B327" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>892</v>
+        <v>933</v>
       </c>
       <c r="B328" t="s">
         <v>1303</v>
@@ -55047,71 +55882,71 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>828</v>
+        <v>1026</v>
       </c>
       <c r="B329" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B330" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1163</v>
+        <v>1055</v>
       </c>
       <c r="B331" t="s">
-        <v>1303</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>997</v>
+        <v>888</v>
       </c>
       <c r="B332" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>780</v>
+        <v>1102</v>
       </c>
       <c r="B333" t="s">
-        <v>1303</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1159</v>
+        <v>764</v>
       </c>
       <c r="B334" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="B335" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1049</v>
+        <v>816</v>
       </c>
       <c r="B336" t="s">
-        <v>1303</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>951</v>
+        <v>1048</v>
       </c>
       <c r="B337" t="s">
         <v>1303</v>
@@ -55119,429 +55954,680 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="B338" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1135</v>
+        <v>1057</v>
       </c>
       <c r="B339" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1132</v>
+        <v>741</v>
       </c>
       <c r="B340" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
       <c r="B341" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>832</v>
+        <v>954</v>
       </c>
       <c r="B342" t="s">
-        <v>1303</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>891</v>
+        <v>1103</v>
       </c>
       <c r="B343" t="s">
-        <v>1304</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>779</v>
+        <v>1044</v>
       </c>
       <c r="B344" t="s">
-        <v>1305</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="B345" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="B346" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>896</v>
+        <v>985</v>
       </c>
       <c r="B347" t="s">
-        <v>1307</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1074</v>
+        <v>935</v>
       </c>
       <c r="B348" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
       <c r="B349" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1005</v>
+        <v>1049</v>
       </c>
       <c r="B350" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>819</v>
+        <v>1060</v>
       </c>
       <c r="B351" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>902</v>
+        <v>1061</v>
       </c>
       <c r="B352" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>837</v>
+        <v>1058</v>
       </c>
       <c r="B353" t="s">
-        <v>1311</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B354" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1071</v>
+        <v>877</v>
       </c>
       <c r="B355" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>980</v>
+        <v>832</v>
       </c>
       <c r="B356" t="s">
-        <v>1314</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>743</v>
+        <v>991</v>
       </c>
       <c r="B357" t="s">
-        <v>1314</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="B358" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>823</v>
+        <v>1139</v>
       </c>
       <c r="B359" t="s">
-        <v>1315</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B360" t="s">
-        <v>1315</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>927</v>
+        <v>1140</v>
       </c>
       <c r="B361" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1030</v>
+        <v>803</v>
       </c>
       <c r="B362" t="s">
-        <v>1316</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>796</v>
+        <v>855</v>
       </c>
       <c r="B363" t="s">
-        <v>1316</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1176</v>
+        <v>1027</v>
       </c>
       <c r="B364" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>871</v>
+        <v>1016</v>
       </c>
       <c r="B365" t="s">
-        <v>1316</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1153</v>
+        <v>948</v>
       </c>
       <c r="B366" t="s">
-        <v>1316</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>883</v>
+        <v>974</v>
       </c>
       <c r="B367" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>835</v>
+        <v>949</v>
       </c>
       <c r="B368" t="s">
-        <v>1316</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>797</v>
+        <v>1079</v>
       </c>
       <c r="B369" t="s">
-        <v>1317</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>936</v>
+        <v>1014</v>
       </c>
       <c r="B370" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>769</v>
+        <v>1028</v>
       </c>
       <c r="B371" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>748</v>
+        <v>1141</v>
       </c>
       <c r="B372" t="s">
-        <v>1317</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>749</v>
+        <v>992</v>
       </c>
       <c r="B373" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>915</v>
+        <v>1091</v>
       </c>
       <c r="B374" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B375" t="s">
-        <v>1317</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1025</v>
+        <v>1142</v>
       </c>
       <c r="B376" t="s">
-        <v>1318</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1041</v>
+        <v>1062</v>
       </c>
       <c r="B377" t="s">
-        <v>1319</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>772</v>
+        <v>1143</v>
       </c>
       <c r="B378" t="s">
-        <v>1320</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1088</v>
+        <v>817</v>
       </c>
       <c r="B379" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>978</v>
+        <v>872</v>
       </c>
       <c r="B380" t="s">
-        <v>1320</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="B381" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1040</v>
+        <v>953</v>
       </c>
       <c r="B382" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="B383" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B384" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>826</v>
+        <v>873</v>
       </c>
       <c r="B385" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>761</v>
+        <v>1082</v>
       </c>
       <c r="B386" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>739</v>
+        <v>898</v>
       </c>
       <c r="B387" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>762</v>
+        <v>810</v>
       </c>
       <c r="B388" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1167</v>
+        <v>864</v>
       </c>
       <c r="B389" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>865</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>849</v>
       </c>
-      <c r="B390" t="s">
-        <v>1320</v>
+      <c r="B394" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>896</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>774</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>753</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>918</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>951</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>833</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>857</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>772</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>958</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>913</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>773</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>980</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>975</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>818</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>834</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>754</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>986</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>887</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>952</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>979</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I32">
+    <sortCondition descending="1" ref="I1:I32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -65277,8 +66363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65286,6 +66372,7 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -65359,27 +66446,27 @@
         <v>954</v>
       </c>
       <c r="J2" s="2">
-        <f>B2+1</f>
+        <f t="shared" ref="J2:J17" si="0">B2+1</f>
         <v>23</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:O17" si="0">C2+1</f>
+        <f t="shared" ref="K2:K17" si="1">C2+1</f>
         <v>23</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L2:L17" si="2">D2+1</f>
         <v>3</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M2:M17" si="3">E2+1</f>
         <v>1</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N2:N17" si="4">F2+1</f>
         <v>1</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O2:O17" si="5">G2+1</f>
         <v>1</v>
       </c>
     </row>
@@ -65409,27 +66496,27 @@
         <v>1128</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J21" si="1">B3+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -65459,27 +66546,27 @@
         <v>946</v>
       </c>
       <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.37</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -65509,27 +66596,27 @@
         <v>1000</v>
       </c>
       <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>25.72</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
-        <v>25.72</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
     </row>
@@ -65559,27 +66646,27 @@
         <v>1139</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1617</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
     </row>
@@ -65609,27 +66696,27 @@
         <v>815</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>79.98</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>79.98</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4480.25</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>478</v>
       </c>
     </row>
@@ -65659,27 +66746,27 @@
         <v>959</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.11</v>
       </c>
     </row>
@@ -65709,27 +66796,27 @@
         <v>984</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -65759,27 +66846,27 @@
         <v>1166</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -65809,27 +66896,27 @@
         <v>1158</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -65859,27 +66946,27 @@
         <v>1002</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
@@ -65909,27 +66996,27 @@
         <v>1170</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67.37</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -65959,27 +67046,27 @@
         <v>784</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>72.02</v>
       </c>
     </row>
@@ -66009,27 +67096,27 @@
         <v>1070</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -66059,27 +67146,27 @@
         <v>1164</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.17</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
     </row>
@@ -66109,27 +67196,27 @@
         <v>980</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -66159,27 +67246,27 @@
         <v>986</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J18:M21" si="6">B18+1</f>
         <v>1</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:K21" si="2">C18+1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ref="L18:L21" si="3">D18+1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M21" si="4">E18+1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" ref="N18:N21" si="5">F18+1</f>
+        <f t="shared" ref="N18:N21" si="7">F18+1</f>
         <v>36</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O21" si="6">G18+1</f>
+        <f t="shared" ref="O18:O21" si="8">G18+1</f>
         <v>5</v>
       </c>
     </row>
@@ -66209,27 +67296,27 @@
         <v>751</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -66259,27 +67346,27 @@
         <v>1057</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>126.58</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.0500000000000007</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3800000000000008</v>
       </c>
     </row>
@@ -66309,27 +67396,27 @@
         <v>936</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137.24</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -66338,7 +67425,7 @@
         <v>1151</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1256</v>
@@ -66381,8 +67468,8 @@
       <c r="A24" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B24" t="s">
-        <v>1320</v>
+      <c r="B24" s="13" t="s">
+        <v>1313</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>594</v>
@@ -66426,7 +67513,7 @@
         <v>1128</v>
       </c>
       <c r="B25" t="s">
-        <v>1259</v>
+        <v>1345</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>1197</v>
@@ -66470,7 +67557,7 @@
         <v>946</v>
       </c>
       <c r="B26" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>478</v>
@@ -66514,7 +67601,7 @@
         <v>1000</v>
       </c>
       <c r="B27" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>197</v>
@@ -66558,7 +67645,7 @@
         <v>1139</v>
       </c>
       <c r="B28" t="s">
-        <v>1320</v>
+        <v>1268</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>625</v>
@@ -66602,7 +67689,7 @@
         <v>815</v>
       </c>
       <c r="B29" t="s">
-        <v>1264</v>
+        <v>1300</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>272</v>
@@ -66646,7 +67733,7 @@
         <v>959</v>
       </c>
       <c r="B30" t="s">
-        <v>1273</v>
+        <v>1351</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>127</v>
@@ -66690,7 +67777,7 @@
         <v>984</v>
       </c>
       <c r="B31" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>380</v>
@@ -66734,7 +67821,7 @@
         <v>1166</v>
       </c>
       <c r="B32" t="s">
-        <v>1320</v>
+        <v>1287</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>1222</v>
@@ -66778,7 +67865,7 @@
         <v>1158</v>
       </c>
       <c r="B33" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>1199</v>
@@ -66822,7 +67909,7 @@
         <v>1002</v>
       </c>
       <c r="B34" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>259</v>
@@ -66866,7 +67953,7 @@
         <v>1170</v>
       </c>
       <c r="B35" t="s">
-        <v>1279</v>
+        <v>1368</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>1180</v>
@@ -66910,7 +67997,7 @@
         <v>784</v>
       </c>
       <c r="B36" t="s">
-        <v>1299</v>
+        <v>1281</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>217</v>
@@ -66954,7 +68041,7 @@
         <v>1070</v>
       </c>
       <c r="B37" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>405</v>
@@ -66998,7 +68085,7 @@
         <v>1164</v>
       </c>
       <c r="B38" t="s">
-        <v>1269</v>
+        <v>1315</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>1212</v>
@@ -67042,7 +68129,7 @@
         <v>980</v>
       </c>
       <c r="B39" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>715</v>
@@ -67086,7 +68173,7 @@
         <v>986</v>
       </c>
       <c r="B40" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>724</v>
@@ -67130,7 +68217,7 @@
         <v>751</v>
       </c>
       <c r="B41" t="s">
-        <v>1320</v>
+        <v>1281</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>175</v>
@@ -67174,7 +68261,7 @@
         <v>1057</v>
       </c>
       <c r="B42" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>590</v>
@@ -67218,7 +68305,7 @@
         <v>936</v>
       </c>
       <c r="B43" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>504</v>
@@ -67262,24 +68349,26 @@
         <v>1151</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>1320</v>
+      <c r="B47" s="13" t="s">
+        <v>1313</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>595</v>
@@ -67289,11 +68378,11 @@
       <c r="A48" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>1259</v>
+      <c r="B48" t="s">
+        <v>1345</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>1198</v>
@@ -67303,11 +68392,11 @@
       <c r="A49" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>1303</v>
+      <c r="B49" t="s">
+        <v>1282</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>361</v>
@@ -67318,10 +68407,10 @@
         <v>1000</v>
       </c>
       <c r="B50" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="C50" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>198</v>
@@ -67332,10 +68421,10 @@
         <v>1139</v>
       </c>
       <c r="B51" t="s">
-        <v>1320</v>
+        <v>1268</v>
       </c>
       <c r="C51" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>1244</v>
@@ -67345,11 +68434,11 @@
       <c r="A52" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>1264</v>
+      <c r="B52" t="s">
+        <v>1300</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>273</v>
@@ -67360,10 +68449,10 @@
         <v>959</v>
       </c>
       <c r="B53" t="s">
-        <v>1273</v>
+        <v>1351</v>
       </c>
       <c r="C53" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>128</v>
@@ -67374,10 +68463,10 @@
         <v>984</v>
       </c>
       <c r="B54" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C54" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>381</v>
@@ -67387,8 +68476,8 @@
       <c r="A55" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>1320</v>
+      <c r="B55" t="s">
+        <v>1287</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>1150</v>
@@ -67402,10 +68491,10 @@
         <v>1158</v>
       </c>
       <c r="B56" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C56" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>1200</v>
@@ -67415,8 +68504,8 @@
       <c r="A57" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>1320</v>
+      <c r="B57" t="s">
+        <v>1315</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>1150</v>
@@ -67430,10 +68519,10 @@
         <v>1170</v>
       </c>
       <c r="B58" t="s">
-        <v>1279</v>
+        <v>1368</v>
       </c>
       <c r="C58" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>1181</v>
@@ -67443,11 +68532,11 @@
       <c r="A59" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>1299</v>
+      <c r="B59" t="s">
+        <v>1281</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>218</v>
@@ -67458,10 +68547,10 @@
         <v>1070</v>
       </c>
       <c r="B60" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="C60" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>406</v>
@@ -67472,10 +68561,10 @@
         <v>1164</v>
       </c>
       <c r="B61" t="s">
-        <v>1269</v>
+        <v>1315</v>
       </c>
       <c r="C61" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>1213</v>
@@ -67486,10 +68575,10 @@
         <v>980</v>
       </c>
       <c r="B62" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
       <c r="C62" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>716</v>
@@ -67499,8 +68588,8 @@
       <c r="A63" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>1320</v>
+      <c r="B63" t="s">
+        <v>1282</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>1150</v>
@@ -67514,10 +68603,10 @@
         <v>751</v>
       </c>
       <c r="B64" t="s">
-        <v>1320</v>
+        <v>1281</v>
       </c>
       <c r="C64" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>176</v>
@@ -67527,11 +68616,11 @@
       <c r="A65" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>1303</v>
+      <c r="B65" t="s">
+        <v>1282</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>589</v>
@@ -67541,11 +68630,11 @@
       <c r="A66" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>1317</v>
+      <c r="B66" t="s">
+        <v>1302</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>505</v>
@@ -67562,7 +68651,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68194,7 +69283,7 @@
         <v>1151</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1256</v>
@@ -68238,10 +69327,10 @@
         <v>1047</v>
       </c>
       <c r="B17" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>681</v>
+        <v>1376</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>682</v>
@@ -68282,10 +69371,10 @@
         <v>1018</v>
       </c>
       <c r="B18" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>42</v>
+        <v>1377</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>41</v>
@@ -68326,10 +69415,10 @@
         <v>1004</v>
       </c>
       <c r="B19" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>339</v>
+        <v>1378</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>338</v>
@@ -68370,10 +69459,10 @@
         <v>904</v>
       </c>
       <c r="B20" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>602</v>
+        <v>1379</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>603</v>
@@ -68414,10 +69503,10 @@
         <v>1069</v>
       </c>
       <c r="B21" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>398</v>
+        <v>1380</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>208</v>
@@ -68458,10 +69547,10 @@
         <v>1081</v>
       </c>
       <c r="B22" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>696</v>
+        <v>1381</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>697</v>
@@ -68502,10 +69591,10 @@
         <v>813</v>
       </c>
       <c r="B23" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>424</v>
+        <v>1382</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>425</v>
@@ -68546,10 +69635,10 @@
         <v>1017</v>
       </c>
       <c r="B24" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>457</v>
+        <v>1383</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>288</v>
@@ -68590,10 +69679,10 @@
         <v>1075</v>
       </c>
       <c r="B25" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>301</v>
+        <v>1384</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>302</v>
@@ -68634,10 +69723,10 @@
         <v>917</v>
       </c>
       <c r="B26" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>476</v>
+        <v>1385</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>477</v>
@@ -68678,10 +69767,10 @@
         <v>1019</v>
       </c>
       <c r="B27" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>156</v>
+        <v>1386</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>157</v>
@@ -68722,10 +69811,10 @@
         <v>1061</v>
       </c>
       <c r="B28" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>614</v>
+        <v>1387</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>613</v>
@@ -68766,10 +69855,10 @@
         <v>866</v>
       </c>
       <c r="B29" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>548</v>
+        <v>1388</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>549</v>
@@ -68810,7 +69899,7 @@
         <v>1151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -68818,7 +69907,7 @@
         <v>1047</v>
       </c>
       <c r="B33" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -68826,7 +69915,7 @@
         <v>1018</v>
       </c>
       <c r="B34" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -68834,7 +69923,7 @@
         <v>1004</v>
       </c>
       <c r="B35" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -68842,7 +69931,7 @@
         <v>904</v>
       </c>
       <c r="B36" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -68850,7 +69939,7 @@
         <v>1069</v>
       </c>
       <c r="B37" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -68858,7 +69947,7 @@
         <v>1081</v>
       </c>
       <c r="B38" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -68866,7 +69955,7 @@
         <v>813</v>
       </c>
       <c r="B39" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -68874,7 +69963,7 @@
         <v>1017</v>
       </c>
       <c r="B40" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -68882,7 +69971,7 @@
         <v>1075</v>
       </c>
       <c r="B41" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -68890,7 +69979,7 @@
         <v>917</v>
       </c>
       <c r="B42" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -68898,7 +69987,7 @@
         <v>1019</v>
       </c>
       <c r="B43" t="s">
-        <v>1279</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -68906,7 +69995,7 @@
         <v>1061</v>
       </c>
       <c r="B44" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -68914,7 +70003,7 @@
         <v>866</v>
       </c>
       <c r="B45" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -68927,13 +70016,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519665A-F5D4-E948-9FB9-8AECE3D533E4}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70306,7 +71396,7 @@
         <v>1151</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1256</v>
@@ -70350,7 +71440,7 @@
         <v>1083</v>
       </c>
       <c r="B34" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>495</v>
@@ -70394,7 +71484,7 @@
         <v>815</v>
       </c>
       <c r="B35" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>272</v>
@@ -70438,7 +71528,7 @@
         <v>884</v>
       </c>
       <c r="B36" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>6</v>
@@ -70482,7 +71572,7 @@
         <v>1109</v>
       </c>
       <c r="B37" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>540</v>
@@ -70526,7 +71616,7 @@
         <v>1084</v>
       </c>
       <c r="B38" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>497</v>
@@ -70570,7 +71660,7 @@
         <v>841</v>
       </c>
       <c r="B39" t="s">
-        <v>1298</v>
+        <v>1280</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>336</v>
@@ -70614,7 +71704,7 @@
         <v>1047</v>
       </c>
       <c r="B40" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>681</v>
@@ -70658,7 +71748,7 @@
         <v>782</v>
       </c>
       <c r="B41" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>546</v>
@@ -70702,7 +71792,7 @@
         <v>1018</v>
       </c>
       <c r="B42" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>42</v>
@@ -70746,7 +71836,7 @@
         <v>1139</v>
       </c>
       <c r="B43" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>625</v>
@@ -70790,7 +71880,7 @@
         <v>950</v>
       </c>
       <c r="B44" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>651</v>
@@ -70834,7 +71924,7 @@
         <v>849</v>
       </c>
       <c r="B45" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>683</v>
@@ -70878,7 +71968,7 @@
         <v>1004</v>
       </c>
       <c r="B46" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>339</v>
@@ -70922,7 +72012,7 @@
         <v>835</v>
       </c>
       <c r="B47" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>257</v>
@@ -70966,7 +72056,7 @@
         <v>1055</v>
       </c>
       <c r="B48" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>574</v>
@@ -71010,7 +72100,7 @@
         <v>1001</v>
       </c>
       <c r="B49" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>199</v>
@@ -71054,7 +72144,7 @@
         <v>885</v>
       </c>
       <c r="B50" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>389</v>
@@ -71098,7 +72188,7 @@
         <v>810</v>
       </c>
       <c r="B51" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>672</v>
@@ -71142,7 +72232,7 @@
         <v>848</v>
       </c>
       <c r="B52" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>617</v>
@@ -71186,7 +72276,7 @@
         <v>883</v>
       </c>
       <c r="B53" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>255</v>
@@ -71230,7 +72320,7 @@
         <v>1040</v>
       </c>
       <c r="B54" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>438</v>
@@ -71274,7 +72364,7 @@
         <v>904</v>
       </c>
       <c r="B55" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>602</v>
@@ -71318,7 +72408,7 @@
         <v>887</v>
       </c>
       <c r="B56" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>728</v>
@@ -71362,7 +72452,7 @@
         <v>930</v>
       </c>
       <c r="B57" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>481</v>
@@ -71406,7 +72496,7 @@
         <v>772</v>
       </c>
       <c r="B58" t="s">
-        <v>1320</v>
+        <v>1291</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>706</v>
@@ -71450,7 +72540,7 @@
         <v>1042</v>
       </c>
       <c r="B59" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>556</v>
@@ -71494,7 +72584,7 @@
         <v>864</v>
       </c>
       <c r="B60" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>674</v>
@@ -71538,7 +72628,7 @@
         <v>748</v>
       </c>
       <c r="B61" t="s">
-        <v>1317</v>
+        <v>1290</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>537</v>
@@ -71582,7 +72672,7 @@
         <v>882</v>
       </c>
       <c r="B62" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>554</v>
@@ -71626,7 +72716,7 @@
         <v>734</v>
       </c>
       <c r="B63" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>392</v>
@@ -71670,7 +72760,7 @@
         <v>1151</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -71678,7 +72768,7 @@
         <v>1083</v>
       </c>
       <c r="B67" t="s">
-        <v>1261</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -71686,7 +72776,7 @@
         <v>815</v>
       </c>
       <c r="B68" t="s">
-        <v>1264</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -71694,7 +72784,7 @@
         <v>884</v>
       </c>
       <c r="B69" t="s">
-        <v>1269</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -71702,7 +72792,7 @@
         <v>1109</v>
       </c>
       <c r="B70" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -71710,7 +72800,7 @@
         <v>1084</v>
       </c>
       <c r="B71" t="s">
-        <v>1261</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -71718,7 +72808,7 @@
         <v>841</v>
       </c>
       <c r="B72" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -71726,7 +72816,7 @@
         <v>1047</v>
       </c>
       <c r="B73" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -71734,7 +72824,7 @@
         <v>782</v>
       </c>
       <c r="B74" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -71742,7 +72832,7 @@
         <v>1018</v>
       </c>
       <c r="B75" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -71750,7 +72840,7 @@
         <v>1139</v>
       </c>
       <c r="B76" t="s">
-        <v>1320</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -71758,7 +72848,7 @@
         <v>950</v>
       </c>
       <c r="B77" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -71766,7 +72856,7 @@
         <v>849</v>
       </c>
       <c r="B78" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -71774,7 +72864,7 @@
         <v>1004</v>
       </c>
       <c r="B79" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -71782,7 +72872,7 @@
         <v>835</v>
       </c>
       <c r="B80" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -71790,7 +72880,7 @@
         <v>1055</v>
       </c>
       <c r="B81" t="s">
-        <v>1258</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -71798,7 +72888,7 @@
         <v>1001</v>
       </c>
       <c r="B82" t="s">
-        <v>1269</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -71806,7 +72896,7 @@
         <v>885</v>
       </c>
       <c r="B83" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -71814,7 +72904,7 @@
         <v>810</v>
       </c>
       <c r="B84" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -71822,7 +72912,7 @@
         <v>848</v>
       </c>
       <c r="B85" t="s">
-        <v>1261</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -71830,7 +72920,7 @@
         <v>883</v>
       </c>
       <c r="B86" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -71838,7 +72928,7 @@
         <v>1040</v>
       </c>
       <c r="B87" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -71846,7 +72936,7 @@
         <v>904</v>
       </c>
       <c r="B88" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -71854,7 +72944,7 @@
         <v>887</v>
       </c>
       <c r="B89" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -71862,7 +72952,7 @@
         <v>930</v>
       </c>
       <c r="B90" t="s">
-        <v>1264</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -71870,7 +72960,7 @@
         <v>772</v>
       </c>
       <c r="B91" t="s">
-        <v>1320</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -71878,7 +72968,7 @@
         <v>1042</v>
       </c>
       <c r="B92" t="s">
-        <v>1264</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -71886,7 +72976,7 @@
         <v>864</v>
       </c>
       <c r="B93" t="s">
-        <v>1261</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -71894,7 +72984,7 @@
         <v>748</v>
       </c>
       <c r="B94" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -71902,7 +72992,7 @@
         <v>882</v>
       </c>
       <c r="B95" t="s">
-        <v>1264</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -71910,7 +73000,7 @@
         <v>734</v>
       </c>
       <c r="B96" t="s">
-        <v>1261</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42B4B7-D719-5542-A7A4-E463C47B16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC832F57-3522-0D48-8632-3A8AF2E06B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="882">
   <si>
     <t>Seq ID</t>
   </si>
@@ -2682,6 +2682,12 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>AMP_134571_c44_g1_i3.p7</t>
+  </si>
+  <si>
+    <t>AMP_144878_c1_g1_i1.p9</t>
   </si>
 </sst>
 </file>
@@ -3276,7 +3282,7 @@
         <v>478</v>
       </c>
       <c r="P2">
-        <f>AVERAGE(J2:O2)</f>
+        <f t="shared" ref="P2:P33" si="0">AVERAGE(J2:O2)</f>
         <v>842.5</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -3381,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="P3">
-        <f>AVERAGE(J3:O3)</f>
+        <f t="shared" si="0"/>
         <v>782.66666666666663</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -3412,27 +3418,27 @@
         <v>361</v>
       </c>
       <c r="AB3" s="6">
-        <f t="shared" ref="AB3:AB41" si="0">VLOOKUP($AA3,$I$1:$O$194,2,FALSE)</f>
+        <f t="shared" ref="AB3:AB41" si="1">VLOOKUP($AA3,$I$1:$O$194,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="AC3" s="6">
-        <f t="shared" ref="AC3:AC41" si="1">VLOOKUP($AA3,$I$1:$O$194,3,FALSE)</f>
+        <f t="shared" ref="AC3:AC41" si="2">VLOOKUP($AA3,$I$1:$O$194,3,FALSE)</f>
         <v>29</v>
       </c>
       <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD41" si="2">VLOOKUP($AA3,$I$1:$O$194,4,FALSE)</f>
+        <f t="shared" ref="AD3:AD41" si="3">VLOOKUP($AA3,$I$1:$O$194,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE41" si="3">VLOOKUP($AA3,$I$1:$O$194,5,FALSE)</f>
+        <f t="shared" ref="AE3:AE41" si="4">VLOOKUP($AA3,$I$1:$O$194,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" ref="AF3:AF41" si="4">VLOOKUP($AA3,$I$1:$O$194,6,FALSE)</f>
+        <f t="shared" ref="AF3:AF41" si="5">VLOOKUP($AA3,$I$1:$O$194,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" ref="AG3:AG41" si="5">VLOOKUP($AA3,$I$1:$O$194,7,FALSE)</f>
+        <f t="shared" ref="AG3:AG41" si="6">VLOOKUP($AA3,$I$1:$O$194,7,FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -3486,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="P4">
-        <f>AVERAGE(J4:O4)</f>
+        <f t="shared" si="0"/>
         <v>593.5</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -3517,27 +3523,27 @@
         <v>544</v>
       </c>
       <c r="AB4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AC4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3591,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="P5">
-        <f>AVERAGE(J5:O5)</f>
+        <f t="shared" si="0"/>
         <v>323.83333333333331</v>
       </c>
       <c r="R5" s="3" t="s">
@@ -3622,27 +3628,27 @@
         <v>498</v>
       </c>
       <c r="AB5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AC5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -3696,7 +3702,7 @@
         <v>748</v>
       </c>
       <c r="P6">
-        <f>AVERAGE(J6:O6)</f>
+        <f t="shared" si="0"/>
         <v>317.83333333333331</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -3727,27 +3733,27 @@
         <v>424</v>
       </c>
       <c r="AB6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AC6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -3801,7 +3807,7 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <f>AVERAGE(J7:O7)</f>
+        <f t="shared" si="0"/>
         <v>289.5</v>
       </c>
       <c r="R7" s="3" t="s">
@@ -3832,27 +3838,27 @@
         <v>627</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="AC7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3906,7 +3912,7 @@
         <v>61</v>
       </c>
       <c r="P8">
-        <f>AVERAGE(J8:O8)</f>
+        <f t="shared" si="0"/>
         <v>233.16666666666666</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -3937,27 +3943,27 @@
         <v>409</v>
       </c>
       <c r="AB8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -4011,7 +4017,7 @@
         <v>23</v>
       </c>
       <c r="P9">
-        <f>AVERAGE(J9:O9)</f>
+        <f t="shared" si="0"/>
         <v>182.33333333333334</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -4042,27 +4048,27 @@
         <v>546</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4116,7 +4122,7 @@
         <v>419</v>
       </c>
       <c r="P10">
-        <f>AVERAGE(J10:O10)</f>
+        <f t="shared" si="0"/>
         <v>152.66666666666666</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -4147,27 +4153,27 @@
         <v>762</v>
       </c>
       <c r="AB10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -4221,7 +4227,7 @@
         <v>307</v>
       </c>
       <c r="P11">
-        <f>AVERAGE(J11:O11)</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -4252,27 +4258,27 @@
         <v>527</v>
       </c>
       <c r="AB11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AF11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -4326,7 +4332,7 @@
         <v>95</v>
       </c>
       <c r="P12">
-        <f>AVERAGE(J12:O12)</f>
+        <f t="shared" si="0"/>
         <v>122.33333333333333</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -4357,27 +4363,27 @@
         <v>395</v>
       </c>
       <c r="AB12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -4431,7 +4437,7 @@
         <v>106</v>
       </c>
       <c r="P13">
-        <f>AVERAGE(J13:O13)</f>
+        <f t="shared" si="0"/>
         <v>106.16666666666667</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -4462,27 +4468,27 @@
         <v>435</v>
       </c>
       <c r="AB13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -4536,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="P14">
-        <f>AVERAGE(J14:O14)</f>
+        <f t="shared" si="0"/>
         <v>105.83333333333333</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -4567,27 +4573,27 @@
         <v>513</v>
       </c>
       <c r="AB14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -4641,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="P15">
-        <f>AVERAGE(J15:O15)</f>
+        <f t="shared" si="0"/>
         <v>105.5</v>
       </c>
       <c r="R15" s="3" t="s">
@@ -4672,27 +4678,27 @@
         <v>607</v>
       </c>
       <c r="AB15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4746,7 +4752,7 @@
         <v>155</v>
       </c>
       <c r="P16">
-        <f>AVERAGE(J16:O16)</f>
+        <f t="shared" si="0"/>
         <v>100.66666666666667</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -4777,27 +4783,27 @@
         <v>562</v>
       </c>
       <c r="AB16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
@@ -4851,7 +4857,7 @@
         <v>7</v>
       </c>
       <c r="P17">
-        <f>AVERAGE(J17:O17)</f>
+        <f t="shared" si="0"/>
         <v>100.33333333333333</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -4882,27 +4888,27 @@
         <v>668</v>
       </c>
       <c r="AB17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -4956,7 +4962,7 @@
         <v>32</v>
       </c>
       <c r="P18">
-        <f>AVERAGE(J18:O18)</f>
+        <f t="shared" si="0"/>
         <v>97.666666666666671</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -4987,27 +4993,27 @@
         <v>638</v>
       </c>
       <c r="AB18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>408</v>
       </c>
       <c r="AF18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="AG18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
@@ -5061,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <f>AVERAGE(J19:O19)</f>
+        <f t="shared" si="0"/>
         <v>78.166666666666671</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -5092,27 +5098,27 @@
         <v>352</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -5166,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f>AVERAGE(J20:O20)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -5197,27 +5203,27 @@
         <v>341</v>
       </c>
       <c r="AB20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AC20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5271,7 +5277,7 @@
         <v>179</v>
       </c>
       <c r="P21">
-        <f>AVERAGE(J21:O21)</f>
+        <f t="shared" si="0"/>
         <v>71.833333333333329</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -5302,27 +5308,27 @@
         <v>346</v>
       </c>
       <c r="AB21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
     </row>
@@ -5376,7 +5382,7 @@
         <v>32</v>
       </c>
       <c r="P22">
-        <f>AVERAGE(J22:O22)</f>
+        <f t="shared" si="0"/>
         <v>61.666666666666664</v>
       </c>
       <c r="R22" s="3" t="s">
@@ -5407,27 +5413,27 @@
         <v>584</v>
       </c>
       <c r="AB22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -5481,7 +5487,7 @@
         <v>39</v>
       </c>
       <c r="P23">
-        <f>AVERAGE(J23:O23)</f>
+        <f t="shared" si="0"/>
         <v>57.833333333333336</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -5512,27 +5518,27 @@
         <v>655</v>
       </c>
       <c r="AB23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -5586,7 +5592,7 @@
         <v>15</v>
       </c>
       <c r="P24">
-        <f>AVERAGE(J24:O24)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="R24" s="3" t="s">
@@ -5617,27 +5623,27 @@
         <v>534</v>
       </c>
       <c r="AB24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
@@ -5691,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="P25">
-        <f>AVERAGE(J25:O25)</f>
+        <f t="shared" si="0"/>
         <v>50.333333333333336</v>
       </c>
       <c r="R25" s="3" t="s">
@@ -5722,27 +5728,27 @@
         <v>370</v>
       </c>
       <c r="AB25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>514</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
     </row>
@@ -5796,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <f>AVERAGE(J26:O26)</f>
+        <f t="shared" si="0"/>
         <v>47.166666666666664</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -5827,27 +5833,27 @@
         <v>413</v>
       </c>
       <c r="AB26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4480</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>478</v>
       </c>
     </row>
@@ -5901,7 +5907,7 @@
         <v>19</v>
       </c>
       <c r="P27">
-        <f>AVERAGE(J27:O27)</f>
+        <f t="shared" si="0"/>
         <v>44.333333333333336</v>
       </c>
       <c r="R27" s="3" t="s">
@@ -5932,27 +5938,27 @@
         <v>515</v>
       </c>
       <c r="AB27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="AD27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -6006,7 +6012,7 @@
         <v>64</v>
       </c>
       <c r="P28">
-        <f>AVERAGE(J28:O28)</f>
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="R28" s="3" t="s">
@@ -6037,27 +6043,27 @@
         <v>616</v>
       </c>
       <c r="AB28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="AC28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AD28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="AE28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>742</v>
       </c>
       <c r="AF28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>748</v>
       </c>
     </row>
@@ -6111,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(J29:O29)</f>
+        <f t="shared" si="0"/>
         <v>38.833333333333336</v>
       </c>
       <c r="R29" s="3" t="s">
@@ -6142,27 +6148,27 @@
         <v>515</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -6216,7 +6222,7 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <f>AVERAGE(J30:O30)</f>
+        <f t="shared" si="0"/>
         <v>38.333333333333336</v>
       </c>
       <c r="R30" s="3" t="s">
@@ -6247,27 +6253,27 @@
         <v>616</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>742</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>748</v>
       </c>
     </row>
@@ -6321,7 +6327,7 @@
         <v>11</v>
       </c>
       <c r="P31">
-        <f>AVERAGE(J31:O31)</f>
+        <f t="shared" si="0"/>
         <v>35.166666666666664</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -6352,27 +6358,27 @@
         <v>511</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE31" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AF31" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="AF31" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="AG31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -6426,7 +6432,7 @@
         <v>183</v>
       </c>
       <c r="P32">
-        <f>AVERAGE(J32:O32)</f>
+        <f t="shared" si="0"/>
         <v>35.166666666666664</v>
       </c>
       <c r="R32" s="3" t="s">
@@ -6457,27 +6463,27 @@
         <v>687</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -6531,7 +6537,7 @@
         <v>51</v>
       </c>
       <c r="P33">
-        <f>AVERAGE(J33:O33)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -6562,27 +6568,27 @@
         <v>413</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4480</v>
       </c>
       <c r="AF33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>478</v>
       </c>
     </row>
@@ -6636,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <f>AVERAGE(J34:O34)</f>
+        <f t="shared" ref="P34:P65" si="7">AVERAGE(J34:O34)</f>
         <v>31.5</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -6667,27 +6673,27 @@
         <v>604</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6741,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="P35">
-        <f>AVERAGE(J35:O35)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -6772,27 +6778,27 @@
         <v>375</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="AG35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -6846,7 +6852,7 @@
         <v>14</v>
       </c>
       <c r="P36">
-        <f>AVERAGE(J36:O36)</f>
+        <f t="shared" si="7"/>
         <v>28.666666666666668</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -6877,27 +6883,27 @@
         <v>638</v>
       </c>
       <c r="AB36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AC36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>408</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
@@ -6951,7 +6957,7 @@
         <v>25</v>
       </c>
       <c r="P37">
-        <f>AVERAGE(J37:O37)</f>
+        <f t="shared" si="7"/>
         <v>28.166666666666668</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -6982,27 +6988,27 @@
         <v>461</v>
       </c>
       <c r="AB37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC37" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD37" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="AD37" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="AE37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AF37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -7056,7 +7062,7 @@
         <v>14</v>
       </c>
       <c r="P38">
-        <f>AVERAGE(J38:O38)</f>
+        <f t="shared" si="7"/>
         <v>27.666666666666668</v>
       </c>
       <c r="R38" s="3" t="s">
@@ -7087,27 +7093,27 @@
         <v>346</v>
       </c>
       <c r="AB38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AE38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="AF38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
     </row>
@@ -7161,7 +7167,7 @@
         <v>131</v>
       </c>
       <c r="P39">
-        <f>AVERAGE(J39:O39)</f>
+        <f t="shared" si="7"/>
         <v>26.833333333333332</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -7192,27 +7198,27 @@
         <v>538</v>
       </c>
       <c r="AB39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="AC39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="AD39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AE39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AF39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -7266,7 +7272,7 @@
         <v>11</v>
       </c>
       <c r="P40">
-        <f>AVERAGE(J40:O40)</f>
+        <f t="shared" si="7"/>
         <v>25.666666666666668</v>
       </c>
       <c r="R40" s="3" t="s">
@@ -7297,27 +7303,27 @@
         <v>463</v>
       </c>
       <c r="AB40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="AC40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="AF40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AG40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -7371,7 +7377,7 @@
         <v>46</v>
       </c>
       <c r="P41">
-        <f>AVERAGE(J41:O41)</f>
+        <f t="shared" si="7"/>
         <v>25.166666666666668</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -7402,27 +7408,27 @@
         <v>412</v>
       </c>
       <c r="AB41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AC41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AE41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AF41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AG41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -7476,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <f>AVERAGE(J42:O42)</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R42" s="3" t="s">
@@ -7554,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="P43">
-        <f>AVERAGE(J43:O43)</f>
+        <f t="shared" si="7"/>
         <v>24.833333333333332</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -7632,7 +7638,7 @@
         <v>9</v>
       </c>
       <c r="P44">
-        <f>AVERAGE(J44:O44)</f>
+        <f t="shared" si="7"/>
         <v>24.666666666666668</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -7710,7 +7716,7 @@
         <v>12</v>
       </c>
       <c r="P45">
-        <f>AVERAGE(J45:O45)</f>
+        <f t="shared" si="7"/>
         <v>23.166666666666668</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -7788,7 +7794,7 @@
         <v>15</v>
       </c>
       <c r="P46">
-        <f>AVERAGE(J46:O46)</f>
+        <f t="shared" si="7"/>
         <v>22.833333333333332</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -7866,7 +7872,7 @@
         <v>9</v>
       </c>
       <c r="P47">
-        <f>AVERAGE(J47:O47)</f>
+        <f t="shared" si="7"/>
         <v>20.666666666666668</v>
       </c>
       <c r="R47" s="3" t="s">
@@ -7944,7 +7950,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <f>AVERAGE(J48:O48)</f>
+        <f t="shared" si="7"/>
         <v>20.666666666666668</v>
       </c>
       <c r="R48" s="3" t="s">
@@ -8022,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <f>AVERAGE(J49:O49)</f>
+        <f t="shared" si="7"/>
         <v>20.166666666666668</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -8100,7 +8106,7 @@
         <v>14</v>
       </c>
       <c r="P50">
-        <f>AVERAGE(J50:O50)</f>
+        <f t="shared" si="7"/>
         <v>19.833333333333332</v>
       </c>
       <c r="R50" s="3" t="s">
@@ -8178,7 +8184,7 @@
         <v>50</v>
       </c>
       <c r="P51">
-        <f>AVERAGE(J51:O51)</f>
+        <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -8256,7 +8262,7 @@
         <v>4</v>
       </c>
       <c r="P52">
-        <f>AVERAGE(J52:O52)</f>
+        <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -8334,7 +8340,7 @@
         <v>74</v>
       </c>
       <c r="P53">
-        <f>AVERAGE(J53:O53)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -8412,7 +8418,7 @@
         <v>41</v>
       </c>
       <c r="P54">
-        <f>AVERAGE(J54:O54)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R54" s="3" t="s">
@@ -8490,7 +8496,7 @@
         <v>45</v>
       </c>
       <c r="P55">
-        <f>AVERAGE(J55:O55)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R55" s="3" t="s">
@@ -8568,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="P56">
-        <f>AVERAGE(J56:O56)</f>
+        <f t="shared" si="7"/>
         <v>14.833333333333334</v>
       </c>
       <c r="R56" s="3" t="s">
@@ -8646,7 +8652,7 @@
         <v>21</v>
       </c>
       <c r="P57">
-        <f>AVERAGE(J57:O57)</f>
+        <f t="shared" si="7"/>
         <v>14.666666666666666</v>
       </c>
       <c r="R57" s="3" t="s">
@@ -8724,7 +8730,7 @@
         <v>28</v>
       </c>
       <c r="P58">
-        <f>AVERAGE(J58:O58)</f>
+        <f t="shared" si="7"/>
         <v>13.833333333333334</v>
       </c>
       <c r="R58" s="3" t="s">
@@ -8802,7 +8808,7 @@
         <v>31</v>
       </c>
       <c r="P59">
-        <f>AVERAGE(J59:O59)</f>
+        <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
       <c r="R59" s="3" t="s">
@@ -8880,7 +8886,7 @@
         <v>50</v>
       </c>
       <c r="P60">
-        <f>AVERAGE(J60:O60)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -8958,7 +8964,7 @@
         <v>27</v>
       </c>
       <c r="P61">
-        <f>AVERAGE(J61:O61)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="R61" s="3" t="s">
@@ -9036,7 +9042,7 @@
         <v>11</v>
       </c>
       <c r="P62">
-        <f>AVERAGE(J62:O62)</f>
+        <f t="shared" si="7"/>
         <v>11.833333333333334</v>
       </c>
       <c r="R62" s="3" t="s">
@@ -9114,7 +9120,7 @@
         <v>3</v>
       </c>
       <c r="P63">
-        <f>AVERAGE(J63:O63)</f>
+        <f t="shared" si="7"/>
         <v>11.666666666666666</v>
       </c>
       <c r="R63" s="3" t="s">
@@ -9192,7 +9198,7 @@
         <v>20</v>
       </c>
       <c r="P64">
-        <f>AVERAGE(J64:O64)</f>
+        <f t="shared" si="7"/>
         <v>11.333333333333334</v>
       </c>
       <c r="R64" s="3" t="s">
@@ -9270,7 +9276,7 @@
         <v>29</v>
       </c>
       <c r="P65">
-        <f>AVERAGE(J65:O65)</f>
+        <f t="shared" si="7"/>
         <v>10.833333333333334</v>
       </c>
       <c r="R65" s="3" t="s">
@@ -9348,7 +9354,7 @@
         <v>44</v>
       </c>
       <c r="P66">
-        <f>AVERAGE(J66:O66)</f>
+        <f t="shared" ref="P66:P97" si="8">AVERAGE(J66:O66)</f>
         <v>10.833333333333334</v>
       </c>
       <c r="R66" s="3" t="s">
@@ -9426,7 +9432,7 @@
         <v>47</v>
       </c>
       <c r="P67">
-        <f>AVERAGE(J67:O67)</f>
+        <f t="shared" si="8"/>
         <v>10.333333333333334</v>
       </c>
       <c r="R67" s="3" t="s">
@@ -9504,7 +9510,7 @@
         <v>9</v>
       </c>
       <c r="P68">
-        <f>AVERAGE(J68:O68)</f>
+        <f t="shared" si="8"/>
         <v>10.166666666666666</v>
       </c>
       <c r="R68" s="3" t="s">
@@ -9582,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="P69">
-        <f>AVERAGE(J69:O69)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R69" s="3" t="s">
@@ -9660,7 +9666,7 @@
         <v>3</v>
       </c>
       <c r="P70">
-        <f>AVERAGE(J70:O70)</f>
+        <f t="shared" si="8"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="R70" s="3" t="s">
@@ -9738,7 +9744,7 @@
         <v>5</v>
       </c>
       <c r="P71">
-        <f>AVERAGE(J71:O71)</f>
+        <f t="shared" si="8"/>
         <v>8.8333333333333339</v>
       </c>
       <c r="R71" s="3" t="s">
@@ -9816,7 +9822,7 @@
         <v>29</v>
       </c>
       <c r="P72">
-        <f>AVERAGE(J72:O72)</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="R72" s="3" t="s">
@@ -9894,7 +9900,7 @@
         <v>21</v>
       </c>
       <c r="P73">
-        <f>AVERAGE(J73:O73)</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="R73" s="3" t="s">
@@ -9972,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <f>AVERAGE(J74:O74)</f>
+        <f t="shared" si="8"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="R74" s="3" t="s">
@@ -10050,7 +10056,7 @@
         <v>10</v>
       </c>
       <c r="P75">
-        <f>AVERAGE(J75:O75)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R75" s="3" t="s">
@@ -10128,7 +10134,7 @@
         <v>5</v>
       </c>
       <c r="P76">
-        <f>AVERAGE(J76:O76)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
@@ -10206,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="P77">
-        <f>AVERAGE(J77:O77)</f>
+        <f t="shared" si="8"/>
         <v>7.666666666666667</v>
       </c>
       <c r="R77" s="3" t="s">
@@ -10284,7 +10290,7 @@
         <v>5</v>
       </c>
       <c r="P78">
-        <f>AVERAGE(J78:O78)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="R78" s="3" t="s">
@@ -10362,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="P79">
-        <f>AVERAGE(J79:O79)</f>
+        <f t="shared" si="8"/>
         <v>7.166666666666667</v>
       </c>
       <c r="R79" s="3" t="s">
@@ -10440,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="P80">
-        <f>AVERAGE(J80:O80)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R80" s="3" t="s">
@@ -10518,7 +10524,7 @@
         <v>2</v>
       </c>
       <c r="P81">
-        <f>AVERAGE(J81:O81)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R81" s="3" t="s">
@@ -10596,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="P82">
-        <f>AVERAGE(J82:O82)</f>
+        <f t="shared" si="8"/>
         <v>6.833333333333333</v>
       </c>
       <c r="R82" s="3" t="s">
@@ -10674,7 +10680,7 @@
         <v>9</v>
       </c>
       <c r="P83">
-        <f>AVERAGE(J83:O83)</f>
+        <f t="shared" si="8"/>
         <v>6.666666666666667</v>
       </c>
       <c r="R83" s="3" t="s">
@@ -10752,7 +10758,7 @@
         <v>2</v>
       </c>
       <c r="P84">
-        <f>AVERAGE(J84:O84)</f>
+        <f t="shared" si="8"/>
         <v>6.666666666666667</v>
       </c>
       <c r="R84" s="3" t="s">
@@ -10830,7 +10836,7 @@
         <v>3</v>
       </c>
       <c r="P85">
-        <f>AVERAGE(J85:O85)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="R85" s="3" t="s">
@@ -10908,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <f>AVERAGE(J86:O86)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="R86" s="3" t="s">
@@ -10986,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="P87">
-        <f>AVERAGE(J87:O87)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="R87" s="3" t="s">
@@ -11064,7 +11070,7 @@
         <v>30</v>
       </c>
       <c r="P88">
-        <f>AVERAGE(J88:O88)</f>
+        <f t="shared" si="8"/>
         <v>6.333333333333333</v>
       </c>
       <c r="R88" s="3" t="s">
@@ -11142,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="P89">
-        <f>AVERAGE(J89:O89)</f>
+        <f t="shared" si="8"/>
         <v>6.333333333333333</v>
       </c>
       <c r="R89" s="3" t="s">
@@ -11220,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="P90">
-        <f>AVERAGE(J90:O90)</f>
+        <f t="shared" si="8"/>
         <v>6.166666666666667</v>
       </c>
       <c r="R90" s="3" t="s">
@@ -11298,7 +11304,7 @@
         <v>17</v>
       </c>
       <c r="P91">
-        <f>AVERAGE(J91:O91)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -11376,7 +11382,7 @@
         <v>30</v>
       </c>
       <c r="P92">
-        <f>AVERAGE(J92:O92)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R92" s="3" t="s">
@@ -11454,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <f>AVERAGE(J93:O93)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -11532,7 +11538,7 @@
         <v>2</v>
       </c>
       <c r="P94">
-        <f>AVERAGE(J94:O94)</f>
+        <f t="shared" si="8"/>
         <v>5.833333333333333</v>
       </c>
       <c r="R94" s="3" t="s">
@@ -11610,7 +11616,7 @@
         <v>11</v>
       </c>
       <c r="P95">
-        <f>AVERAGE(J95:O95)</f>
+        <f t="shared" si="8"/>
         <v>5.833333333333333</v>
       </c>
       <c r="R95" s="3" t="s">
@@ -11688,7 +11694,7 @@
         <v>19</v>
       </c>
       <c r="P96">
-        <f>AVERAGE(J96:O96)</f>
+        <f t="shared" si="8"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R96" s="3" t="s">
@@ -11766,7 +11772,7 @@
         <v>13</v>
       </c>
       <c r="P97">
-        <f>AVERAGE(J97:O97)</f>
+        <f t="shared" si="8"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R97" s="3" t="s">
@@ -11844,7 +11850,7 @@
         <v>4</v>
       </c>
       <c r="P98">
-        <f>AVERAGE(J98:O98)</f>
+        <f t="shared" ref="P98:P129" si="9">AVERAGE(J98:O98)</f>
         <v>5.666666666666667</v>
       </c>
       <c r="R98" s="3" t="s">
@@ -11922,7 +11928,7 @@
         <v>23</v>
       </c>
       <c r="P99">
-        <f>AVERAGE(J99:O99)</f>
+        <f t="shared" si="9"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R99" s="3" t="s">
@@ -12000,7 +12006,7 @@
         <v>15</v>
       </c>
       <c r="P100">
-        <f>AVERAGE(J100:O100)</f>
+        <f t="shared" si="9"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R100" s="3" t="s">
@@ -12078,7 +12084,7 @@
         <v>25</v>
       </c>
       <c r="P101">
-        <f>AVERAGE(J101:O101)</f>
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
       <c r="R101" s="3" t="s">
@@ -12156,7 +12162,7 @@
         <v>18</v>
       </c>
       <c r="P102">
-        <f>AVERAGE(J102:O102)</f>
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
       <c r="R102" s="3" t="s">
@@ -12234,7 +12240,7 @@
         <v>5</v>
       </c>
       <c r="P103">
-        <f>AVERAGE(J103:O103)</f>
+        <f t="shared" si="9"/>
         <v>5.333333333333333</v>
       </c>
       <c r="R103" s="3" t="s">
@@ -12312,7 +12318,7 @@
         <v>5</v>
       </c>
       <c r="P104">
-        <f>AVERAGE(J104:O104)</f>
+        <f t="shared" si="9"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R104" s="3" t="s">
@@ -12390,7 +12396,7 @@
         <v>5</v>
       </c>
       <c r="P105">
-        <f>AVERAGE(J105:O105)</f>
+        <f t="shared" si="9"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R105" s="3" t="s">
@@ -12468,7 +12474,7 @@
         <v>25</v>
       </c>
       <c r="P106">
-        <f>AVERAGE(J106:O106)</f>
+        <f t="shared" si="9"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R106" s="3" t="s">
@@ -12546,7 +12552,7 @@
         <v>14</v>
       </c>
       <c r="P107">
-        <f>AVERAGE(J107:O107)</f>
+        <f t="shared" si="9"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R107" s="3" t="s">
@@ -12624,7 +12630,7 @@
         <v>2</v>
       </c>
       <c r="P108">
-        <f>AVERAGE(J108:O108)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="R108" s="3" t="s">
@@ -12702,7 +12708,7 @@
         <v>2</v>
       </c>
       <c r="P109">
-        <f>AVERAGE(J109:O109)</f>
+        <f t="shared" si="9"/>
         <v>4.666666666666667</v>
       </c>
       <c r="R109" s="3" t="s">
@@ -12780,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="P110">
-        <f>AVERAGE(J110:O110)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="R110" s="3" t="s">
@@ -12858,7 +12864,7 @@
         <v>20</v>
       </c>
       <c r="P111">
-        <f>AVERAGE(J111:O111)</f>
+        <f t="shared" si="9"/>
         <v>4.333333333333333</v>
       </c>
       <c r="R111" s="3" t="s">
@@ -12936,7 +12942,7 @@
         <v>4</v>
       </c>
       <c r="P112">
-        <f>AVERAGE(J112:O112)</f>
+        <f t="shared" si="9"/>
         <v>4.333333333333333</v>
       </c>
       <c r="R112" s="3" t="s">
@@ -13014,7 +13020,7 @@
         <v>8</v>
       </c>
       <c r="P113">
-        <f>AVERAGE(J113:O113)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="R113" s="3" t="s">
@@ -13092,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="P114">
-        <f>AVERAGE(J114:O114)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="R114" s="3" t="s">
@@ -13170,7 +13176,7 @@
         <v>4</v>
       </c>
       <c r="P115">
-        <f>AVERAGE(J115:O115)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="R115" s="3" t="s">
@@ -13248,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="P116">
-        <f>AVERAGE(J116:O116)</f>
+        <f t="shared" si="9"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R116" s="3" t="s">
@@ -13326,7 +13332,7 @@
         <v>5</v>
       </c>
       <c r="P117">
-        <f>AVERAGE(J117:O117)</f>
+        <f t="shared" si="9"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R117" s="3" t="s">
@@ -13404,7 +13410,7 @@
         <v>3</v>
       </c>
       <c r="P118">
-        <f>AVERAGE(J118:O118)</f>
+        <f t="shared" si="9"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R118" s="3" t="s">
@@ -13482,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="P119">
-        <f>AVERAGE(J119:O119)</f>
+        <f t="shared" si="9"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R119" s="3" t="s">
@@ -13560,7 +13566,7 @@
         <v>9</v>
       </c>
       <c r="P120">
-        <f>AVERAGE(J120:O120)</f>
+        <f t="shared" si="9"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R120" s="3" t="s">
@@ -13638,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="P121">
-        <f>AVERAGE(J121:O121)</f>
+        <f t="shared" si="9"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R121" s="3" t="s">
@@ -13716,7 +13722,7 @@
         <v>8</v>
       </c>
       <c r="P122">
-        <f>AVERAGE(J122:O122)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="R122" s="3" t="s">
@@ -13794,7 +13800,7 @@
         <v>10</v>
       </c>
       <c r="P123">
-        <f>AVERAGE(J123:O123)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="R123" s="3" t="s">
@@ -13872,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="P124">
-        <f>AVERAGE(J124:O124)</f>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R124" s="3" t="s">
@@ -13950,7 +13956,7 @@
         <v>6</v>
       </c>
       <c r="P125">
-        <f>AVERAGE(J125:O125)</f>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R125" s="3" t="s">
@@ -14028,7 +14034,7 @@
         <v>2</v>
       </c>
       <c r="P126">
-        <f>AVERAGE(J126:O126)</f>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R126" s="3" t="s">
@@ -14106,7 +14112,7 @@
         <v>3</v>
       </c>
       <c r="P127">
-        <f>AVERAGE(J127:O127)</f>
+        <f t="shared" si="9"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R127" s="3" t="s">
@@ -14184,7 +14190,7 @@
         <v>5</v>
       </c>
       <c r="P128">
-        <f>AVERAGE(J128:O128)</f>
+        <f t="shared" si="9"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R128" s="3" t="s">
@@ -14262,7 +14268,7 @@
         <v>5</v>
       </c>
       <c r="P129">
-        <f>AVERAGE(J129:O129)</f>
+        <f t="shared" si="9"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R129" s="3" t="s">
@@ -14340,7 +14346,7 @@
         <v>1</v>
       </c>
       <c r="P130">
-        <f>AVERAGE(J130:O130)</f>
+        <f t="shared" ref="P130:P161" si="10">AVERAGE(J130:O130)</f>
         <v>3</v>
       </c>
       <c r="R130" s="3" t="s">
@@ -14418,7 +14424,7 @@
         <v>5</v>
       </c>
       <c r="P131">
-        <f>AVERAGE(J131:O131)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R131" s="3" t="s">
@@ -14496,7 +14502,7 @@
         <v>2</v>
       </c>
       <c r="P132">
-        <f>AVERAGE(J132:O132)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R132" s="3" t="s">
@@ -14574,7 +14580,7 @@
         <v>2</v>
       </c>
       <c r="P133">
-        <f>AVERAGE(J133:O133)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R133" s="3" t="s">
@@ -14652,7 +14658,7 @@
         <v>2</v>
       </c>
       <c r="P134">
-        <f>AVERAGE(J134:O134)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R134" s="3" t="s">
@@ -14730,7 +14736,7 @@
         <v>1</v>
       </c>
       <c r="P135">
-        <f>AVERAGE(J135:O135)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R135" s="3" t="s">
@@ -14808,7 +14814,7 @@
         <v>9</v>
       </c>
       <c r="P136">
-        <f>AVERAGE(J136:O136)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R136" s="3" t="s">
@@ -14886,7 +14892,7 @@
         <v>9</v>
       </c>
       <c r="P137">
-        <f>AVERAGE(J137:O137)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R137" s="3" t="s">
@@ -14964,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="P138">
-        <f>AVERAGE(J138:O138)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R138" s="3" t="s">
@@ -15042,7 +15048,7 @@
         <v>3</v>
       </c>
       <c r="P139">
-        <f>AVERAGE(J139:O139)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R139" s="3" t="s">
@@ -15120,7 +15126,7 @@
         <v>4</v>
       </c>
       <c r="P140">
-        <f>AVERAGE(J140:O140)</f>
+        <f t="shared" si="10"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R140" s="3" t="s">
@@ -15198,7 +15204,7 @@
         <v>6</v>
       </c>
       <c r="P141">
-        <f>AVERAGE(J141:O141)</f>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R141" s="3" t="s">
@@ -15276,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="P142">
-        <f>AVERAGE(J142:O142)</f>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R142" s="3" t="s">
@@ -15354,7 +15360,7 @@
         <v>10</v>
       </c>
       <c r="P143">
-        <f>AVERAGE(J143:O143)</f>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R143" s="3" t="s">
@@ -15432,7 +15438,7 @@
         <v>6</v>
       </c>
       <c r="P144">
-        <f>AVERAGE(J144:O144)</f>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R144" s="3" t="s">
@@ -15510,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="P145">
-        <f>AVERAGE(J145:O145)</f>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R145" s="3" t="s">
@@ -15588,7 +15594,7 @@
         <v>3</v>
       </c>
       <c r="P146">
-        <f>AVERAGE(J146:O146)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R146" s="3" t="s">
@@ -15666,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="P147">
-        <f>AVERAGE(J147:O147)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R147" s="3" t="s">
@@ -15744,7 +15750,7 @@
         <v>3</v>
       </c>
       <c r="P148">
-        <f>AVERAGE(J148:O148)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R148" s="3" t="s">
@@ -15822,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="P149">
-        <f>AVERAGE(J149:O149)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R149" s="3" t="s">
@@ -15900,7 +15906,7 @@
         <v>3</v>
       </c>
       <c r="P150">
-        <f>AVERAGE(J150:O150)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R150" s="3" t="s">
@@ -15978,7 +15984,7 @@
         <v>1</v>
       </c>
       <c r="P151">
-        <f>AVERAGE(J151:O151)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R151" s="3" t="s">
@@ -16056,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="P152">
-        <f>AVERAGE(J152:O152)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R152" s="3" t="s">
@@ -16134,7 +16140,7 @@
         <v>5</v>
       </c>
       <c r="P153">
-        <f>AVERAGE(J153:O153)</f>
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R153" s="3" t="s">
@@ -16212,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="P154">
-        <f>AVERAGE(J154:O154)</f>
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R154" s="3" t="s">
@@ -16290,7 +16296,7 @@
         <v>4</v>
       </c>
       <c r="P155">
-        <f>AVERAGE(J155:O155)</f>
+        <f t="shared" si="10"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R155" s="3" t="s">
@@ -16368,7 +16374,7 @@
         <v>2</v>
       </c>
       <c r="P156">
-        <f>AVERAGE(J156:O156)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R156" s="3" t="s">
@@ -16446,7 +16452,7 @@
         <v>5</v>
       </c>
       <c r="P157">
-        <f>AVERAGE(J157:O157)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R157" s="3" t="s">
@@ -16524,7 +16530,7 @@
         <v>4</v>
       </c>
       <c r="P158">
-        <f>AVERAGE(J158:O158)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R158" s="3" t="s">
@@ -16602,7 +16608,7 @@
         <v>1</v>
       </c>
       <c r="P159">
-        <f>AVERAGE(J159:O159)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R159" s="3" t="s">
@@ -16680,7 +16686,7 @@
         <v>5</v>
       </c>
       <c r="P160">
-        <f>AVERAGE(J160:O160)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R160" s="3" t="s">
@@ -16758,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="P161">
-        <f>AVERAGE(J161:O161)</f>
+        <f t="shared" si="10"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R161" s="3" t="s">
@@ -16836,7 +16842,7 @@
         <v>2</v>
       </c>
       <c r="P162">
-        <f>AVERAGE(J162:O162)</f>
+        <f t="shared" ref="P162:P193" si="11">AVERAGE(J162:O162)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="R162" s="3" t="s">
@@ -16914,7 +16920,7 @@
         <v>1</v>
       </c>
       <c r="P163">
-        <f>AVERAGE(J163:O163)</f>
+        <f t="shared" si="11"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R163" s="3" t="s">
@@ -16992,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="P164">
-        <f>AVERAGE(J164:O164)</f>
+        <f t="shared" si="11"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R164" s="3" t="s">
@@ -17070,7 +17076,7 @@
         <v>3</v>
       </c>
       <c r="P165">
-        <f>AVERAGE(J165:O165)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R165" s="3" t="s">
@@ -17148,7 +17154,7 @@
         <v>2</v>
       </c>
       <c r="P166">
-        <f>AVERAGE(J166:O166)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R166" s="3" t="s">
@@ -17226,7 +17232,7 @@
         <v>3</v>
       </c>
       <c r="P167">
-        <f>AVERAGE(J167:O167)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R167" s="3" t="s">
@@ -17304,7 +17310,7 @@
         <v>5</v>
       </c>
       <c r="P168">
-        <f>AVERAGE(J168:O168)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R168" s="3" t="s">
@@ -17382,7 +17388,7 @@
         <v>1</v>
       </c>
       <c r="P169">
-        <f>AVERAGE(J169:O169)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R169" s="3" t="s">
@@ -17460,7 +17466,7 @@
         <v>2</v>
       </c>
       <c r="P170">
-        <f>AVERAGE(J170:O170)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R170" s="3" t="s">
@@ -17538,7 +17544,7 @@
         <v>3</v>
       </c>
       <c r="P171">
-        <f>AVERAGE(J171:O171)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R171" s="3" t="s">
@@ -17616,7 +17622,7 @@
         <v>3</v>
       </c>
       <c r="P172">
-        <f>AVERAGE(J172:O172)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R172" s="3" t="s">
@@ -17694,7 +17700,7 @@
         <v>2</v>
       </c>
       <c r="P173">
-        <f>AVERAGE(J173:O173)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R173" s="3" t="s">
@@ -17772,7 +17778,7 @@
         <v>2</v>
       </c>
       <c r="P174">
-        <f>AVERAGE(J174:O174)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R174" s="3" t="s">
@@ -17850,7 +17856,7 @@
         <v>1</v>
       </c>
       <c r="P175">
-        <f>AVERAGE(J175:O175)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R175" s="3" t="s">
@@ -17928,7 +17934,7 @@
         <v>3</v>
       </c>
       <c r="P176">
-        <f>AVERAGE(J176:O176)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R176" s="3" t="s">
@@ -18006,7 +18012,7 @@
         <v>3</v>
       </c>
       <c r="P177">
-        <f>AVERAGE(J177:O177)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R177" s="3" t="s">
@@ -18084,7 +18090,7 @@
         <v>4</v>
       </c>
       <c r="P178">
-        <f>AVERAGE(J178:O178)</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R178" s="3" t="s">
@@ -18162,7 +18168,7 @@
         <v>2</v>
       </c>
       <c r="P179">
-        <f>AVERAGE(J179:O179)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R179" s="3" t="s">
@@ -18240,7 +18246,7 @@
         <v>2</v>
       </c>
       <c r="P180">
-        <f>AVERAGE(J180:O180)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R180" s="3" t="s">
@@ -18318,7 +18324,7 @@
         <v>3</v>
       </c>
       <c r="P181">
-        <f>AVERAGE(J181:O181)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R181" s="3" t="s">
@@ -18396,7 +18402,7 @@
         <v>1</v>
       </c>
       <c r="P182">
-        <f>AVERAGE(J182:O182)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R182" s="3" t="s">
@@ -18474,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="P183">
-        <f>AVERAGE(J183:O183)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R183" s="3" t="s">
@@ -18552,7 +18558,7 @@
         <v>3</v>
       </c>
       <c r="P184">
-        <f>AVERAGE(J184:O184)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R184" s="3" t="s">
@@ -18630,7 +18636,7 @@
         <v>2</v>
       </c>
       <c r="P185">
-        <f>AVERAGE(J185:O185)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R185" s="3" t="s">
@@ -18708,7 +18714,7 @@
         <v>3</v>
       </c>
       <c r="P186">
-        <f>AVERAGE(J186:O186)</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R186" s="3" t="s">
@@ -18786,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="P187">
-        <f>AVERAGE(J187:O187)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="R187" s="3" t="s">
@@ -18864,7 +18870,7 @@
         <v>1</v>
       </c>
       <c r="P188">
-        <f>AVERAGE(J188:O188)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="R188" s="3" t="s">
@@ -18942,7 +18948,7 @@
         <v>2</v>
       </c>
       <c r="P189">
-        <f>AVERAGE(J189:O189)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="R189" s="3" t="s">
@@ -19020,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="P190">
-        <f>AVERAGE(J190:O190)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="R190" s="3" t="s">
@@ -19098,7 +19104,7 @@
         <v>3</v>
       </c>
       <c r="P191">
-        <f>AVERAGE(J191:O191)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="R191" s="3" t="s">
@@ -19176,7 +19182,7 @@
         <v>1</v>
       </c>
       <c r="P192">
-        <f>AVERAGE(J192:O192)</f>
+        <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="R192" s="3" t="s">
@@ -19254,7 +19260,7 @@
         <v>1</v>
       </c>
       <c r="P193">
-        <f>AVERAGE(J193:O193)</f>
+        <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="R193" s="3" t="s">
@@ -19332,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="P194">
-        <f>AVERAGE(J194:O194)</f>
+        <f t="shared" ref="P194:P225" si="12">AVERAGE(J194:O194)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="R194" s="3" t="s">
@@ -19373,7 +19379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O27" sqref="O27:O28"/>
     </sheetView>
   </sheetViews>
@@ -21827,7 +21833,7 @@
       <c r="M27" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="8" t="s">
         <v>515</v>
       </c>
       <c r="P27" s="6" t="str">
@@ -21919,7 +21925,7 @@
       <c r="M28" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="8" t="s">
         <v>616</v>
       </c>
       <c r="P28" s="6" t="str">
@@ -33511,7 +33517,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="H1:I28"/>
+      <selection activeCell="D27" sqref="D27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34075,6 +34081,13 @@
       <c r="B27" t="s">
         <v>840</v>
       </c>
+      <c r="D27" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:E28" si="1">VLOOKUP($D27,$A$1:$B$194,2,FALSE)</f>
+        <v>Faecalibacterium prausnitzii</v>
+      </c>
       <c r="H27" t="s">
         <v>856</v>
       </c>
@@ -34088,6 +34101,13 @@
       </c>
       <c r="B28" t="s">
         <v>827</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>Caudovirales sp.</v>
       </c>
       <c r="H28" t="s">
         <v>878</v>
@@ -40106,8 +40126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41477,14 +41497,174 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4111CD-3CDF-CF4B-987C-2E286C9BEC80}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="B3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.65795499999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.66333299999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.66333299999999995</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.33201000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.3725</v>
+      </c>
+      <c r="G7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -41494,7 +41674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAE699E-7123-764F-9D7E-BD7665879B91}">
   <dimension ref="A1:H421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC832F57-3522-0D48-8632-3A8AF2E06B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CB06F-CEEA-5D44-85CB-C5DCB1D61439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="883">
   <si>
     <t>Seq ID</t>
   </si>
@@ -2688,6 +2688,9 @@
   </si>
   <si>
     <t>AMP_144878_c1_g1_i1.p9</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -19338,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="P194">
-        <f t="shared" ref="P194:P225" si="12">AVERAGE(J194:O194)</f>
+        <f t="shared" ref="P194" si="12">AVERAGE(J194:O194)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="R194" s="3" t="s">
@@ -19379,8 +19382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:O28"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33517,7 +33520,7 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34043,7 +34046,7 @@
         <v>370</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP($D25,$A$1:$B$194,2,FALSE)</f>
         <v>Myoviridae sp.</v>
       </c>
       <c r="H25" t="s">
@@ -40126,8 +40129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" activeCellId="1" sqref="A13 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40137,7 +40140,7 @@
     <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>747</v>
       </c>
@@ -40148,18 +40151,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>361</v>
       </c>
@@ -40170,18 +40173,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>498</v>
       </c>
@@ -40192,7 +40195,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>424</v>
       </c>
@@ -40203,7 +40206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>627</v>
       </c>
@@ -40214,7 +40217,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>409</v>
       </c>
@@ -40225,7 +40228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>546</v>
       </c>
@@ -40236,18 +40239,21 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>527</v>
       </c>
@@ -40258,7 +40264,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>395</v>
       </c>
@@ -40269,7 +40275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>435</v>
       </c>
@@ -40280,7 +40286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>513</v>
       </c>
@@ -40291,7 +40297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>607</v>
       </c>
@@ -40302,7 +40308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>562</v>
       </c>
@@ -40317,10 +40323,10 @@
       <c r="A17" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -40372,21 +40378,24 @@
       <c r="A22" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>325</v>
+      </c>
+      <c r="D22" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>267</v>
       </c>
     </row>
@@ -40394,10 +40403,10 @@
       <c r="A24" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -40416,10 +40425,10 @@
       <c r="A26" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -41499,7 +41508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4111CD-3CDF-CF4B-987C-2E286C9BEC80}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CB06F-CEEA-5D44-85CB-C5DCB1D61439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C10BF-F0C4-424F-B792-83E4AC33503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="amps_overexpressed_info" sheetId="4" r:id="rId5"/>
     <sheet name="amps_allsamples_info" sheetId="5" r:id="rId6"/>
     <sheet name="workbench_blastn" sheetId="9" r:id="rId7"/>
+    <sheet name="tmp" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="913">
   <si>
     <t>Seq ID</t>
   </si>
@@ -2691,6 +2692,96 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>GRAVY index</t>
+  </si>
+  <si>
+    <t>Net charge at pH 7</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN138200_c2_g1_i1.p2</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN141075_c3_g1_i1.p9</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN143020_c3_g1_i1.p2</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN143683_c0_g2_i1.p14</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN144897_c3_g1_i5.p10</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN385865_c1_g1_i1.p3</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN125192_c2_g1_i1.p8</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN133076_c0_g4_i1.p5</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN138681_c7_g1_i1.p3</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN142115_c6_g1_i3.p7</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN142526_c5_g1_i7.p5</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN142823_c1_g1_i2.p2</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN143096_c2_g1_i1.p6</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN144187_c0_g1_i10.p9</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN144483_c7_g1_i1.p5</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN144624_c4_g1_i1.p5</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN144653_c7_g8_i1.p24</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN145055_c3_g1_i3.p7</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN145062_c3_g1_i3.p10</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN145245_c6_g1_i2.p2</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN145391_c5_g1_i9.p5</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN145575_c0_g1_i3.p4</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN612198_c2_g1_i1.p1</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN7230_c1_g2_i2.p9</t>
+  </si>
+  <si>
+    <t>&gt;TRINITY_DN851511_c0_g1_i1.p12</t>
+  </si>
+  <si>
+    <t>OMS</t>
   </si>
 </sst>
 </file>
@@ -33584,7 +33675,7 @@
         <v>361</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E25" si="0">VLOOKUP($D3,$A$1:$B$194,2,FALSE)</f>
+        <f t="shared" ref="E3:E24" si="0">VLOOKUP($D3,$A$1:$B$194,2,FALSE)</f>
         <v>Siphoviridae sp.</v>
       </c>
       <c r="H3" t="s">
@@ -40130,7 +40221,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" activeCellId="1" sqref="A13 C30"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48076,4 +48167,724 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF931D-DD83-C94C-8019-1057FD3D9B20}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2">
+        <v>-0.41388888888888797</v>
+      </c>
+      <c r="D2">
+        <v>6.4714511567774098</v>
+      </c>
+      <c r="G2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2" t="s">
+        <v>884</v>
+      </c>
+      <c r="I2" t="s">
+        <v>873</v>
+      </c>
+      <c r="J2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C3">
+        <v>-1.69999999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.4579619161958002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H3">
+        <v>-0.41388888888888797</v>
+      </c>
+      <c r="I3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J3">
+        <v>6.4714511567774098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C4">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="D4">
+        <v>3.7611275943461902</v>
+      </c>
+      <c r="G4" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4">
+        <v>-1.69999999999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>3.4579619161958002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C5">
+        <v>-1.6666666666666701E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.49935568654234302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>888</v>
+      </c>
+      <c r="H5">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5">
+        <v>3.7611275943461902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C6">
+        <v>-1.7222222222222201</v>
+      </c>
+      <c r="D6">
+        <v>1.5011571476165499</v>
+      </c>
+      <c r="G6" t="s">
+        <v>889</v>
+      </c>
+      <c r="H6">
+        <v>-1.6666666666666701E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6">
+        <v>0.49935568654234302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C7">
+        <v>-0.79199999999999904</v>
+      </c>
+      <c r="D7">
+        <v>0.76313559624419802</v>
+      </c>
+      <c r="G7" t="s">
+        <v>890</v>
+      </c>
+      <c r="H7">
+        <v>-1.7222222222222201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7">
+        <v>1.5011571476165499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C8">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="D8">
+        <v>1.49934568664234</v>
+      </c>
+      <c r="G8" t="s">
+        <v>891</v>
+      </c>
+      <c r="H8">
+        <v>-0.79199999999999904</v>
+      </c>
+      <c r="I8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J8">
+        <v>0.76313559624419802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C9">
+        <v>-0.82307692307692304</v>
+      </c>
+      <c r="D9">
+        <v>-0.32226295389458598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>912</v>
+      </c>
+      <c r="C10">
+        <v>-0.75151515151515103</v>
+      </c>
+      <c r="D10">
+        <v>6.7489650825674898</v>
+      </c>
+      <c r="G10" t="s">
+        <v>873</v>
+      </c>
+      <c r="H10" t="s">
+        <v>884</v>
+      </c>
+      <c r="I10" t="s">
+        <v>873</v>
+      </c>
+      <c r="J10" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>912</v>
+      </c>
+      <c r="C11">
+        <v>-0.44444444444444398</v>
+      </c>
+      <c r="D11">
+        <v>-0.499523552517811</v>
+      </c>
+      <c r="G11" t="s">
+        <v>893</v>
+      </c>
+      <c r="H11">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1.49934568664234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C12">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="D12">
+        <v>1.7561056101932899</v>
+      </c>
+      <c r="G12" t="s">
+        <v>894</v>
+      </c>
+      <c r="H12">
+        <v>-0.82307692307692304</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>-0.32226295389458598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13" t="s">
+        <v>912</v>
+      </c>
+      <c r="C13">
+        <v>-0.32380952380952299</v>
+      </c>
+      <c r="D13">
+        <v>1.9260375560165699</v>
+      </c>
+      <c r="G13" t="s">
+        <v>895</v>
+      </c>
+      <c r="H13">
+        <v>-0.75151515151515103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <v>6.7489650825674898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>912</v>
+      </c>
+      <c r="C14">
+        <v>-1.5538461538461501</v>
+      </c>
+      <c r="D14">
+        <v>5.7530986072962902</v>
+      </c>
+      <c r="G14" t="s">
+        <v>896</v>
+      </c>
+      <c r="H14">
+        <v>-0.44444444444444398</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14">
+        <v>-0.499523552517811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>912</v>
+      </c>
+      <c r="C15">
+        <v>-3.3571428571428501</v>
+      </c>
+      <c r="D15">
+        <v>0.76003683310635395</v>
+      </c>
+      <c r="G15" t="s">
+        <v>897</v>
+      </c>
+      <c r="H15">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <v>1.7561056101932899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>912</v>
+      </c>
+      <c r="C16">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="D16">
+        <v>-0.32729493794748299</v>
+      </c>
+      <c r="G16" t="s">
+        <v>898</v>
+      </c>
+      <c r="H16">
+        <v>-0.32380952380952299</v>
+      </c>
+      <c r="I16" t="s">
+        <v>798</v>
+      </c>
+      <c r="J16">
+        <v>1.9260375560165699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>912</v>
+      </c>
+      <c r="C17">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="D17">
+        <v>1.49934568664234</v>
+      </c>
+      <c r="G17" t="s">
+        <v>899</v>
+      </c>
+      <c r="H17">
+        <v>-1.5538461538461501</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17">
+        <v>5.7530986072962902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>-4.4858548868306896</v>
+      </c>
+      <c r="G18" t="s">
+        <v>900</v>
+      </c>
+      <c r="H18">
+        <v>-3.3571428571428501</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18">
+        <v>0.76003683310635395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>912</v>
+      </c>
+      <c r="C19">
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.499523552517811</v>
+      </c>
+      <c r="G19" t="s">
+        <v>901</v>
+      </c>
+      <c r="H19">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19">
+        <v>-0.32729493794748299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s">
+        <v>912</v>
+      </c>
+      <c r="C20">
+        <v>-3.73999999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.83383061570099</v>
+      </c>
+      <c r="G20" t="s">
+        <v>902</v>
+      </c>
+      <c r="H20">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20">
+        <v>1.49934568664234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
+        <v>912</v>
+      </c>
+      <c r="C21">
+        <v>-1.0344827586206799E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.7584488922138199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>903</v>
+      </c>
+      <c r="H21">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21">
+        <v>-4.4858548868306896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C22">
+        <v>-2.57777777777777</v>
+      </c>
+      <c r="D22">
+        <v>0.50396760958976194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>904</v>
+      </c>
+      <c r="H22">
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22">
+        <v>-0.499523552517811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" t="s">
+        <v>912</v>
+      </c>
+      <c r="C23">
+        <v>-1.67777777777777</v>
+      </c>
+      <c r="D23">
+        <v>0.50215614861555302</v>
+      </c>
+      <c r="G23" t="s">
+        <v>905</v>
+      </c>
+      <c r="H23">
+        <v>-3.73999999999999</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23">
+        <v>1.83383061570099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>912</v>
+      </c>
+      <c r="C24">
+        <v>-1.5414634146341399</v>
+      </c>
+      <c r="D24">
+        <v>3.9380451106218302</v>
+      </c>
+      <c r="G24" t="s">
+        <v>906</v>
+      </c>
+      <c r="H24">
+        <v>-1.0344827586206799E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24">
+        <v>1.7584488922138199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>912</v>
+      </c>
+      <c r="C25">
+        <v>-1.0625</v>
+      </c>
+      <c r="D25">
+        <v>0.50297860849076204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>907</v>
+      </c>
+      <c r="H25">
+        <v>-2.57777777777777</v>
+      </c>
+      <c r="I25" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25">
+        <v>0.50396760958976194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C26">
+        <v>1.3285714285714201</v>
+      </c>
+      <c r="D26">
+        <v>-0.49964531245865501</v>
+      </c>
+      <c r="G26" t="s">
+        <v>908</v>
+      </c>
+      <c r="H26">
+        <v>-1.67777777777777</v>
+      </c>
+      <c r="I26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26">
+        <v>0.50215614861555302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>909</v>
+      </c>
+      <c r="H27">
+        <v>-1.5414634146341399</v>
+      </c>
+      <c r="I27" t="s">
+        <v>316</v>
+      </c>
+      <c r="J27">
+        <v>3.9380451106218302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>910</v>
+      </c>
+      <c r="H28">
+        <v>-1.0625</v>
+      </c>
+      <c r="I28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28">
+        <v>0.50297860849076204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>911</v>
+      </c>
+      <c r="H29">
+        <v>1.3285714285714201</v>
+      </c>
+      <c r="I29" t="s">
+        <v>324</v>
+      </c>
+      <c r="J29">
+        <v>-0.49964531245865501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C10BF-F0C4-424F-B792-83E4AC33503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4A7AA-645D-4543-B092-8921F45EEA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="888">
   <si>
     <t>Seq ID</t>
   </si>
@@ -2697,91 +2697,16 @@
     <t>group</t>
   </si>
   <si>
-    <t>GRAVY index</t>
-  </si>
-  <si>
-    <t>Net charge at pH 7</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN138200_c2_g1_i1.p2</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN141075_c3_g1_i1.p9</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN143020_c3_g1_i1.p2</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN143683_c0_g2_i1.p14</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN144897_c3_g1_i5.p10</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN385865_c1_g1_i1.p3</t>
-  </si>
-  <si>
     <t>Ob</t>
   </si>
   <si>
-    <t>&gt;TRINITY_DN125192_c2_g1_i1.p8</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN133076_c0_g4_i1.p5</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN138681_c7_g1_i1.p3</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN142115_c6_g1_i3.p7</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN142526_c5_g1_i7.p5</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN142823_c1_g1_i2.p2</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN143096_c2_g1_i1.p6</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN144187_c0_g1_i10.p9</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN144483_c7_g1_i1.p5</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN144624_c4_g1_i1.p5</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN144653_c7_g8_i1.p24</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN145055_c3_g1_i3.p7</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN145062_c3_g1_i3.p10</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN145245_c6_g1_i2.p2</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN145391_c5_g1_i9.p5</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN145575_c0_g1_i3.p4</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN612198_c2_g1_i1.p1</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN7230_c1_g2_i2.p9</t>
-  </si>
-  <si>
-    <t>&gt;TRINITY_DN851511_c0_g1_i1.p12</t>
-  </si>
-  <si>
     <t>OMS</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>number_AMPs</t>
   </si>
 </sst>
 </file>
@@ -40220,8 +40145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48171,719 +48096,374 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF931D-DD83-C94C-8019-1057FD3D9B20}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="A1:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E1" t="s">
         <v>883</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" t="s">
         <v>884</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C2">
-        <v>-0.41388888888888797</v>
-      </c>
-      <c r="D2">
-        <v>6.4714511567774098</v>
-      </c>
-      <c r="G2" t="s">
-        <v>873</v>
-      </c>
-      <c r="H2" t="s">
-        <v>884</v>
-      </c>
-      <c r="I2" t="s">
-        <v>873</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E7" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C3">
-        <v>-1.69999999999999</v>
-      </c>
-      <c r="D3">
-        <v>3.4579619161958002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>886</v>
-      </c>
-      <c r="H3">
-        <v>-0.41388888888888797</v>
-      </c>
-      <c r="I3" t="s">
-        <v>785</v>
-      </c>
-      <c r="J3">
-        <v>6.4714511567774098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C4">
-        <v>0.149999999999999</v>
-      </c>
-      <c r="D4">
-        <v>3.7611275943461902</v>
-      </c>
-      <c r="G4" t="s">
-        <v>887</v>
-      </c>
-      <c r="H4">
-        <v>-1.69999999999999</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4">
-        <v>3.4579619161958002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>892</v>
-      </c>
-      <c r="C5">
-        <v>-1.6666666666666701E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.49935568654234302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>888</v>
-      </c>
-      <c r="H5">
-        <v>0.149999999999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5">
-        <v>3.7611275943461902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C6">
-        <v>-1.7222222222222201</v>
-      </c>
-      <c r="D6">
-        <v>1.5011571476165499</v>
-      </c>
-      <c r="G6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H6">
-        <v>-1.6666666666666701E-2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6">
-        <v>0.49935568654234302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" t="s">
-        <v>892</v>
-      </c>
-      <c r="C7">
-        <v>-0.79199999999999904</v>
-      </c>
-      <c r="D7">
-        <v>0.76313559624419802</v>
-      </c>
-      <c r="G7" t="s">
-        <v>890</v>
-      </c>
-      <c r="H7">
-        <v>-1.7222222222222201</v>
-      </c>
-      <c r="I7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J7">
-        <v>1.5011571476165499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="B8" t="s">
-        <v>912</v>
-      </c>
-      <c r="C8">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="D8">
-        <v>1.49934568664234</v>
-      </c>
-      <c r="G8" t="s">
-        <v>891</v>
-      </c>
-      <c r="H8">
-        <v>-0.79199999999999904</v>
-      </c>
-      <c r="I8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8">
-        <v>0.76313559624419802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>912</v>
-      </c>
-      <c r="C9">
-        <v>-0.82307692307692304</v>
-      </c>
-      <c r="D9">
-        <v>-0.32226295389458598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
+        <v>827</v>
+      </c>
+      <c r="D8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
+        <v>885</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>527</v>
       </c>
       <c r="B10" t="s">
-        <v>912</v>
-      </c>
-      <c r="C10">
-        <v>-0.75151515151515103</v>
-      </c>
-      <c r="D10">
-        <v>6.7489650825674898</v>
-      </c>
-      <c r="G10" t="s">
-        <v>873</v>
-      </c>
-      <c r="H10" t="s">
-        <v>884</v>
-      </c>
-      <c r="I10" t="s">
-        <v>873</v>
-      </c>
-      <c r="J10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E10" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>94</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>912</v>
-      </c>
-      <c r="C11">
-        <v>-0.44444444444444398</v>
-      </c>
-      <c r="D11">
-        <v>-0.499523552517811</v>
-      </c>
-      <c r="G11" t="s">
-        <v>893</v>
-      </c>
-      <c r="H11">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>1.49934568664234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>110</v>
+        <v>840</v>
+      </c>
+      <c r="D11" t="s">
+        <v>850</v>
+      </c>
+      <c r="E11" t="s">
+        <v>885</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>912</v>
-      </c>
-      <c r="C12">
-        <v>0.39999999999999902</v>
-      </c>
-      <c r="D12">
-        <v>1.7561056101932899</v>
-      </c>
-      <c r="G12" t="s">
-        <v>894</v>
-      </c>
-      <c r="H12">
-        <v>-0.82307692307692304</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>-0.32226295389458598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>798</v>
+        <v>831</v>
+      </c>
+      <c r="D12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" t="s">
+        <v>885</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>513</v>
       </c>
       <c r="B13" t="s">
-        <v>912</v>
-      </c>
-      <c r="C13">
-        <v>-0.32380952380952299</v>
-      </c>
-      <c r="D13">
-        <v>1.9260375560165699</v>
-      </c>
-      <c r="G13" t="s">
-        <v>895</v>
-      </c>
-      <c r="H13">
-        <v>-0.75151515151515103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13">
-        <v>6.7489650825674898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>131</v>
+        <v>840</v>
+      </c>
+      <c r="D13" t="s">
+        <v>827</v>
+      </c>
+      <c r="E13" t="s">
+        <v>885</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>607</v>
       </c>
       <c r="B14" t="s">
-        <v>912</v>
-      </c>
-      <c r="C14">
-        <v>-1.5538461538461501</v>
-      </c>
-      <c r="D14">
-        <v>5.7530986072962902</v>
-      </c>
-      <c r="G14" t="s">
-        <v>896</v>
-      </c>
-      <c r="H14">
-        <v>-0.44444444444444398</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14">
-        <v>-0.499523552517811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>157</v>
+        <v>827</v>
+      </c>
+      <c r="D14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E14" t="s">
+        <v>885</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>912</v>
-      </c>
-      <c r="C15">
-        <v>-3.3571428571428501</v>
-      </c>
-      <c r="D15">
-        <v>0.76003683310635395</v>
-      </c>
-      <c r="G15" t="s">
-        <v>897</v>
-      </c>
-      <c r="H15">
-        <v>0.39999999999999902</v>
-      </c>
-      <c r="I15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15">
-        <v>1.7561056101932899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>912</v>
-      </c>
-      <c r="C16">
-        <v>0.628571428571428</v>
-      </c>
-      <c r="D16">
-        <v>-0.32729493794748299</v>
-      </c>
-      <c r="G16" t="s">
-        <v>898</v>
-      </c>
-      <c r="H16">
-        <v>-0.32380952380952299</v>
-      </c>
-      <c r="I16" t="s">
-        <v>798</v>
-      </c>
-      <c r="J16">
-        <v>1.9260375560165699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>184</v>
+        <v>822</v>
+      </c>
+      <c r="D15" t="s">
+        <v>835</v>
+      </c>
+      <c r="E15" t="s">
+        <v>885</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="D16" t="s">
+        <v>853</v>
+      </c>
+      <c r="E16" t="s">
+        <v>885</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>638</v>
       </c>
       <c r="B17" t="s">
-        <v>912</v>
-      </c>
-      <c r="C17">
-        <v>0.55714285714285705</v>
-      </c>
-      <c r="D17">
-        <v>1.49934568664234</v>
-      </c>
-      <c r="G17" t="s">
-        <v>899</v>
-      </c>
-      <c r="H17">
-        <v>-1.5538461538461501</v>
-      </c>
-      <c r="I17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17">
-        <v>5.7530986072962902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>190</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>912</v>
-      </c>
-      <c r="C18">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="D18">
-        <v>-4.4858548868306896</v>
-      </c>
-      <c r="G18" t="s">
-        <v>900</v>
-      </c>
-      <c r="H18">
-        <v>-3.3571428571428501</v>
-      </c>
-      <c r="I18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18">
-        <v>0.76003683310635395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>224</v>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>912</v>
-      </c>
-      <c r="C19">
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="D19">
-        <v>-0.499523552517811</v>
-      </c>
-      <c r="G19" t="s">
-        <v>901</v>
-      </c>
-      <c r="H19">
-        <v>0.628571428571428</v>
-      </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19">
-        <v>-0.32729493794748299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>226</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="B20" t="s">
-        <v>912</v>
-      </c>
-      <c r="C20">
-        <v>-3.73999999999999</v>
-      </c>
-      <c r="D20">
-        <v>1.83383061570099</v>
-      </c>
-      <c r="G20" t="s">
-        <v>902</v>
-      </c>
-      <c r="H20">
-        <v>0.55714285714285705</v>
-      </c>
-      <c r="I20" t="s">
-        <v>184</v>
-      </c>
-      <c r="J20">
-        <v>1.49934568664234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" t="s">
-        <v>912</v>
-      </c>
-      <c r="C21">
-        <v>-1.0344827586206799E-2</v>
-      </c>
-      <c r="D21">
-        <v>1.7584488922138199</v>
-      </c>
-      <c r="G21" t="s">
-        <v>903</v>
-      </c>
-      <c r="H21">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J21">
-        <v>-4.4858548868306896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" t="s">
-        <v>912</v>
-      </c>
-      <c r="C22">
-        <v>-2.57777777777777</v>
-      </c>
-      <c r="D22">
-        <v>0.50396760958976194</v>
-      </c>
-      <c r="G22" t="s">
-        <v>904</v>
-      </c>
-      <c r="H22">
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22">
-        <v>-0.499523552517811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" t="s">
-        <v>912</v>
-      </c>
-      <c r="C23">
-        <v>-1.67777777777777</v>
-      </c>
-      <c r="D23">
-        <v>0.50215614861555302</v>
-      </c>
-      <c r="G23" t="s">
-        <v>905</v>
-      </c>
-      <c r="H23">
-        <v>-3.73999999999999</v>
-      </c>
-      <c r="I23" t="s">
-        <v>226</v>
-      </c>
-      <c r="J23">
-        <v>1.83383061570099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>316</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>912</v>
-      </c>
-      <c r="C24">
-        <v>-1.5414634146341399</v>
-      </c>
-      <c r="D24">
-        <v>3.9380451106218302</v>
-      </c>
-      <c r="G24" t="s">
-        <v>906</v>
-      </c>
-      <c r="H24">
-        <v>-1.0344827586206799E-2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J24">
-        <v>1.7584488922138199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" t="s">
-        <v>912</v>
-      </c>
-      <c r="C25">
-        <v>-1.0625</v>
-      </c>
-      <c r="D25">
-        <v>0.50297860849076204</v>
-      </c>
-      <c r="G25" t="s">
-        <v>907</v>
-      </c>
-      <c r="H25">
-        <v>-2.57777777777777</v>
-      </c>
-      <c r="I25" t="s">
-        <v>268</v>
-      </c>
-      <c r="J25">
-        <v>0.50396760958976194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" t="s">
-        <v>912</v>
-      </c>
-      <c r="C26">
-        <v>1.3285714285714201</v>
-      </c>
-      <c r="D26">
-        <v>-0.49964531245865501</v>
-      </c>
-      <c r="G26" t="s">
-        <v>908</v>
-      </c>
-      <c r="H26">
-        <v>-1.67777777777777</v>
-      </c>
-      <c r="I26" t="s">
-        <v>286</v>
-      </c>
-      <c r="J26">
-        <v>0.50215614861555302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>909</v>
-      </c>
-      <c r="H27">
-        <v>-1.5414634146341399</v>
-      </c>
-      <c r="I27" t="s">
-        <v>316</v>
-      </c>
-      <c r="J27">
-        <v>3.9380451106218302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
-        <v>910</v>
-      </c>
-      <c r="H28">
-        <v>-1.0625</v>
-      </c>
-      <c r="I28" t="s">
-        <v>322</v>
-      </c>
-      <c r="J28">
-        <v>0.50297860849076204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G29" t="s">
-        <v>911</v>
-      </c>
-      <c r="H29">
-        <v>1.3285714285714201</v>
-      </c>
-      <c r="I29" t="s">
-        <v>324</v>
-      </c>
-      <c r="J29">
-        <v>-0.49964531245865501</v>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:H30">
+    <sortCondition descending="1" ref="H1:H30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B4A7AA-645D-4543-B092-8921F45EEA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA088792-E3EA-AD4B-A3A0-C508F0EC1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="10300" yWindow="500" windowWidth="18500" windowHeight="17500" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="890">
   <si>
     <t>Seq ID</t>
   </si>
@@ -2707,6 +2707,12 @@
   </si>
   <si>
     <t>number_AMPs</t>
+  </si>
+  <si>
+    <t>sum_ob</t>
+  </si>
+  <si>
+    <t>sum_oms</t>
   </si>
 </sst>
 </file>
@@ -3144,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFBD464-A7BC-3341-8F04-93E577BF9587}">
-  <dimension ref="A1:AG194"/>
+  <dimension ref="A1:AI196"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R2:R14"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3156,10 +3162,10 @@
     <col min="9" max="9" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="10.83203125" style="1"/>
     <col min="18" max="18" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>747</v>
       </c>
@@ -3227,31 +3233,37 @@
         <v>708</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>511</v>
       </c>
@@ -3326,37 +3338,45 @@
         <v>1</v>
       </c>
       <c r="Y2">
+        <f>SUM(S2:U2)</f>
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <f>SUM(V2:X2)</f>
+        <v>3</v>
+      </c>
+      <c r="AA2">
         <v>6</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="AB2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="AC2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,3,FALSE)</f>
+      <c r="AD2" s="6">
+        <f>VLOOKUP($AC2,$I$1:$O$194,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="6">
+        <f>VLOOKUP($AC2,$I$1:$O$194,3,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="AD2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,4,FALSE)</f>
+      <c r="AF2" s="6">
+        <f>VLOOKUP($AC2,$I$1:$O$194,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="AE2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="AF2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,6,FALSE)</f>
-        <v>1</v>
-      </c>
       <c r="AG2" s="6">
-        <f>VLOOKUP($AA2,$I$1:$O$194,7,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <f>VLOOKUP($AC2,$I$1:$O$194,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="6">
+        <f>VLOOKUP($AC2,$I$1:$O$194,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="6">
+        <f>VLOOKUP($AC2,$I$1:$O$194,7,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>370</v>
       </c>
@@ -3431,37 +3451,45 @@
         <v>1</v>
       </c>
       <c r="Y3">
+        <f>SUM(S3:U3)</f>
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <f>SUM(V3:X3)</f>
+        <v>3</v>
+      </c>
+      <c r="AA3">
         <v>6</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="AB3" s="6">
-        <f t="shared" ref="AB3:AB41" si="1">VLOOKUP($AA3,$I$1:$O$194,2,FALSE)</f>
+      <c r="AD3" s="6">
+        <f t="shared" ref="AD3:AD41" si="1">VLOOKUP($AC3,$I$1:$O$194,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AC3" s="6">
-        <f t="shared" ref="AC3:AC41" si="2">VLOOKUP($AA3,$I$1:$O$194,3,FALSE)</f>
+      <c r="AE3" s="6">
+        <f t="shared" ref="AE3:AE41" si="2">VLOOKUP($AC3,$I$1:$O$194,3,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD41" si="3">VLOOKUP($AA3,$I$1:$O$194,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE41" si="4">VLOOKUP($AA3,$I$1:$O$194,5,FALSE)</f>
-        <v>1</v>
-      </c>
       <c r="AF3" s="6">
-        <f t="shared" ref="AF3:AF41" si="5">VLOOKUP($AA3,$I$1:$O$194,6,FALSE)</f>
+        <f t="shared" ref="AF3:AF41" si="3">VLOOKUP($AC3,$I$1:$O$194,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" ref="AG3:AG41" si="6">VLOOKUP($AA3,$I$1:$O$194,7,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AG3:AG41" si="4">VLOOKUP($AC3,$I$1:$O$194,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="6">
+        <f t="shared" ref="AH3:AH41" si="5">VLOOKUP($AC3,$I$1:$O$194,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AI3" s="6">
+        <f t="shared" ref="AI3:AI41" si="6">VLOOKUP($AC3,$I$1:$O$194,7,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>578</v>
       </c>
@@ -3515,13 +3543,13 @@
         <v>593.5</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3530,43 +3558,51 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
+        <f>SUM(S4:U4)</f>
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <f>SUM(V4:X4)</f>
+        <v>2</v>
+      </c>
+      <c r="AA4">
         <v>5</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AD4" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AE4" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AF4" s="6">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AG4" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AH4" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AI4" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>373</v>
       </c>
@@ -3620,19 +3656,19 @@
         <v>323.83333333333331</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -3641,37 +3677,45 @@
         <v>1</v>
       </c>
       <c r="Y5">
+        <f>SUM(S5:U5)</f>
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <f>SUM(V5:X5)</f>
+        <v>2</v>
+      </c>
+      <c r="AA5">
         <v>5</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AD5" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AE5" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AF5" s="6">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AG5" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AH5" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AI5" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>435</v>
       </c>
@@ -3725,7 +3769,7 @@
         <v>317.83333333333331</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -3737,46 +3781,54 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
+        <f>SUM(S6:U6)</f>
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <f>SUM(V6:X6)</f>
+        <v>2</v>
+      </c>
+      <c r="AA6">
         <v>5</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AD6" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AE6" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AG6" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AH6" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AI6" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>505</v>
       </c>
@@ -3830,7 +3882,7 @@
         <v>289.5</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>604</v>
+        <v>461</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -3842,46 +3894,54 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>SUM(S7:U7)</f>
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <f>SUM(V7:X7)</f>
+        <v>2</v>
+      </c>
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AD7" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AE7" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AG7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AH7" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AI7" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>687</v>
       </c>
@@ -3935,7 +3995,7 @@
         <v>233.16666666666666</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -3947,46 +4007,54 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
+        <f>SUM(S8:U8)</f>
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <f>SUM(V8:X8)</f>
+        <v>2</v>
+      </c>
+      <c r="AA8">
         <v>5</v>
       </c>
-      <c r="AA8" s="14" t="s">
+      <c r="AC8" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AD8" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AE8" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AG8" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AH8" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AI8" s="6">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>413</v>
       </c>
@@ -4040,13 +4108,13 @@
         <v>182.33333333333334</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>638</v>
+        <v>538</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -4055,43 +4123,51 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
+        <f>SUM(S9:U9)</f>
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <f>SUM(V9:X9)</f>
+        <v>2</v>
+      </c>
+      <c r="AA9">
         <v>5</v>
       </c>
-      <c r="AA9" s="14" t="s">
+      <c r="AC9" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AD9" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AE9" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AF9" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AG9" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AH9" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AI9" s="6">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>628</v>
       </c>
@@ -4145,7 +4221,7 @@
         <v>152.66666666666666</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>461</v>
+        <v>737</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -4157,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -4166,37 +4242,45 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="14" t="s">
+        <f>SUM(S10:U10)</f>
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <f>SUM(V10:X10)</f>
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AD10" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AH10" s="6">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AI10" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>764</v>
       </c>
@@ -4250,7 +4334,7 @@
         <v>138</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -4262,46 +4346,54 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="14" t="s">
+        <f>SUM(S11:U11)</f>
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <f>SUM(V11:X11)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AD11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AE11" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AG11" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AH11" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AI11" s="6">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>563</v>
       </c>
@@ -4355,7 +4447,7 @@
         <v>122.33333333333333</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -4367,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -4376,37 +4468,45 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="14" t="s">
+        <f>SUM(S12:U12)</f>
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <f>SUM(V12:X12)</f>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AD12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AE12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AF12" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AG12" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AH12" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AI12" s="6">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>526</v>
       </c>
@@ -4460,58 +4560,66 @@
         <v>106.16666666666667</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="14" t="s">
+        <f>SUM(S13:U13)</f>
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <f>SUM(V13:X13)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AD13" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AE13" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AF13" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AG13" s="6">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AH13" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AI13" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>544</v>
       </c>
@@ -4565,58 +4673,66 @@
         <v>105.83333333333333</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="14" t="s">
+        <f>SUM(S14:U14)</f>
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <f>SUM(V14:X14)</f>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AD14" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AE14" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AF14" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AG14" s="6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AH14" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AI14" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>515</v>
       </c>
@@ -4670,58 +4786,66 @@
         <v>105.5</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="14" t="s">
+        <f>SUM(S15:U15)</f>
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <f>SUM(V15:X15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AD15" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AE15" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AF15" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AG15" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AH15" s="6">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AI15" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>731</v>
       </c>
@@ -4775,58 +4899,66 @@
         <v>100.66666666666667</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>764</v>
+        <v>425</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>4</v>
-      </c>
-      <c r="AA16" s="14" t="s">
+        <f>SUM(S16:U16)</f>
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <f>SUM(V16:X16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AD16" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AE16" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AF16" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AG16" s="6">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AH16" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AI16" s="6">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>381</v>
       </c>
@@ -4880,7 +5012,7 @@
         <v>100.33333333333333</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>401</v>
+        <v>511</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -4892,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -4901,37 +5033,45 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="14" t="s">
+        <f>SUM(S17:U17)</f>
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <f>SUM(V17:X17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AD17" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AE17" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AF17" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AG17" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AH17" s="6">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AI17" s="6">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>506</v>
       </c>
@@ -4985,7 +5125,7 @@
         <v>97.666666666666671</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>391</v>
+        <v>687</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -4994,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -5006,37 +5146,45 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="14" t="s">
+        <f>SUM(S18:U18)</f>
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <f>SUM(V18:X18)</f>
+        <v>3</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AD18" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AE18" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AF18" s="6">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AG18" s="6">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AH18" s="6">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AI18" s="6">
         <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>423</v>
       </c>
@@ -5090,7 +5238,7 @@
         <v>78.166666666666671</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>543</v>
+        <v>638</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -5105,43 +5253,51 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="14" t="s">
+        <f>SUM(S19:U19)</f>
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <f>SUM(V19:X19)</f>
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AD19" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AE19" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AF19" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AG19" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AH19" s="6">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AI19" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>401</v>
       </c>
@@ -5195,7 +5351,7 @@
         <v>72</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -5210,43 +5366,51 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="14" t="s">
+        <f>SUM(S20:U20)</f>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f>SUM(V20:X20)</f>
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AD20" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AE20" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AF20" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AG20" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AH20" s="6">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AI20" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>677</v>
       </c>
@@ -5300,7 +5464,7 @@
         <v>71.833333333333329</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -5315,43 +5479,51 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="14" t="s">
+        <f>SUM(S21:U21)</f>
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <f>SUM(V21:X21)</f>
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AD21" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AE21" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AF21" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AG21" s="6">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AH21" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AI21" s="6">
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>546</v>
       </c>
@@ -5405,19 +5577,19 @@
         <v>61.666666666666664</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>737</v>
+        <v>505</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -5426,37 +5598,45 @@
         <v>1</v>
       </c>
       <c r="Y22">
+        <f>SUM(S22:U22)</f>
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <f>SUM(V22:X22)</f>
+        <v>2</v>
+      </c>
+      <c r="AA22">
         <v>4</v>
       </c>
-      <c r="AA22" s="14" t="s">
+      <c r="AC22" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AD22" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AE22" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AF22" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AG22" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AH22" s="6">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AI22" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>547</v>
       </c>
@@ -5510,7 +5690,7 @@
         <v>57.833333333333336</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>571</v>
+        <v>764</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -5522,46 +5702,54 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
       <c r="Y23">
+        <f>SUM(S23:U23)</f>
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <f>SUM(V23:X23)</f>
+        <v>2</v>
+      </c>
+      <c r="AA23">
         <v>4</v>
       </c>
-      <c r="AA23" s="14" t="s">
+      <c r="AC23" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AD23" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AE23" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AF23" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AG23" s="6">
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AH23" s="6">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AG23" s="6">
+      <c r="AI23" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>514</v>
       </c>
@@ -5615,7 +5803,7 @@
         <v>51</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -5627,46 +5815,54 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
+        <f>SUM(S24:U24)</f>
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <f>SUM(V24:X24)</f>
+        <v>2</v>
+      </c>
+      <c r="AA24">
         <v>4</v>
       </c>
-      <c r="AA24" s="14" t="s">
+      <c r="AC24" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AD24" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AE24" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AF24" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AG24" s="6">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AH24" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AI24" s="6">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>736</v>
       </c>
@@ -5720,16 +5916,16 @@
         <v>50.333333333333336</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -5741,37 +5937,45 @@
         <v>1</v>
       </c>
       <c r="Y25">
+        <f>SUM(S25:U25)</f>
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <f>SUM(V25:X25)</f>
+        <v>2</v>
+      </c>
+      <c r="AA25">
         <v>4</v>
       </c>
-      <c r="AA25" s="14" t="s">
+      <c r="AC25" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AD25" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AE25" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AG25" s="6">
         <f t="shared" si="4"/>
         <v>514</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AH25" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AI25" s="6">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>395</v>
       </c>
@@ -5825,7 +6029,7 @@
         <v>47.166666666666664</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>562</v>
+        <v>367</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -5846,37 +6050,45 @@
         <v>1</v>
       </c>
       <c r="Y26">
+        <f>SUM(S26:U26)</f>
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <f>SUM(V26:X26)</f>
+        <v>2</v>
+      </c>
+      <c r="AA26">
         <v>4</v>
       </c>
-      <c r="AA26" s="14" t="s">
+      <c r="AC26" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AD26" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AE26" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AF26" s="6">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AG26" s="6">
         <f t="shared" si="4"/>
         <v>4480</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AH26" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AI26" s="6">
         <f t="shared" si="6"/>
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>534</v>
       </c>
@@ -5930,58 +6142,66 @@
         <v>44.333333333333336</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
+        <f>SUM(S27:U27)</f>
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <f>SUM(V27:X27)</f>
+        <v>2</v>
+      </c>
+      <c r="AA27">
         <v>4</v>
       </c>
-      <c r="AA27" s="8" t="s">
+      <c r="AC27" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AD27" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AE27" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AF27" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AG27" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AF27" s="6">
+      <c r="AH27" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AG27" s="6">
+      <c r="AI27" s="6">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>604</v>
       </c>
@@ -6035,7 +6255,7 @@
         <v>41.5</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>734</v>
+        <v>571</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -6047,46 +6267,54 @@
         <v>1</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
       <c r="Y28">
+        <f>SUM(S28:U28)</f>
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <f>SUM(V28:X28)</f>
+        <v>2</v>
+      </c>
+      <c r="AA28">
         <v>4</v>
       </c>
-      <c r="AA28" s="8" t="s">
+      <c r="AC28" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AD28" s="6">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AE28" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AF28" s="6">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AG28" s="6">
         <f t="shared" si="4"/>
         <v>742</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AH28" s="6">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AG28" s="6">
+      <c r="AI28" s="6">
         <f t="shared" si="6"/>
         <v>748</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>699</v>
       </c>
@@ -6140,19 +6368,19 @@
         <v>38.833333333333336</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>585</v>
+        <v>388</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6161,37 +6389,45 @@
         <v>1</v>
       </c>
       <c r="Y29">
+        <f>SUM(S29:U29)</f>
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <f>SUM(V29:X29)</f>
+        <v>2</v>
+      </c>
+      <c r="AA29">
         <v>4</v>
       </c>
-      <c r="AA29" s="9" t="s">
+      <c r="AC29" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AD29" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AE29" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AF29" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AG29" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AH29" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AI29" s="6">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>686</v>
       </c>
@@ -6245,58 +6481,66 @@
         <v>38.333333333333336</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
+        <f>SUM(S30:U30)</f>
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <f>SUM(V30:X30)</f>
+        <v>2</v>
+      </c>
+      <c r="AA30">
         <v>4</v>
       </c>
-      <c r="AA30" s="9" t="s">
+      <c r="AC30" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AD30" s="6">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AE30" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AF30" s="6">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AG30" s="6">
         <f t="shared" si="4"/>
         <v>742</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AH30" s="6">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AI30" s="6">
         <f t="shared" si="6"/>
         <v>748</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>697</v>
       </c>
@@ -6350,58 +6594,66 @@
         <v>35.166666666666664</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
       <c r="Y31">
+        <f>SUM(S31:U31)</f>
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <f>SUM(V31:X31)</f>
+        <v>2</v>
+      </c>
+      <c r="AA31">
         <v>4</v>
       </c>
-      <c r="AA31" s="9" t="s">
+      <c r="AC31" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AD31" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AE31" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AF31" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AG31" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AF31" s="6">
+      <c r="AH31" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AG31" s="6">
+      <c r="AI31" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>375</v>
       </c>
@@ -6455,16 +6707,16 @@
         <v>35.166666666666664</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="S32">
         <v>1</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -6476,37 +6728,45 @@
         <v>1</v>
       </c>
       <c r="Y32">
+        <f>SUM(S32:U32)</f>
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <f>SUM(V32:X32)</f>
+        <v>2</v>
+      </c>
+      <c r="AA32">
         <v>4</v>
       </c>
-      <c r="AA32" s="9" t="s">
+      <c r="AC32" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AD32" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AC32" s="6">
+      <c r="AE32" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AF32" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE32" s="6">
+      <c r="AG32" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AH32" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AG32" s="6">
+      <c r="AI32" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>576</v>
       </c>
@@ -6560,7 +6820,7 @@
         <v>32</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -6572,46 +6832,54 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
+        <f>SUM(S33:U33)</f>
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <f>SUM(V33:X33)</f>
+        <v>2</v>
+      </c>
+      <c r="AA33">
         <v>4</v>
       </c>
-      <c r="AA33" s="9" t="s">
+      <c r="AC33" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AD33" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="AC33" s="6">
+      <c r="AE33" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AD33" s="6">
+      <c r="AF33" s="6">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="AE33" s="6">
+      <c r="AG33" s="6">
         <f t="shared" si="4"/>
         <v>4480</v>
       </c>
-      <c r="AF33" s="6">
+      <c r="AH33" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG33" s="6">
+      <c r="AI33" s="6">
         <f t="shared" si="6"/>
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>409</v>
       </c>
@@ -6665,7 +6933,7 @@
         <v>31.5</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -6677,46 +6945,54 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
+        <f>SUM(S34:U34)</f>
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <f>SUM(V34:X34)</f>
+        <v>2</v>
+      </c>
+      <c r="AA34">
         <v>4</v>
       </c>
-      <c r="AA34" s="9" t="s">
+      <c r="AC34" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AD34" s="6">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="AC34" s="6">
+      <c r="AE34" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="AD34" s="6">
+      <c r="AF34" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE34" s="6">
+      <c r="AG34" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF34" s="6">
+      <c r="AH34" s="6">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="AG34" s="6">
+      <c r="AI34" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>504</v>
       </c>
@@ -6770,16 +7046,16 @@
         <v>30</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>385</v>
+        <v>700</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -6791,37 +7067,45 @@
         <v>1</v>
       </c>
       <c r="Y35">
+        <f>SUM(S35:U35)</f>
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <f>SUM(V35:X35)</f>
+        <v>2</v>
+      </c>
+      <c r="AA35">
         <v>4</v>
       </c>
-      <c r="AA35" s="9" t="s">
+      <c r="AC35" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="AB35" s="6">
+      <c r="AD35" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="AC35" s="6">
+      <c r="AE35" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="AD35" s="6">
+      <c r="AF35" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE35" s="6">
+      <c r="AG35" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF35" s="6">
+      <c r="AH35" s="6">
         <f t="shared" si="5"/>
         <v>175</v>
       </c>
-      <c r="AG35" s="6">
+      <c r="AI35" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>484</v>
       </c>
@@ -6875,19 +7159,19 @@
         <v>28.666666666666668</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -6896,37 +7180,45 @@
         <v>1</v>
       </c>
       <c r="Y36">
+        <f>SUM(S36:U36)</f>
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <f>SUM(V36:X36)</f>
+        <v>2</v>
+      </c>
+      <c r="AA36">
         <v>4</v>
       </c>
-      <c r="AA36" s="9" t="s">
+      <c r="AC36" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AD36" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AC36" s="6">
+      <c r="AE36" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD36" s="6">
+      <c r="AF36" s="6">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="AE36" s="6">
+      <c r="AG36" s="6">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="AF36" s="6">
+      <c r="AH36" s="6">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="AG36" s="6">
+      <c r="AI36" s="6">
         <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>638</v>
       </c>
@@ -6980,7 +7272,7 @@
         <v>28.166666666666668</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -6989,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -7001,37 +7293,45 @@
         <v>1</v>
       </c>
       <c r="Y37">
+        <f>SUM(S37:U37)</f>
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <f>SUM(V37:X37)</f>
+        <v>2</v>
+      </c>
+      <c r="AA37">
         <v>4</v>
       </c>
-      <c r="AA37" s="9" t="s">
+      <c r="AC37" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AD37" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AC37" s="6">
+      <c r="AE37" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AD37" s="6">
+      <c r="AF37" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AE37" s="6">
+      <c r="AG37" s="6">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AF37" s="6">
+      <c r="AH37" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG37" s="6">
+      <c r="AI37" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>391</v>
       </c>
@@ -7085,7 +7385,7 @@
         <v>27.666666666666668</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>542</v>
+        <v>385</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -7106,37 +7406,45 @@
         <v>1</v>
       </c>
       <c r="Y38">
+        <f>SUM(S38:U38)</f>
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <f>SUM(V38:X38)</f>
+        <v>2</v>
+      </c>
+      <c r="AA38">
         <v>4</v>
       </c>
-      <c r="AA38" s="9" t="s">
+      <c r="AC38" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AD38" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AC38" s="6">
+      <c r="AE38" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AD38" s="6">
+      <c r="AF38" s="6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="AE38" s="6">
+      <c r="AG38" s="6">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="AF38" s="6">
+      <c r="AH38" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG38" s="6">
+      <c r="AI38" s="6">
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>543</v>
       </c>
@@ -7190,7 +7498,7 @@
         <v>26.833333333333332</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -7211,37 +7519,45 @@
         <v>1</v>
       </c>
       <c r="Y39">
+        <f>SUM(S39:U39)</f>
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <f>SUM(V39:X39)</f>
+        <v>2</v>
+      </c>
+      <c r="AA39">
         <v>4</v>
       </c>
-      <c r="AA39" s="9" t="s">
+      <c r="AC39" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AD39" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AC39" s="6">
+      <c r="AE39" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="AD39" s="6">
+      <c r="AF39" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AE39" s="6">
+      <c r="AG39" s="6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AF39" s="6">
+      <c r="AH39" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AG39" s="6">
+      <c r="AI39" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>367</v>
       </c>
@@ -7295,58 +7611,66 @@
         <v>25.666666666666668</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>337</v>
+        <v>539</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
+        <f>SUM(S40:U40)</f>
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <f>SUM(V40:X40)</f>
+        <v>2</v>
+      </c>
+      <c r="AA40">
         <v>4</v>
       </c>
-      <c r="AA40" s="9" t="s">
+      <c r="AC40" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AD40" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AC40" s="6">
+      <c r="AE40" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD40" s="6">
+      <c r="AF40" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE40" s="6">
+      <c r="AG40" s="6">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="AF40" s="6">
+      <c r="AH40" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AG40" s="6">
+      <c r="AI40" s="6">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>387</v>
       </c>
@@ -7400,13 +7724,13 @@
         <v>25.166666666666668</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -7421,37 +7745,45 @@
         <v>1</v>
       </c>
       <c r="Y41">
+        <f>SUM(S41:U41)</f>
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <f>SUM(V41:X41)</f>
+        <v>2</v>
+      </c>
+      <c r="AA41">
         <v>4</v>
       </c>
-      <c r="AA41" s="9" t="s">
+      <c r="AC41" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="AB41" s="6">
+      <c r="AD41" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AC41" s="6">
+      <c r="AE41" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="6">
+      <c r="AF41" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AE41" s="6">
+      <c r="AG41" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AF41" s="6">
+      <c r="AH41" s="6">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="AG41" s="6">
+      <c r="AI41" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>461</v>
       </c>
@@ -7505,31 +7837,39 @@
         <v>25</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
+        <f>SUM(S42:U42)</f>
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <f>SUM(V42:X42)</f>
+        <v>2</v>
+      </c>
+      <c r="AA42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>407</v>
       </c>
@@ -7583,31 +7923,39 @@
         <v>24.833333333333332</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
+        <f>SUM(S43:U43)</f>
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <f>SUM(V43:X43)</f>
+        <v>2</v>
+      </c>
+      <c r="AA43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>626</v>
       </c>
@@ -7661,7 +8009,7 @@
         <v>24.666666666666668</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -7682,10 +8030,18 @@
         <v>1</v>
       </c>
       <c r="Y44">
+        <f>SUM(S44:U44)</f>
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <f>SUM(V44:X44)</f>
+        <v>2</v>
+      </c>
+      <c r="AA44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>612</v>
       </c>
@@ -7739,7 +8095,7 @@
         <v>23.166666666666668</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>595</v>
+        <v>421</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -7751,19 +8107,27 @@
         <v>1</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45">
+        <f>SUM(S45:U45)</f>
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <f>SUM(V45:X45)</f>
+        <v>2</v>
+      </c>
+      <c r="AA45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>739</v>
       </c>
@@ -7817,7 +8181,7 @@
         <v>22.833333333333332</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>472</v>
+        <v>595</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -7829,19 +8193,27 @@
         <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
+        <f>SUM(S46:U46)</f>
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <f>SUM(V46:X46)</f>
+        <v>2</v>
+      </c>
+      <c r="AA46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>737</v>
       </c>
@@ -7895,7 +8267,7 @@
         <v>20.666666666666668</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -7916,10 +8288,18 @@
         <v>1</v>
       </c>
       <c r="Y47">
+        <f>SUM(S47:U47)</f>
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <f>SUM(V47:X47)</f>
+        <v>2</v>
+      </c>
+      <c r="AA47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>417</v>
       </c>
@@ -7973,7 +8353,7 @@
         <v>20.666666666666668</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -7994,10 +8374,18 @@
         <v>1</v>
       </c>
       <c r="Y48">
+        <f>SUM(S48:U48)</f>
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <f>SUM(V48:X48)</f>
+        <v>2</v>
+      </c>
+      <c r="AA48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>707</v>
       </c>
@@ -8051,7 +8439,7 @@
         <v>20.166666666666668</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>755</v>
+        <v>454</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -8063,19 +8451,27 @@
         <v>1</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
+        <f>SUM(S49:U49)</f>
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <f>SUM(V49:X49)</f>
+        <v>2</v>
+      </c>
+      <c r="AA49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>571</v>
       </c>
@@ -8129,7 +8525,7 @@
         <v>19.833333333333332</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>533</v>
+        <v>755</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -8141,19 +8537,27 @@
         <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
+        <f>SUM(S50:U50)</f>
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <f>SUM(V50:X50)</f>
+        <v>2</v>
+      </c>
+      <c r="AA50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>388</v>
       </c>
@@ -8207,7 +8611,7 @@
         <v>19.5</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>647</v>
+        <v>533</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -8219,19 +8623,27 @@
         <v>1</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
+        <f>SUM(S51:U51)</f>
+        <v>2</v>
+      </c>
+      <c r="Z51">
+        <f>SUM(V51:X51)</f>
+        <v>2</v>
+      </c>
+      <c r="AA51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>501</v>
       </c>
@@ -8285,7 +8697,7 @@
         <v>17.5</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>549</v>
+        <v>647</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -8306,10 +8718,18 @@
         <v>1</v>
       </c>
       <c r="Y52">
+        <f>SUM(S52:U52)</f>
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <f>SUM(V52:X52)</f>
+        <v>2</v>
+      </c>
+      <c r="AA52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>380</v>
       </c>
@@ -8363,7 +8783,7 @@
         <v>16</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -8384,10 +8804,18 @@
         <v>1</v>
       </c>
       <c r="Y53">
+        <f>SUM(S53:U53)</f>
+        <v>2</v>
+      </c>
+      <c r="Z53">
+        <f>SUM(V53:X53)</f>
+        <v>2</v>
+      </c>
+      <c r="AA53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>531</v>
       </c>
@@ -8441,7 +8869,7 @@
         <v>15</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>352</v>
+        <v>485</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -8453,19 +8881,27 @@
         <v>1</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
+        <f>SUM(S54:U54)</f>
+        <v>2</v>
+      </c>
+      <c r="Z54">
+        <f>SUM(V54:X54)</f>
+        <v>2</v>
+      </c>
+      <c r="AA54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>394</v>
       </c>
@@ -8519,7 +8955,7 @@
         <v>15</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>482</v>
+        <v>352</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -8531,19 +8967,27 @@
         <v>1</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
+        <f>SUM(S55:U55)</f>
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <f>SUM(V55:X55)</f>
+        <v>2</v>
+      </c>
+      <c r="AA55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>346</v>
       </c>
@@ -8597,7 +9041,7 @@
         <v>14.833333333333334</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>370</v>
+        <v>482</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -8606,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -8618,10 +9062,18 @@
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S56:U56)</f>
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <f>SUM(V56:X56)</f>
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>347</v>
       </c>
@@ -8675,7 +9127,7 @@
         <v>14.666666666666666</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -8684,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -8696,10 +9148,18 @@
         <v>1</v>
       </c>
       <c r="Y57">
+        <f>SUM(S57:U57)</f>
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <f>SUM(V57:X57)</f>
+        <v>1</v>
+      </c>
+      <c r="AA57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>480</v>
       </c>
@@ -8753,10 +9213,10 @@
         <v>13.833333333333334</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>373</v>
+        <v>563</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -8765,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -8774,10 +9234,18 @@
         <v>1</v>
       </c>
       <c r="Y58">
+        <f>SUM(S58:U58)</f>
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <f>SUM(V58:X58)</f>
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>640</v>
       </c>
@@ -8831,7 +9299,7 @@
         <v>13.5</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -8840,10 +9308,10 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -8852,10 +9320,18 @@
         <v>1</v>
       </c>
       <c r="Y59">
+        <f>SUM(S59:U59)</f>
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <f>SUM(V59:X59)</f>
+        <v>1</v>
+      </c>
+      <c r="AA59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>530</v>
       </c>
@@ -8909,7 +9385,7 @@
         <v>13</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>628</v>
+        <v>381</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -8930,10 +9406,18 @@
         <v>1</v>
       </c>
       <c r="Y60">
+        <f>SUM(S60:U60)</f>
+        <v>2</v>
+      </c>
+      <c r="Z60">
+        <f>SUM(V60:X60)</f>
+        <v>1</v>
+      </c>
+      <c r="AA60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>452</v>
       </c>
@@ -8987,7 +9471,7 @@
         <v>12</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>563</v>
+        <v>697</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -8999,19 +9483,27 @@
         <v>1</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
+        <f>SUM(S61:U61)</f>
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <f>SUM(V61:X61)</f>
+        <v>1</v>
+      </c>
+      <c r="AA61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>489</v>
       </c>
@@ -9065,16 +9557,16 @@
         <v>11.833333333333334</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -9086,10 +9578,18 @@
         <v>1</v>
       </c>
       <c r="Y62">
+        <f>SUM(S62:U62)</f>
+        <v>2</v>
+      </c>
+      <c r="Z62">
+        <f>SUM(V62:X62)</f>
+        <v>1</v>
+      </c>
+      <c r="AA62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>340</v>
       </c>
@@ -9143,19 +9643,19 @@
         <v>11.666666666666666</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63">
         <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
         <v>0</v>
@@ -9164,10 +9664,18 @@
         <v>0</v>
       </c>
       <c r="Y63">
+        <f>SUM(S63:U63)</f>
+        <v>2</v>
+      </c>
+      <c r="Z63">
+        <f>SUM(V63:X63)</f>
+        <v>1</v>
+      </c>
+      <c r="AA63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>702</v>
       </c>
@@ -9221,13 +9729,13 @@
         <v>11.333333333333334</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -9236,16 +9744,24 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
+        <f>SUM(S64:U64)</f>
+        <v>2</v>
+      </c>
+      <c r="Z64">
+        <f>SUM(V64:X64)</f>
+        <v>1</v>
+      </c>
+      <c r="AA64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>479</v>
       </c>
@@ -9299,7 +9815,7 @@
         <v>10.833333333333334</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -9320,10 +9836,18 @@
         <v>1</v>
       </c>
       <c r="Y65">
+        <f>SUM(S65:U65)</f>
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <f>SUM(V65:X65)</f>
+        <v>1</v>
+      </c>
+      <c r="AA65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>538</v>
       </c>
@@ -9377,10 +9901,10 @@
         <v>10.833333333333334</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>506</v>
+        <v>340</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -9389,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <v>0</v>
@@ -9398,10 +9922,18 @@
         <v>1</v>
       </c>
       <c r="Y66">
+        <f>SUM(S66:U66)</f>
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <f>SUM(V66:X66)</f>
+        <v>1</v>
+      </c>
+      <c r="AA66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>422</v>
       </c>
@@ -9455,7 +9987,7 @@
         <v>10.333333333333334</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -9464,10 +9996,10 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -9476,10 +10008,18 @@
         <v>1</v>
       </c>
       <c r="Y67">
+        <f>SUM(S67:U67)</f>
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <f>SUM(V67:X67)</f>
+        <v>1</v>
+      </c>
+      <c r="AA67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>523</v>
       </c>
@@ -9533,7 +10073,7 @@
         <v>10.166666666666666</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>677</v>
+        <v>422</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -9542,10 +10082,10 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -9554,10 +10094,18 @@
         <v>1</v>
       </c>
       <c r="Y68">
+        <f>SUM(S68:U68)</f>
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <f>SUM(V68:X68)</f>
+        <v>1</v>
+      </c>
+      <c r="AA68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>594</v>
       </c>
@@ -9611,7 +10159,7 @@
         <v>10</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -9620,22 +10168,30 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
+        <f>SUM(S69:U69)</f>
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <f>SUM(V69:X69)</f>
+        <v>1</v>
+      </c>
+      <c r="AA69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>562</v>
       </c>
@@ -9689,31 +10245,39 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>514</v>
+        <v>729</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
+        <f>SUM(S70:U70)</f>
+        <v>2</v>
+      </c>
+      <c r="Z70">
+        <f>SUM(V70:X70)</f>
+        <v>1</v>
+      </c>
+      <c r="AA70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>448</v>
       </c>
@@ -9767,7 +10331,7 @@
         <v>8.8333333333333339</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>699</v>
+        <v>334</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -9776,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -9788,10 +10352,18 @@
         <v>1</v>
       </c>
       <c r="Y71">
+        <f>SUM(S71:U71)</f>
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <f>SUM(V71:X71)</f>
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>332</v>
       </c>
@@ -9845,7 +10417,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>697</v>
+        <v>521</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -9857,19 +10429,27 @@
         <v>1</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
+        <f>SUM(S72:U72)</f>
+        <v>2</v>
+      </c>
+      <c r="Z72">
+        <f>SUM(V72:X72)</f>
+        <v>1</v>
+      </c>
+      <c r="AA72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>734</v>
       </c>
@@ -9923,31 +10503,39 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>504</v>
+        <v>657</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73">
+        <f>SUM(S73:U73)</f>
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <f>SUM(V73:X73)</f>
+        <v>1</v>
+      </c>
+      <c r="AA73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>729</v>
       </c>
@@ -10001,7 +10589,7 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>407</v>
+        <v>581</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -10010,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -10022,10 +10610,18 @@
         <v>1</v>
       </c>
       <c r="Y74">
+        <f>SUM(S74:U74)</f>
+        <v>2</v>
+      </c>
+      <c r="Z74">
+        <f>SUM(V74:X74)</f>
+        <v>1</v>
+      </c>
+      <c r="AA74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>684</v>
       </c>
@@ -10079,7 +10675,7 @@
         <v>8</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -10088,22 +10684,30 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
+        <f>SUM(S75:U75)</f>
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <f>SUM(V75:X75)</f>
+        <v>1</v>
+      </c>
+      <c r="AA75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>333</v>
       </c>
@@ -10157,7 +10761,7 @@
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -10178,10 +10782,18 @@
         <v>0</v>
       </c>
       <c r="Y76">
+        <f>SUM(S76:U76)</f>
+        <v>2</v>
+      </c>
+      <c r="Z76">
+        <f>SUM(V76:X76)</f>
+        <v>1</v>
+      </c>
+      <c r="AA76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>334</v>
       </c>
@@ -10235,13 +10847,13 @@
         <v>7.666666666666667</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>739</v>
+        <v>553</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -10256,10 +10868,18 @@
         <v>1</v>
       </c>
       <c r="Y77">
+        <f>SUM(S77:U77)</f>
+        <v>2</v>
+      </c>
+      <c r="Z77">
+        <f>SUM(V77:X77)</f>
+        <v>1</v>
+      </c>
+      <c r="AA77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>513</v>
       </c>
@@ -10313,10 +10933,10 @@
         <v>7.5</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -10331,13 +10951,21 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78">
+        <f>SUM(S78:U78)</f>
+        <v>2</v>
+      </c>
+      <c r="Z78">
+        <f>SUM(V78:X78)</f>
+        <v>1</v>
+      </c>
+      <c r="AA78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>521</v>
       </c>
@@ -10391,7 +11019,7 @@
         <v>7.166666666666667</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>707</v>
+        <v>414</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -10400,10 +11028,10 @@
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -10412,10 +11040,18 @@
         <v>1</v>
       </c>
       <c r="Y79">
+        <f>SUM(S79:U79)</f>
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <f>SUM(V79:X79)</f>
+        <v>1</v>
+      </c>
+      <c r="AA79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>400</v>
       </c>
@@ -10469,7 +11105,7 @@
         <v>7</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -10478,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>1</v>
@@ -10487,13 +11123,21 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80">
+        <f>SUM(S80:U80)</f>
+        <v>2</v>
+      </c>
+      <c r="Z80">
+        <f>SUM(V80:X80)</f>
+        <v>1</v>
+      </c>
+      <c r="AA80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>560</v>
       </c>
@@ -10547,7 +11191,7 @@
         <v>7</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -10556,22 +11200,30 @@
         <v>0</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81">
+        <f>SUM(S81:U81)</f>
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <f>SUM(V81:X81)</f>
+        <v>1</v>
+      </c>
+      <c r="AA81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>657</v>
       </c>
@@ -10625,7 +11277,7 @@
         <v>6.833333333333333</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>347</v>
+        <v>772</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -10634,22 +11286,30 @@
         <v>0</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82">
         <v>0</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X82">
         <v>1</v>
       </c>
       <c r="Y82">
+        <f>SUM(S82:U82)</f>
+        <v>2</v>
+      </c>
+      <c r="Z82">
+        <f>SUM(V82:X82)</f>
+        <v>1</v>
+      </c>
+      <c r="AA82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>585</v>
       </c>
@@ -10703,7 +11363,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -10712,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -10724,10 +11384,18 @@
         <v>1</v>
       </c>
       <c r="Y83">
+        <f>SUM(S83:U83)</f>
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <f>SUM(V83:X83)</f>
+        <v>1</v>
+      </c>
+      <c r="AA83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>581</v>
       </c>
@@ -10781,7 +11449,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>640</v>
+        <v>429</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -10790,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
         <v>0</v>
@@ -10802,10 +11470,18 @@
         <v>1</v>
       </c>
       <c r="Y84">
+        <f>SUM(S84:U84)</f>
+        <v>2</v>
+      </c>
+      <c r="Z84">
+        <f>SUM(V84:X84)</f>
+        <v>1</v>
+      </c>
+      <c r="AA84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>459</v>
       </c>
@@ -10859,7 +11535,7 @@
         <v>6.5</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -10868,22 +11544,30 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y85">
+        <f>SUM(S85:U85)</f>
+        <v>2</v>
+      </c>
+      <c r="Z85">
+        <f>SUM(V85:X85)</f>
+        <v>1</v>
+      </c>
+      <c r="AA85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>637</v>
       </c>
@@ -10937,13 +11621,13 @@
         <v>6.5</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>452</v>
+        <v>632</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>1</v>
@@ -10958,10 +11642,18 @@
         <v>1</v>
       </c>
       <c r="Y86">
+        <f>SUM(S86:U86)</f>
+        <v>2</v>
+      </c>
+      <c r="Z86">
+        <f>SUM(V86:X86)</f>
+        <v>1</v>
+      </c>
+      <c r="AA86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>609</v>
       </c>
@@ -11015,7 +11707,7 @@
         <v>6.5</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>489</v>
+        <v>752</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -11024,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
         <v>0</v>
@@ -11036,10 +11728,18 @@
         <v>1</v>
       </c>
       <c r="Y87">
+        <f>SUM(S87:U87)</f>
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <f>SUM(V87:X87)</f>
+        <v>1</v>
+      </c>
+      <c r="AA87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>537</v>
       </c>
@@ -11093,7 +11793,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -11105,19 +11805,27 @@
         <v>1</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y88">
+        <f>SUM(S88:U88)</f>
+        <v>2</v>
+      </c>
+      <c r="Z88">
+        <f>SUM(V88:X88)</f>
+        <v>1</v>
+      </c>
+      <c r="AA88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>705</v>
       </c>
@@ -11171,7 +11879,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>702</v>
+        <v>469</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -11180,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
         <v>0</v>
@@ -11192,10 +11900,18 @@
         <v>1</v>
       </c>
       <c r="Y89">
+        <f>SUM(S89:U89)</f>
+        <v>2</v>
+      </c>
+      <c r="Z89">
+        <f>SUM(V89:X89)</f>
+        <v>1</v>
+      </c>
+      <c r="AA89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>553</v>
       </c>
@@ -11249,7 +11965,7 @@
         <v>6.166666666666667</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -11270,10 +11986,18 @@
         <v>1</v>
       </c>
       <c r="Y90">
+        <f>SUM(S90:U90)</f>
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <f>SUM(V90:X90)</f>
+        <v>1</v>
+      </c>
+      <c r="AA90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>663</v>
       </c>
@@ -11327,16 +12051,16 @@
         <v>6</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="S91">
         <v>1</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -11348,10 +12072,18 @@
         <v>1</v>
       </c>
       <c r="Y91">
+        <f>SUM(S91:U91)</f>
+        <v>2</v>
+      </c>
+      <c r="Z91">
+        <f>SUM(V91:X91)</f>
+        <v>1</v>
+      </c>
+      <c r="AA91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>518</v>
       </c>
@@ -11405,7 +12137,7 @@
         <v>6</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -11414,22 +12146,30 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92">
         <v>0</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X92">
         <v>1</v>
       </c>
       <c r="Y92">
+        <f>SUM(S92:U92)</f>
+        <v>2</v>
+      </c>
+      <c r="Z92">
+        <f>SUM(V92:X92)</f>
+        <v>1</v>
+      </c>
+      <c r="AA92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>341</v>
       </c>
@@ -11483,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>594</v>
+        <v>498</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -11498,16 +12238,24 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
+        <f>SUM(S93:U93)</f>
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <f>SUM(V93:X93)</f>
+        <v>1</v>
+      </c>
+      <c r="AA93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>654</v>
       </c>
@@ -11561,7 +12309,7 @@
         <v>5.833333333333333</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -11570,10 +12318,10 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94">
         <v>0</v>
@@ -11582,10 +12330,18 @@
         <v>1</v>
       </c>
       <c r="Y94">
+        <f>SUM(S94:U94)</f>
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <f>SUM(V94:X94)</f>
+        <v>1</v>
+      </c>
+      <c r="AA94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>655</v>
       </c>
@@ -11639,16 +12395,16 @@
         <v>5.833333333333333</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>729</v>
+        <v>368</v>
       </c>
       <c r="S95">
         <v>1</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -11660,10 +12416,18 @@
         <v>1</v>
       </c>
       <c r="Y95">
+        <f>SUM(S95:U95)</f>
+        <v>2</v>
+      </c>
+      <c r="Z95">
+        <f>SUM(V95:X95)</f>
+        <v>1</v>
+      </c>
+      <c r="AA95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>646</v>
       </c>
@@ -11717,31 +12481,39 @@
         <v>5.666666666666667</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>333</v>
+        <v>756</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
+        <f>SUM(S96:U96)</f>
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <f>SUM(V96:X96)</f>
+        <v>1</v>
+      </c>
+      <c r="AA96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>700</v>
       </c>
@@ -11795,31 +12567,39 @@
         <v>5.666666666666667</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>334</v>
+        <v>672</v>
       </c>
       <c r="S97">
         <v>1</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
       <c r="X97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97">
+        <f>SUM(S97:U97)</f>
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <f>SUM(V97:X97)</f>
+        <v>1</v>
+      </c>
+      <c r="AA97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>631</v>
       </c>
@@ -11873,7 +12653,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>521</v>
+        <v>397</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -11894,10 +12674,18 @@
         <v>1</v>
       </c>
       <c r="Y98">
+        <f>SUM(S98:U98)</f>
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <f>SUM(V98:X98)</f>
+        <v>1</v>
+      </c>
+      <c r="AA98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>493</v>
       </c>
@@ -11951,7 +12739,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>560</v>
+        <v>398</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -11960,10 +12748,10 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W99">
         <v>0</v>
@@ -11972,10 +12760,18 @@
         <v>1</v>
       </c>
       <c r="Y99">
+        <f>SUM(S99:U99)</f>
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <f>SUM(V99:X99)</f>
+        <v>1</v>
+      </c>
+      <c r="AA99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>414</v>
       </c>
@@ -12029,7 +12825,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>657</v>
+        <v>399</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -12041,19 +12837,27 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y100">
+        <f>SUM(S100:U100)</f>
+        <v>2</v>
+      </c>
+      <c r="Z100">
+        <f>SUM(V100:X100)</f>
+        <v>1</v>
+      </c>
+      <c r="AA100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>545</v>
       </c>
@@ -12107,7 +12911,7 @@
         <v>5.5</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>581</v>
+        <v>378</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -12128,10 +12932,18 @@
         <v>1</v>
       </c>
       <c r="Y101">
+        <f>SUM(S101:U101)</f>
+        <v>2</v>
+      </c>
+      <c r="Z101">
+        <f>SUM(V101:X101)</f>
+        <v>1</v>
+      </c>
+      <c r="AA101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>463</v>
       </c>
@@ -12185,7 +12997,7 @@
         <v>5.5</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>637</v>
+        <v>377</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -12194,10 +13006,10 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W102">
         <v>0</v>
@@ -12206,10 +13018,18 @@
         <v>1</v>
       </c>
       <c r="Y102">
+        <f>SUM(S102:U102)</f>
+        <v>2</v>
+      </c>
+      <c r="Z102">
+        <f>SUM(V102:X102)</f>
+        <v>1</v>
+      </c>
+      <c r="AA102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>462</v>
       </c>
@@ -12263,7 +13083,7 @@
         <v>5.333333333333333</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -12278,16 +13098,24 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y103">
+        <f>SUM(S103:U103)</f>
+        <v>2</v>
+      </c>
+      <c r="Z103">
+        <f>SUM(V103:X103)</f>
+        <v>1</v>
+      </c>
+      <c r="AA103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>424</v>
       </c>
@@ -12341,31 +13169,39 @@
         <v>5.166666666666667</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>537</v>
+        <v>430</v>
       </c>
       <c r="S104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
       <c r="V104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104">
         <v>0</v>
       </c>
       <c r="X104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y104">
+        <f>SUM(S104:U104)</f>
+        <v>2</v>
+      </c>
+      <c r="Z104">
+        <f>SUM(V104:X104)</f>
+        <v>1</v>
+      </c>
+      <c r="AA104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>425</v>
       </c>
@@ -12419,10 +13255,10 @@
         <v>5.166666666666667</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>705</v>
+        <v>627</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -12431,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="V105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -12440,10 +13276,18 @@
         <v>1</v>
       </c>
       <c r="Y105">
+        <f>SUM(S105:U105)</f>
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <f>SUM(V105:X105)</f>
+        <v>1</v>
+      </c>
+      <c r="AA105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>512</v>
       </c>
@@ -12497,7 +13341,7 @@
         <v>5.166666666666667</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -12518,10 +13362,18 @@
         <v>1</v>
       </c>
       <c r="Y106">
+        <f>SUM(S106:U106)</f>
+        <v>2</v>
+      </c>
+      <c r="Z106">
+        <f>SUM(V106:X106)</f>
+        <v>1</v>
+      </c>
+      <c r="AA106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>385</v>
       </c>
@@ -12575,7 +13427,7 @@
         <v>5.166666666666667</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>341</v>
+        <v>577</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -12584,22 +13436,30 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V107">
         <v>0</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X107">
         <v>1</v>
       </c>
       <c r="Y107">
+        <f>SUM(S107:U107)</f>
+        <v>2</v>
+      </c>
+      <c r="Z107">
+        <f>SUM(V107:X107)</f>
+        <v>1</v>
+      </c>
+      <c r="AA107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>541</v>
       </c>
@@ -12653,31 +13513,39 @@
         <v>5</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108">
         <v>1</v>
       </c>
       <c r="Y108">
+        <f>SUM(S108:U108)</f>
+        <v>2</v>
+      </c>
+      <c r="Z108">
+        <f>SUM(V108:X108)</f>
+        <v>1</v>
+      </c>
+      <c r="AA108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>668</v>
       </c>
@@ -12731,10 +13599,10 @@
         <v>4.666666666666667</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>646</v>
+        <v>517</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -12749,13 +13617,21 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y109">
+        <f>SUM(S109:U109)</f>
+        <v>2</v>
+      </c>
+      <c r="Z109">
+        <f>SUM(V109:X109)</f>
+        <v>1</v>
+      </c>
+      <c r="AA109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>483</v>
       </c>
@@ -12809,7 +13685,7 @@
         <v>4.5</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>631</v>
+        <v>736</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -12818,22 +13694,30 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>0</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S110:U110)</f>
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <f>SUM(V110:X110)</f>
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>726</v>
       </c>
@@ -12887,7 +13771,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -12899,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="V111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W111">
         <v>0</v>
@@ -12908,10 +13792,18 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S111:U111)</f>
+        <v>2</v>
+      </c>
+      <c r="Z111">
+        <f>SUM(V111:X111)</f>
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>727</v>
       </c>
@@ -12965,7 +13857,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -12983,13 +13875,21 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S112:U112)</f>
+        <v>2</v>
+      </c>
+      <c r="Z112">
+        <f>SUM(V112:X112)</f>
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>403</v>
       </c>
@@ -13043,7 +13943,7 @@
         <v>4</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -13052,22 +13952,30 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W113">
         <v>0</v>
       </c>
       <c r="X113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S113:U113)</f>
+        <v>2</v>
+      </c>
+      <c r="Z113">
+        <f>SUM(V113:X113)</f>
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>358</v>
       </c>
@@ -13121,13 +14029,13 @@
         <v>4</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>425</v>
+        <v>663</v>
       </c>
       <c r="S114">
         <v>1</v>
       </c>
       <c r="T114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114">
         <v>1</v>
@@ -13142,10 +14050,18 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S114:U114)</f>
+        <v>2</v>
+      </c>
+      <c r="Z114">
+        <f>SUM(V114:X114)</f>
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>579</v>
       </c>
@@ -13199,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -13211,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="V115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -13220,10 +14136,18 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S115:U115)</f>
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <f>SUM(V115:X115)</f>
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>616</v>
       </c>
@@ -13277,31 +14201,39 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
         <v>0</v>
       </c>
       <c r="X116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S116:U116)</f>
+        <v>2</v>
+      </c>
+      <c r="Z116">
+        <f>SUM(V116:X116)</f>
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>451</v>
       </c>
@@ -13355,7 +14287,7 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>579</v>
+        <v>403</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -13370,16 +14302,24 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X117">
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S117:U117)</f>
+        <v>2</v>
+      </c>
+      <c r="Z117">
+        <f>SUM(V117:X117)</f>
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>772</v>
       </c>
@@ -13433,7 +14373,7 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>772</v>
+        <v>451</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -13451,13 +14391,21 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S118:U118)</f>
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <f>SUM(V118:X118)</f>
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>456</v>
       </c>
@@ -13511,7 +14459,7 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>456</v>
+        <v>751</v>
       </c>
       <c r="S119">
         <v>1</v>
@@ -13520,22 +14468,30 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
       </c>
       <c r="X119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S119:U119)</f>
+        <v>2</v>
+      </c>
+      <c r="Z119">
+        <f>SUM(V119:X119)</f>
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>428</v>
       </c>
@@ -13589,7 +14545,7 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="S120">
         <v>1</v>
@@ -13607,13 +14563,21 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S120:U120)</f>
+        <v>2</v>
+      </c>
+      <c r="Z120">
+        <f>SUM(V120:X120)</f>
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>429</v>
       </c>
@@ -13667,7 +14631,7 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -13685,13 +14649,21 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S121:U121)</f>
+        <v>2</v>
+      </c>
+      <c r="Z121">
+        <f>SUM(V121:X121)</f>
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>606</v>
       </c>
@@ -13745,13 +14717,13 @@
         <v>3.5</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>606</v>
+        <v>724</v>
       </c>
       <c r="S122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U122">
         <v>1</v>
@@ -13760,16 +14732,24 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122">
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S122:U122)</f>
+        <v>2</v>
+      </c>
+      <c r="Z122">
+        <f>SUM(V122:X122)</f>
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>561</v>
       </c>
@@ -13823,7 +14803,7 @@
         <v>3.5</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>561</v>
+        <v>475</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -13832,22 +14812,30 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W123">
         <v>0</v>
       </c>
       <c r="X123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S123:U123)</f>
+        <v>2</v>
+      </c>
+      <c r="Z123">
+        <f>SUM(V123:X123)</f>
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>762</v>
       </c>
@@ -13901,7 +14889,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>507</v>
+        <v>678</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -13910,22 +14898,30 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V124">
         <v>0</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S124:U124)</f>
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <f>SUM(V124:X124)</f>
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>507</v>
       </c>
@@ -13979,31 +14975,39 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>632</v>
+        <v>391</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125">
         <v>1</v>
       </c>
       <c r="Y125">
+        <f>SUM(S125:U125)</f>
+        <v>1</v>
+      </c>
+      <c r="Z125">
+        <f>SUM(V125:X125)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>359</v>
       </c>
@@ -14057,7 +15061,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>752</v>
+        <v>370</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -14066,10 +15070,10 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -14078,10 +15082,18 @@
         <v>1</v>
       </c>
       <c r="Y126">
+        <f>SUM(S126:U126)</f>
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <f>SUM(V126:X126)</f>
+        <v>2</v>
+      </c>
+      <c r="AA126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>632</v>
       </c>
@@ -14135,7 +15147,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>348</v>
+        <v>578</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -14144,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V127">
         <v>1</v>
@@ -14153,13 +15165,21 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127">
+        <f>SUM(S127:U127)</f>
+        <v>1</v>
+      </c>
+      <c r="Z127">
+        <f>SUM(V127:X127)</f>
+        <v>2</v>
+      </c>
+      <c r="AA127">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>752</v>
       </c>
@@ -14213,10 +15233,10 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="S128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -14225,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -14234,10 +15254,18 @@
         <v>1</v>
       </c>
       <c r="Y128">
+        <f>SUM(S128:U128)</f>
+        <v>1</v>
+      </c>
+      <c r="Z128">
+        <f>SUM(V128:X128)</f>
+        <v>2</v>
+      </c>
+      <c r="AA128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>379</v>
       </c>
@@ -14291,7 +15319,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
       <c r="S129">
         <v>1</v>
@@ -14300,10 +15328,10 @@
         <v>0</v>
       </c>
       <c r="U129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -14312,10 +15340,18 @@
         <v>1</v>
       </c>
       <c r="Y129">
+        <f>SUM(S129:U129)</f>
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <f>SUM(V129:X129)</f>
+        <v>2</v>
+      </c>
+      <c r="AA129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>348</v>
       </c>
@@ -14369,31 +15405,39 @@
         <v>3</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>361</v>
+        <v>731</v>
       </c>
       <c r="S130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V130">
         <v>0</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130">
         <v>1</v>
       </c>
       <c r="Y130">
+        <f>SUM(S130:U130)</f>
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <f>SUM(V130:X130)</f>
+        <v>2</v>
+      </c>
+      <c r="AA130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>580</v>
       </c>
@@ -14447,31 +15491,39 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="S131">
         <v>0</v>
       </c>
       <c r="T131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X131">
         <v>1</v>
       </c>
       <c r="Y131">
+        <f>SUM(S131:U131)</f>
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <f>SUM(V131:X131)</f>
+        <v>2</v>
+      </c>
+      <c r="AA131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>692</v>
       </c>
@@ -14525,7 +15577,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R132" s="3" t="s">
-        <v>748</v>
+        <v>423</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -14546,10 +15598,18 @@
         <v>1</v>
       </c>
       <c r="Y132">
+        <f>SUM(S132:U132)</f>
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <f>SUM(V132:X132)</f>
+        <v>2</v>
+      </c>
+      <c r="AA132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>751</v>
       </c>
@@ -14603,7 +15663,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>593</v>
+        <v>677</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -14612,10 +15672,10 @@
         <v>0</v>
       </c>
       <c r="U133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -14624,10 +15684,18 @@
         <v>1</v>
       </c>
       <c r="Y133">
+        <f>SUM(S133:U133)</f>
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <f>SUM(V133:X133)</f>
+        <v>2</v>
+      </c>
+      <c r="AA133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>335</v>
       </c>
@@ -14681,7 +15749,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R134" s="3" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -14690,10 +15758,10 @@
         <v>0</v>
       </c>
       <c r="U134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -14702,10 +15770,18 @@
         <v>1</v>
       </c>
       <c r="Y134">
+        <f>SUM(S134:U134)</f>
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <f>SUM(V134:X134)</f>
+        <v>2</v>
+      </c>
+      <c r="AA134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>527</v>
       </c>
@@ -14759,7 +15835,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R135" s="3" t="s">
-        <v>457</v>
+        <v>699</v>
       </c>
       <c r="S135">
         <v>1</v>
@@ -14768,10 +15844,10 @@
         <v>0</v>
       </c>
       <c r="U135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -14780,10 +15856,18 @@
         <v>1</v>
       </c>
       <c r="Y135">
+        <f>SUM(S135:U135)</f>
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <f>SUM(V135:X135)</f>
+        <v>2</v>
+      </c>
+      <c r="AA135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>474</v>
       </c>
@@ -14837,7 +15921,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>750</v>
+        <v>407</v>
       </c>
       <c r="S136">
         <v>1</v>
@@ -14849,19 +15933,27 @@
         <v>0</v>
       </c>
       <c r="V136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X136">
         <v>1</v>
       </c>
       <c r="Y136">
+        <f>SUM(S136:U136)</f>
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <f>SUM(V136:X136)</f>
+        <v>2</v>
+      </c>
+      <c r="AA136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>542</v>
       </c>
@@ -14915,7 +16007,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R137" s="3" t="s">
-        <v>426</v>
+        <v>626</v>
       </c>
       <c r="S137">
         <v>1</v>
@@ -14930,16 +16022,24 @@
         <v>1</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y137">
+        <f>SUM(S137:U137)</f>
+        <v>1</v>
+      </c>
+      <c r="Z137">
+        <f>SUM(V137:X137)</f>
+        <v>2</v>
+      </c>
+      <c r="AA137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>469</v>
       </c>
@@ -14993,19 +16093,19 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R138" s="3" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="S138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -15014,10 +16114,18 @@
         <v>1</v>
       </c>
       <c r="Y138">
+        <f>SUM(S138:U138)</f>
+        <v>1</v>
+      </c>
+      <c r="Z138">
+        <f>SUM(V138:X138)</f>
+        <v>2</v>
+      </c>
+      <c r="AA138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>749</v>
       </c>
@@ -15071,16 +16179,16 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>756</v>
+        <v>707</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V139">
         <v>1</v>
@@ -15089,13 +16197,21 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y139">
+        <f>SUM(S139:U139)</f>
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <f>SUM(V139:X139)</f>
+        <v>2</v>
+      </c>
+      <c r="AA139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>539</v>
       </c>
@@ -15149,16 +16265,16 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="R140" s="3" t="s">
-        <v>648</v>
+        <v>380</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140">
         <v>0</v>
       </c>
       <c r="U140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V140">
         <v>1</v>
@@ -15170,10 +16286,18 @@
         <v>1</v>
       </c>
       <c r="Y140">
+        <f>SUM(S140:U140)</f>
+        <v>1</v>
+      </c>
+      <c r="Z140">
+        <f>SUM(V140:X140)</f>
+        <v>2</v>
+      </c>
+      <c r="AA140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>540</v>
       </c>
@@ -15227,16 +16351,16 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="R141" s="3" t="s">
-        <v>759</v>
+        <v>531</v>
       </c>
       <c r="S141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141">
         <v>0</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
         <v>1</v>
@@ -15248,10 +16372,18 @@
         <v>1</v>
       </c>
       <c r="Y141">
+        <f>SUM(S141:U141)</f>
+        <v>1</v>
+      </c>
+      <c r="Z141">
+        <f>SUM(V141:X141)</f>
+        <v>2</v>
+      </c>
+      <c r="AA141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>337</v>
       </c>
@@ -15305,31 +16437,39 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>672</v>
+        <v>347</v>
       </c>
       <c r="S142">
         <v>1</v>
       </c>
       <c r="T142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142">
         <v>0</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y142">
+        <f>SUM(S142:U142)</f>
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <f>SUM(V142:X142)</f>
+        <v>2</v>
+      </c>
+      <c r="AA142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>360</v>
       </c>
@@ -15383,7 +16523,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="R143" s="3" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -15392,10 +16532,10 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -15404,10 +16544,18 @@
         <v>1</v>
       </c>
       <c r="Y143">
+        <f>SUM(S143:U143)</f>
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <f>SUM(V143:X143)</f>
+        <v>2</v>
+      </c>
+      <c r="AA143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>361</v>
       </c>
@@ -15461,7 +16609,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="R144" s="3" t="s">
-        <v>398</v>
+        <v>640</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -15470,10 +16618,10 @@
         <v>0</v>
       </c>
       <c r="U144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -15482,10 +16630,18 @@
         <v>1</v>
       </c>
       <c r="Y144">
+        <f>SUM(S144:U144)</f>
+        <v>1</v>
+      </c>
+      <c r="Z144">
+        <f>SUM(V144:X144)</f>
+        <v>2</v>
+      </c>
+      <c r="AA144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>481</v>
       </c>
@@ -15539,7 +16695,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="R145" s="3" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -15548,10 +16704,10 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -15560,10 +16716,18 @@
         <v>1</v>
       </c>
       <c r="Y145">
+        <f>SUM(S145:U145)</f>
+        <v>1</v>
+      </c>
+      <c r="Z145">
+        <f>SUM(V145:X145)</f>
+        <v>2</v>
+      </c>
+      <c r="AA145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>433</v>
       </c>
@@ -15617,7 +16781,7 @@
         <v>2.5</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -15626,10 +16790,10 @@
         <v>0</v>
       </c>
       <c r="U146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -15638,10 +16802,18 @@
         <v>1</v>
       </c>
       <c r="Y146">
+        <f>SUM(S146:U146)</f>
+        <v>1</v>
+      </c>
+      <c r="Z146">
+        <f>SUM(V146:X146)</f>
+        <v>2</v>
+      </c>
+      <c r="AA146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>763</v>
       </c>
@@ -15695,7 +16867,7 @@
         <v>2.5</v>
       </c>
       <c r="R147" s="3" t="s">
-        <v>377</v>
+        <v>702</v>
       </c>
       <c r="S147">
         <v>1</v>
@@ -15704,10 +16876,10 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -15716,10 +16888,18 @@
         <v>1</v>
       </c>
       <c r="Y147">
+        <f>SUM(S147:U147)</f>
+        <v>1</v>
+      </c>
+      <c r="Z147">
+        <f>SUM(V147:X147)</f>
+        <v>2</v>
+      </c>
+      <c r="AA147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>748</v>
       </c>
@@ -15773,7 +16953,7 @@
         <v>2.5</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>607</v>
+        <v>523</v>
       </c>
       <c r="S148">
         <v>1</v>
@@ -15782,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="U148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -15791,13 +16971,21 @@
         <v>1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y148">
+        <f>SUM(S148:U148)</f>
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <f>SUM(V148:X148)</f>
+        <v>2</v>
+      </c>
+      <c r="AA148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>670</v>
       </c>
@@ -15851,19 +17039,19 @@
         <v>2.5</v>
       </c>
       <c r="R149" s="3" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="S149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -15872,10 +17060,18 @@
         <v>1</v>
       </c>
       <c r="Y149">
+        <f>SUM(S149:U149)</f>
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <f>SUM(V149:X149)</f>
+        <v>2</v>
+      </c>
+      <c r="AA149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>593</v>
       </c>
@@ -15929,7 +17125,7 @@
         <v>2.5</v>
       </c>
       <c r="R150" s="3" t="s">
-        <v>656</v>
+        <v>333</v>
       </c>
       <c r="S150">
         <v>1</v>
@@ -15941,19 +17137,27 @@
         <v>0</v>
       </c>
       <c r="V150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <v>1</v>
       </c>
       <c r="Y150">
+        <f>SUM(S150:U150)</f>
+        <v>1</v>
+      </c>
+      <c r="Z150">
+        <f>SUM(V150:X150)</f>
+        <v>2</v>
+      </c>
+      <c r="AA150">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>498</v>
       </c>
@@ -16007,7 +17211,7 @@
         <v>2.5</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -16028,10 +17232,18 @@
         <v>1</v>
       </c>
       <c r="Y151">
+        <f>SUM(S151:U151)</f>
+        <v>1</v>
+      </c>
+      <c r="Z151">
+        <f>SUM(V151:X151)</f>
+        <v>2</v>
+      </c>
+      <c r="AA151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>445</v>
       </c>
@@ -16085,7 +17297,7 @@
         <v>2.5</v>
       </c>
       <c r="R152" s="3" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -16094,10 +17306,10 @@
         <v>0</v>
       </c>
       <c r="U152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -16106,10 +17318,18 @@
         <v>1</v>
       </c>
       <c r="Y152">
+        <f>SUM(S152:U152)</f>
+        <v>1</v>
+      </c>
+      <c r="Z152">
+        <f>SUM(V152:X152)</f>
+        <v>2</v>
+      </c>
+      <c r="AA152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>457</v>
       </c>
@@ -16163,10 +17383,10 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="R153" s="3" t="s">
-        <v>455</v>
+        <v>705</v>
       </c>
       <c r="S153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T153">
         <v>0</v>
@@ -16175,7 +17395,7 @@
         <v>1</v>
       </c>
       <c r="V153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -16184,10 +17404,18 @@
         <v>1</v>
       </c>
       <c r="Y153">
+        <f>SUM(S153:U153)</f>
+        <v>1</v>
+      </c>
+      <c r="Z153">
+        <f>SUM(V153:X153)</f>
+        <v>2</v>
+      </c>
+      <c r="AA153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>750</v>
       </c>
@@ -16241,10 +17469,10 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>649</v>
+        <v>341</v>
       </c>
       <c r="S154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154">
         <v>0</v>
@@ -16253,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154">
         <v>1</v>
@@ -16262,10 +17490,18 @@
         <v>1</v>
       </c>
       <c r="Y154">
+        <f>SUM(S154:U154)</f>
+        <v>1</v>
+      </c>
+      <c r="Z154">
+        <f>SUM(V154:X154)</f>
+        <v>2</v>
+      </c>
+      <c r="AA154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>447</v>
       </c>
@@ -16319,10 +17555,10 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="S155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T155">
         <v>0</v>
@@ -16331,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="V155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -16340,10 +17576,18 @@
         <v>1</v>
       </c>
       <c r="Y155">
+        <f>SUM(S155:U155)</f>
+        <v>1</v>
+      </c>
+      <c r="Z155">
+        <f>SUM(V155:X155)</f>
+        <v>2</v>
+      </c>
+      <c r="AA155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>499</v>
       </c>
@@ -16397,7 +17641,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R156" s="3" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -16406,22 +17650,30 @@
         <v>0</v>
       </c>
       <c r="U156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V156">
         <v>0</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>1</v>
       </c>
       <c r="Y156">
+        <f>SUM(S156:U156)</f>
+        <v>1</v>
+      </c>
+      <c r="Z156">
+        <f>SUM(V156:X156)</f>
+        <v>2</v>
+      </c>
+      <c r="AA156">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>426</v>
       </c>
@@ -16475,7 +17727,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -16484,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="U157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V157">
         <v>1</v>
@@ -16493,13 +17745,21 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y157">
+        <f>SUM(S157:U157)</f>
+        <v>1</v>
+      </c>
+      <c r="Z157">
+        <f>SUM(V157:X157)</f>
+        <v>2</v>
+      </c>
+      <c r="AA157">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>724</v>
       </c>
@@ -16553,10 +17813,10 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>546</v>
+        <v>483</v>
       </c>
       <c r="S158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T158">
         <v>0</v>
@@ -16574,10 +17834,18 @@
         <v>1</v>
       </c>
       <c r="Y158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S158:U158)</f>
+        <v>1</v>
+      </c>
+      <c r="Z158">
+        <f>SUM(V158:X158)</f>
+        <v>2</v>
+      </c>
+      <c r="AA158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>421</v>
       </c>
@@ -16631,7 +17899,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R159" s="3" t="s">
-        <v>736</v>
+        <v>456</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -16640,22 +17908,30 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W159">
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S159:U159)</f>
+        <v>1</v>
+      </c>
+      <c r="Z159">
+        <f>SUM(V159:X159)</f>
+        <v>2</v>
+      </c>
+      <c r="AA159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>368</v>
       </c>
@@ -16709,10 +17985,10 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R160" s="3" t="s">
-        <v>395</v>
+        <v>561</v>
       </c>
       <c r="S160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -16730,10 +18006,18 @@
         <v>1</v>
       </c>
       <c r="Y160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S160:U160)</f>
+        <v>1</v>
+      </c>
+      <c r="Z160">
+        <f>SUM(V160:X160)</f>
+        <v>2</v>
+      </c>
+      <c r="AA160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>756</v>
       </c>
@@ -16787,10 +18071,10 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R161" s="3" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="S161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161">
         <v>0</v>
@@ -16799,19 +18083,27 @@
         <v>0</v>
       </c>
       <c r="V161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X161">
         <v>1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S161:U161)</f>
+        <v>1</v>
+      </c>
+      <c r="Z161">
+        <f>SUM(V161:X161)</f>
+        <v>2</v>
+      </c>
+      <c r="AA161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>648</v>
       </c>
@@ -16865,31 +18157,39 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R162" s="3" t="s">
-        <v>686</v>
+        <v>433</v>
       </c>
       <c r="S162">
         <v>0</v>
       </c>
       <c r="T162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U162">
         <v>0</v>
       </c>
       <c r="V162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X162">
         <v>1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S162:U162)</f>
+        <v>1</v>
+      </c>
+      <c r="Z162">
+        <f>SUM(V162:X162)</f>
+        <v>2</v>
+      </c>
+      <c r="AA162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>759</v>
       </c>
@@ -16943,10 +18243,10 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
       <c r="S163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T163">
         <v>0</v>
@@ -16964,10 +18264,18 @@
         <v>1</v>
       </c>
       <c r="Y163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S163:U163)</f>
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <f>SUM(V163:X163)</f>
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>595</v>
       </c>
@@ -17021,10 +18329,10 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="R164" s="3" t="s">
-        <v>409</v>
+        <v>750</v>
       </c>
       <c r="S164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164">
         <v>0</v>
@@ -17033,19 +18341,27 @@
         <v>0</v>
       </c>
       <c r="V164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>1</v>
       </c>
       <c r="Y164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S164:U164)</f>
+        <v>1</v>
+      </c>
+      <c r="Z164">
+        <f>SUM(V164:X164)</f>
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>672</v>
       </c>
@@ -17099,7 +18415,7 @@
         <v>2</v>
       </c>
       <c r="R165" s="3" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="S165">
         <v>1</v>
@@ -17108,22 +18424,30 @@
         <v>0</v>
       </c>
       <c r="U165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W165">
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S165:U165)</f>
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <f>SUM(V165:X165)</f>
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>397</v>
       </c>
@@ -17177,10 +18501,10 @@
         <v>2</v>
       </c>
       <c r="R166" s="3" t="s">
-        <v>394</v>
+        <v>648</v>
       </c>
       <c r="S166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T166">
         <v>0</v>
@@ -17189,19 +18513,27 @@
         <v>1</v>
       </c>
       <c r="V166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W166">
         <v>0</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S166:U166)</f>
+        <v>1</v>
+      </c>
+      <c r="Z166">
+        <f>SUM(V166:X166)</f>
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>398</v>
       </c>
@@ -17255,7 +18587,7 @@
         <v>2</v>
       </c>
       <c r="R167" s="3" t="s">
-        <v>684</v>
+        <v>759</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -17264,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="U167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V167">
         <v>1</v>
@@ -17276,10 +18608,18 @@
         <v>1</v>
       </c>
       <c r="Y167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S167:U167)</f>
+        <v>1</v>
+      </c>
+      <c r="Z167">
+        <f>SUM(V167:X167)</f>
+        <v>2</v>
+      </c>
+      <c r="AA167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>399</v>
       </c>
@@ -17333,10 +18673,10 @@
         <v>2</v>
       </c>
       <c r="R168" s="3" t="s">
-        <v>513</v>
+        <v>656</v>
       </c>
       <c r="S168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -17354,10 +18694,18 @@
         <v>1</v>
       </c>
       <c r="Y168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S168:U168)</f>
+        <v>1</v>
+      </c>
+      <c r="Z168">
+        <f>SUM(V168:X168)</f>
+        <v>2</v>
+      </c>
+      <c r="AA168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>378</v>
       </c>
@@ -17411,7 +18759,7 @@
         <v>2</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>400</v>
+        <v>536</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -17420,22 +18768,30 @@
         <v>0</v>
       </c>
       <c r="U169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W169">
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S169:U169)</f>
+        <v>1</v>
+      </c>
+      <c r="Z169">
+        <f>SUM(V169:X169)</f>
+        <v>2</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>377</v>
       </c>
@@ -17489,7 +18845,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="3" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="S170">
         <v>1</v>
@@ -17498,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="U170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V170">
         <v>0</v>
@@ -17507,13 +18863,21 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S170:U170)</f>
+        <v>1</v>
+      </c>
+      <c r="Z170">
+        <f>SUM(V170:X170)</f>
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>607</v>
       </c>
@@ -17567,7 +18931,7 @@
         <v>2</v>
       </c>
       <c r="R171" s="3" t="s">
-        <v>654</v>
+        <v>360</v>
       </c>
       <c r="S171">
         <v>1</v>
@@ -17579,19 +18943,27 @@
         <v>0</v>
       </c>
       <c r="V171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W171">
         <v>0</v>
       </c>
       <c r="X171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S171:U171)</f>
+        <v>1</v>
+      </c>
+      <c r="Z171">
+        <f>SUM(V171:X171)</f>
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>472</v>
       </c>
@@ -17645,31 +19017,39 @@
         <v>2</v>
       </c>
       <c r="R172" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T172">
         <v>0</v>
       </c>
       <c r="U172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S172:U172)</f>
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <f>SUM(V172:X172)</f>
+        <v>3</v>
+      </c>
+      <c r="AA172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>412</v>
       </c>
@@ -17723,7 +19103,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R173" s="3" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -17735,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="V173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W173">
         <v>1</v>
@@ -17744,10 +19124,18 @@
         <v>1</v>
       </c>
       <c r="Y173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S173:U173)</f>
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <f>SUM(V173:X173)</f>
+        <v>3</v>
+      </c>
+      <c r="AA173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>471</v>
       </c>
@@ -17801,7 +19189,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R174" s="3" t="s">
-        <v>726</v>
+        <v>649</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -17813,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="V174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W174">
         <v>1</v>
@@ -17822,10 +19210,18 @@
         <v>1</v>
       </c>
       <c r="Y174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S174:U174)</f>
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <f>SUM(V174:X174)</f>
+        <v>3</v>
+      </c>
+      <c r="AA174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>454</v>
       </c>
@@ -17879,31 +19275,39 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R175" s="3" t="s">
-        <v>727</v>
+        <v>546</v>
       </c>
       <c r="S175">
         <v>0</v>
       </c>
       <c r="T175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W175">
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S175:U175)</f>
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <f>SUM(V175:X175)</f>
+        <v>2</v>
+      </c>
+      <c r="AA175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>755</v>
       </c>
@@ -17957,31 +19361,39 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R176" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T176">
         <v>0</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W176">
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S176:U176)</f>
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <f>SUM(V176:X176)</f>
+        <v>2</v>
+      </c>
+      <c r="AA176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>533</v>
       </c>
@@ -18035,7 +19447,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R177" s="3" t="s">
-        <v>358</v>
+        <v>534</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -18056,10 +19468,18 @@
         <v>1</v>
       </c>
       <c r="Y177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S177:U177)</f>
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <f>SUM(V177:X177)</f>
+        <v>2</v>
+      </c>
+      <c r="AA177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>430</v>
       </c>
@@ -18113,31 +19533,39 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="R178" s="3" t="s">
-        <v>451</v>
+        <v>686</v>
       </c>
       <c r="S178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T178">
         <v>0</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W178">
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S178:U178)</f>
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <f>SUM(V178:X178)</f>
+        <v>2</v>
+      </c>
+      <c r="AA178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>656</v>
       </c>
@@ -18191,7 +19619,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R179" s="3" t="s">
-        <v>762</v>
+        <v>576</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -18203,19 +19631,27 @@
         <v>0</v>
       </c>
       <c r="V179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X179">
         <v>1</v>
       </c>
       <c r="Y179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S179:U179)</f>
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <f>SUM(V179:X179)</f>
+        <v>2</v>
+      </c>
+      <c r="AA179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>536</v>
       </c>
@@ -18269,7 +19705,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R180" s="3" t="s">
-        <v>580</v>
+        <v>409</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -18290,10 +19726,18 @@
         <v>1</v>
       </c>
       <c r="Y180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S180:U180)</f>
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <f>SUM(V180:X180)</f>
+        <v>2</v>
+      </c>
+      <c r="AA180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>647</v>
       </c>
@@ -18347,7 +19791,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -18368,10 +19812,18 @@
         <v>1</v>
       </c>
       <c r="Y181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S181:U181)</f>
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <f>SUM(V181:X181)</f>
+        <v>2</v>
+      </c>
+      <c r="AA181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>475</v>
       </c>
@@ -18425,31 +19877,39 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R182" s="3" t="s">
-        <v>751</v>
+        <v>513</v>
       </c>
       <c r="S182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T182">
         <v>0</v>
       </c>
       <c r="U182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W182">
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S182:U182)</f>
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <f>SUM(V182:X182)</f>
+        <v>2</v>
+      </c>
+      <c r="AA182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>549</v>
       </c>
@@ -18503,7 +19963,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R183" s="3" t="s">
-        <v>335</v>
+        <v>668</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -18515,19 +19975,27 @@
         <v>0</v>
       </c>
       <c r="V183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X183">
         <v>1</v>
       </c>
       <c r="Y183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S183:U183)</f>
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <f>SUM(V183:X183)</f>
+        <v>2</v>
+      </c>
+      <c r="AA183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>627</v>
       </c>
@@ -18581,7 +20049,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R184" s="3" t="s">
-        <v>527</v>
+        <v>726</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -18593,19 +20061,27 @@
         <v>0</v>
       </c>
       <c r="V184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X184">
         <v>1</v>
       </c>
       <c r="Y184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S184:U184)</f>
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <f>SUM(V184:X184)</f>
+        <v>2</v>
+      </c>
+      <c r="AA184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>455</v>
       </c>
@@ -18659,31 +20135,39 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>474</v>
+        <v>358</v>
       </c>
       <c r="S185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T185">
         <v>0</v>
       </c>
       <c r="U185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W185">
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S185:U185)</f>
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <f>SUM(V185:X185)</f>
+        <v>2</v>
+      </c>
+      <c r="AA185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>678</v>
       </c>
@@ -18737,7 +20221,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -18749,19 +20233,27 @@
         <v>0</v>
       </c>
       <c r="V186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X186">
         <v>1</v>
       </c>
       <c r="Y186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S186:U186)</f>
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <f>SUM(V186:X186)</f>
+        <v>2</v>
+      </c>
+      <c r="AA186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>649</v>
       </c>
@@ -18815,10 +20307,10 @@
         <v>1.5</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="S187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -18833,13 +20325,21 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S187:U187)</f>
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <f>SUM(V187:X187)</f>
+        <v>2</v>
+      </c>
+      <c r="AA187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>577</v>
       </c>
@@ -18893,7 +20393,7 @@
         <v>1.5</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>763</v>
+        <v>692</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -18905,19 +20405,27 @@
         <v>0</v>
       </c>
       <c r="V188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X188">
         <v>1</v>
       </c>
       <c r="Y188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S188:U188)</f>
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <f>SUM(V188:X188)</f>
+        <v>2</v>
+      </c>
+      <c r="AA188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>613</v>
       </c>
@@ -18971,7 +20479,7 @@
         <v>1.5</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>670</v>
+        <v>335</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -18992,10 +20500,18 @@
         <v>1</v>
       </c>
       <c r="Y189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S189:U189)</f>
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <f>SUM(V189:X189)</f>
+        <v>2</v>
+      </c>
+      <c r="AA189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>485</v>
       </c>
@@ -19049,31 +20565,39 @@
         <v>1.5</v>
       </c>
       <c r="R190" s="3" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="S190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T190">
         <v>0</v>
       </c>
       <c r="U190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W190">
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S190:U190)</f>
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <f>SUM(V190:X190)</f>
+        <v>2</v>
+      </c>
+      <c r="AA190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>352</v>
       </c>
@@ -19127,31 +20651,39 @@
         <v>1.5</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="S191">
         <v>0</v>
       </c>
       <c r="T191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W191">
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S191:U191)</f>
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <f>SUM(V191:X191)</f>
+        <v>2</v>
+      </c>
+      <c r="AA191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>584</v>
       </c>
@@ -19205,31 +20737,39 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>475</v>
+        <v>763</v>
       </c>
       <c r="S192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T192">
         <v>0</v>
       </c>
       <c r="U192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V192">
         <v>0</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S192:U192)</f>
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <f>SUM(V192:X192)</f>
+        <v>2</v>
+      </c>
+      <c r="AA192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>517</v>
       </c>
@@ -19283,31 +20823,39 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="S193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
       <c r="U193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W193">
         <v>0</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+        <f>SUM(S193:U193)</f>
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <f>SUM(V193:X193)</f>
+        <v>2</v>
+      </c>
+      <c r="AA193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>482</v>
       </c>
@@ -19382,12 +20930,88 @@
         <v>1</v>
       </c>
       <c r="Y194">
-        <v>2</v>
+        <f>SUM(S194:U194)</f>
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <f>SUM(V194:X194)</f>
+        <v>2</v>
+      </c>
+      <c r="AA194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <f>SUM(B2:B194)</f>
+        <v>3940</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195" si="13">SUM(C2:C194)</f>
+        <v>1378</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195" si="14">SUM(D2:D194)</f>
+        <v>1157</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195" si="15">SUM(E2:E194)</f>
+        <v>24795</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195" si="16">SUM(F2:F194)</f>
+        <v>2069</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195" si="17">SUM(G2:G194)</f>
+        <v>4507</v>
+      </c>
+      <c r="S195">
+        <f>SUM(S2:S194)</f>
+        <v>154</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:X195" si="18">SUM(T2:T194)</f>
+        <v>32</v>
+      </c>
+      <c r="U195">
+        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+      <c r="V195">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="W195">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="X195">
+        <f t="shared" si="18"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <f>AVERAGE(B195:D195)</f>
+        <v>2158.3333333333335</v>
+      </c>
+      <c r="F196">
+        <f>AVERAGE(E195:G195)</f>
+        <v>10457</v>
+      </c>
+      <c r="T196">
+        <f>AVERAGE(S195:U195)</f>
+        <v>102.66666666666667</v>
+      </c>
+      <c r="W196">
+        <f>AVERAGE(V195:X195)</f>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:P194">
-    <sortCondition descending="1" ref="P1:P194"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:AA194">
+    <sortCondition descending="1" ref="Y1:Y194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -19398,7 +21022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -40145,8 +41769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41525,7 +43149,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48098,7 +49722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF931D-DD83-C94C-8019-1057FD3D9B20}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F16"/>
     </sheetView>
   </sheetViews>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA088792-E3EA-AD4B-A3A0-C508F0EC1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF978175-799A-3948-B996-629531990103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="500" windowWidth="18500" windowHeight="17500" activeTab="4" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -3338,11 +3338,11 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <f>SUM(S2:U2)</f>
+        <f t="shared" ref="Y2:Y33" si="1">SUM(S2:U2)</f>
         <v>3</v>
       </c>
       <c r="Z2">
-        <f>SUM(V2:X2)</f>
+        <f t="shared" ref="Z2:Z33" si="2">SUM(V2:X2)</f>
         <v>3</v>
       </c>
       <c r="AA2">
@@ -3451,11 +3451,11 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <f>SUM(S3:U3)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z3">
-        <f>SUM(V3:X3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA3">
@@ -3465,27 +3465,27 @@
         <v>361</v>
       </c>
       <c r="AD3" s="6">
-        <f t="shared" ref="AD3:AD41" si="1">VLOOKUP($AC3,$I$1:$O$194,2,FALSE)</f>
+        <f t="shared" ref="AD3:AD41" si="3">VLOOKUP($AC3,$I$1:$O$194,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE41" si="2">VLOOKUP($AC3,$I$1:$O$194,3,FALSE)</f>
+        <f t="shared" ref="AE3:AE41" si="4">VLOOKUP($AC3,$I$1:$O$194,3,FALSE)</f>
         <v>29</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" ref="AF3:AF41" si="3">VLOOKUP($AC3,$I$1:$O$194,4,FALSE)</f>
+        <f t="shared" ref="AF3:AF41" si="5">VLOOKUP($AC3,$I$1:$O$194,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" ref="AG3:AG41" si="4">VLOOKUP($AC3,$I$1:$O$194,5,FALSE)</f>
+        <f t="shared" ref="AG3:AG41" si="6">VLOOKUP($AC3,$I$1:$O$194,5,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH41" si="5">VLOOKUP($AC3,$I$1:$O$194,6,FALSE)</f>
+        <f t="shared" ref="AH3:AH41" si="7">VLOOKUP($AC3,$I$1:$O$194,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="AI3" s="6">
-        <f t="shared" ref="AI3:AI41" si="6">VLOOKUP($AC3,$I$1:$O$194,7,FALSE)</f>
+        <f t="shared" ref="AI3:AI41" si="8">VLOOKUP($AC3,$I$1:$O$194,7,FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -3564,11 +3564,11 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <f>SUM(S4:U4)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z4">
-        <f>SUM(V4:X4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA4">
@@ -3578,27 +3578,27 @@
         <v>544</v>
       </c>
       <c r="AD4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AG4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI4" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3677,11 +3677,11 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <f>SUM(S5:U5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z5">
-        <f>SUM(V5:X5)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA5">
@@ -3691,27 +3691,27 @@
         <v>498</v>
       </c>
       <c r="AD5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -3790,11 +3790,11 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <f>SUM(S6:U6)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z6">
-        <f>SUM(V6:X6)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA6">
@@ -3804,27 +3804,27 @@
         <v>424</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -3903,11 +3903,11 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <f>SUM(S7:U7)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z7">
-        <f>SUM(V7:X7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA7">
@@ -3917,27 +3917,27 @@
         <v>627</v>
       </c>
       <c r="AD7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4016,11 +4016,11 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <f>SUM(S8:U8)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z8">
-        <f>SUM(V8:X8)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA8">
@@ -4030,27 +4030,27 @@
         <v>409</v>
       </c>
       <c r="AD8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -4129,11 +4129,11 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>SUM(S9:U9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z9">
-        <f>SUM(V9:X9)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA9">
@@ -4143,27 +4143,27 @@
         <v>546</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI9" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -4242,11 +4242,11 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <f>SUM(S10:U10)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z10">
-        <f>SUM(V10:X10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA10">
@@ -4256,27 +4256,27 @@
         <v>762</v>
       </c>
       <c r="AD10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AI10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -4355,11 +4355,11 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUM(S11:U11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z11">
-        <f>SUM(V11:X11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA11">
@@ -4369,27 +4369,27 @@
         <v>527</v>
       </c>
       <c r="AD11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -4468,11 +4468,11 @@
         <v>1</v>
       </c>
       <c r="Y12">
-        <f>SUM(S12:U12)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z12">
-        <f>SUM(V12:X12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA12">
@@ -4482,27 +4482,27 @@
         <v>395</v>
       </c>
       <c r="AD12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -4581,11 +4581,11 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <f>SUM(S13:U13)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z13">
-        <f>SUM(V13:X13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA13">
@@ -4595,27 +4595,27 @@
         <v>435</v>
       </c>
       <c r="AD13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -4694,11 +4694,11 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <f>SUM(S14:U14)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z14">
-        <f>SUM(V14:X14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA14">
@@ -4708,27 +4708,27 @@
         <v>513</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -4807,11 +4807,11 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>SUM(S15:U15)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z15">
-        <f>SUM(V15:X15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15">
@@ -4821,27 +4821,27 @@
         <v>607</v>
       </c>
       <c r="AD15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AI15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4920,11 +4920,11 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>SUM(S16:U16)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z16">
-        <f>SUM(V16:X16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16">
@@ -4934,27 +4934,27 @@
         <v>562</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
@@ -5033,11 +5033,11 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <f>SUM(S17:U17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z17">
-        <f>SUM(V17:X17)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA17">
@@ -5047,27 +5047,27 @@
         <v>668</v>
       </c>
       <c r="AD17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AI17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -5146,11 +5146,11 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <f>SUM(S18:U18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z18">
-        <f>SUM(V18:X18)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA18">
@@ -5160,27 +5160,27 @@
         <v>638</v>
       </c>
       <c r="AD18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="AG18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="AI18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>307</v>
       </c>
     </row>
@@ -5259,11 +5259,11 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <f>SUM(S19:U19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z19">
-        <f>SUM(V19:X19)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA19">
@@ -5273,27 +5273,27 @@
         <v>352</v>
       </c>
       <c r="AD19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="AI19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -5372,11 +5372,11 @@
         <v>1</v>
       </c>
       <c r="Y20">
-        <f>SUM(S20:U20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z20">
-        <f>SUM(V20:X20)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA20">
@@ -5386,27 +5386,27 @@
         <v>341</v>
       </c>
       <c r="AD20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -5485,11 +5485,11 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <f>SUM(S21:U21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z21">
-        <f>SUM(V21:X21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA21">
@@ -5499,27 +5499,27 @@
         <v>346</v>
       </c>
       <c r="AD21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
     </row>
@@ -5598,11 +5598,11 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>SUM(S22:U22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z22">
-        <f>SUM(V22:X22)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA22">
@@ -5612,27 +5612,27 @@
         <v>584</v>
       </c>
       <c r="AD22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AI22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -5711,11 +5711,11 @@
         <v>1</v>
       </c>
       <c r="Y23">
-        <f>SUM(S23:U23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z23">
-        <f>SUM(V23:X23)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA23">
@@ -5725,27 +5725,27 @@
         <v>655</v>
       </c>
       <c r="AD23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -5824,11 +5824,11 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <f>SUM(S24:U24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z24">
-        <f>SUM(V24:X24)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA24">
@@ -5838,27 +5838,27 @@
         <v>534</v>
       </c>
       <c r="AD24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -5937,11 +5937,11 @@
         <v>1</v>
       </c>
       <c r="Y25">
-        <f>SUM(S25:U25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z25">
-        <f>SUM(V25:X25)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA25">
@@ -5951,27 +5951,27 @@
         <v>370</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>514</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
@@ -6050,11 +6050,11 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <f>SUM(S26:U26)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z26">
-        <f>SUM(V26:X26)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA26">
@@ -6064,27 +6064,27 @@
         <v>413</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4480</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>478</v>
       </c>
     </row>
@@ -6163,11 +6163,11 @@
         <v>1</v>
       </c>
       <c r="Y27">
-        <f>SUM(S27:U27)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z27">
-        <f>SUM(V27:X27)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA27">
@@ -6177,27 +6177,27 @@
         <v>515</v>
       </c>
       <c r="AD27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AI27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -6276,11 +6276,11 @@
         <v>1</v>
       </c>
       <c r="Y28">
-        <f>SUM(S28:U28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z28">
-        <f>SUM(V28:X28)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA28">
@@ -6290,27 +6290,27 @@
         <v>616</v>
       </c>
       <c r="AD28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="AE28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="AF28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>742</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AI28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>748</v>
       </c>
     </row>
@@ -6389,11 +6389,11 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <f>SUM(S29:U29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z29">
-        <f>SUM(V29:X29)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA29">
@@ -6403,27 +6403,27 @@
         <v>515</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AI29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -6502,11 +6502,11 @@
         <v>1</v>
       </c>
       <c r="Y30">
-        <f>SUM(S30:U30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z30">
-        <f>SUM(V30:X30)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA30">
@@ -6516,27 +6516,27 @@
         <v>616</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>742</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AI30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>748</v>
       </c>
     </row>
@@ -6615,11 +6615,11 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <f>SUM(S31:U31)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z31">
-        <f>SUM(V31:X31)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA31">
@@ -6629,27 +6629,27 @@
         <v>511</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="AE31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AG31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AI31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -6728,11 +6728,11 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <f>SUM(S32:U32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z32">
-        <f>SUM(V32:X32)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA32">
@@ -6742,27 +6742,27 @@
         <v>687</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AI32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -6841,11 +6841,11 @@
         <v>1</v>
       </c>
       <c r="Y33">
-        <f>SUM(S33:U33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z33">
-        <f>SUM(V33:X33)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA33">
@@ -6855,27 +6855,27 @@
         <v>413</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="AE33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AF33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4480</v>
       </c>
       <c r="AH33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>478</v>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P65" si="7">AVERAGE(J34:O34)</f>
+        <f t="shared" ref="P34:P65" si="9">AVERAGE(J34:O34)</f>
         <v>31.5</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -6954,11 +6954,11 @@
         <v>1</v>
       </c>
       <c r="Y34">
-        <f>SUM(S34:U34)</f>
+        <f t="shared" ref="Y34:Y65" si="10">SUM(S34:U34)</f>
         <v>2</v>
       </c>
       <c r="Z34">
-        <f>SUM(V34:X34)</f>
+        <f t="shared" ref="Z34:Z65" si="11">SUM(V34:X34)</f>
         <v>2</v>
       </c>
       <c r="AA34">
@@ -6968,27 +6968,27 @@
         <v>604</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>395</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AI34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
         <v>39</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -7067,11 +7067,11 @@
         <v>1</v>
       </c>
       <c r="Y35">
-        <f>SUM(S35:U35)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z35">
-        <f>SUM(V35:X35)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA35">
@@ -7081,27 +7081,27 @@
         <v>375</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AH35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="AI35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
         <v>14</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.666666666666668</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -7180,11 +7180,11 @@
         <v>1</v>
       </c>
       <c r="Y36">
-        <f>SUM(S36:U36)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z36">
-        <f>SUM(V36:X36)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA36">
@@ -7194,27 +7194,27 @@
         <v>638</v>
       </c>
       <c r="AD36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="AI36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>307</v>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.166666666666668</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -7293,11 +7293,11 @@
         <v>1</v>
       </c>
       <c r="Y37">
-        <f>SUM(S37:U37)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z37">
-        <f>SUM(V37:X37)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA37">
@@ -7307,27 +7307,27 @@
         <v>461</v>
       </c>
       <c r="AD37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AE37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AF37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AG37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AH37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
         <v>14</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.666666666666668</v>
       </c>
       <c r="R38" s="3" t="s">
@@ -7406,11 +7406,11 @@
         <v>1</v>
       </c>
       <c r="Y38">
-        <f>SUM(S38:U38)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z38">
-        <f>SUM(V38:X38)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA38">
@@ -7420,27 +7420,27 @@
         <v>346</v>
       </c>
       <c r="AD38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AE38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AF38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AG38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="AH38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
         <v>131</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26.833333333333332</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -7519,11 +7519,11 @@
         <v>1</v>
       </c>
       <c r="Y39">
-        <f>SUM(S39:U39)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z39">
-        <f>SUM(V39:X39)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA39">
@@ -7533,27 +7533,27 @@
         <v>538</v>
       </c>
       <c r="AD39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="AE39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="AF39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AG39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="AH39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
         <v>11</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.666666666666668</v>
       </c>
       <c r="R40" s="3" t="s">
@@ -7632,11 +7632,11 @@
         <v>1</v>
       </c>
       <c r="Y40">
-        <f>SUM(S40:U40)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z40">
-        <f>SUM(V40:X40)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA40">
@@ -7646,27 +7646,27 @@
         <v>463</v>
       </c>
       <c r="AD40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AE40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="AH40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AI40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -7720,7 +7720,7 @@
         <v>46</v>
       </c>
       <c r="P41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.166666666666668</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -7745,11 +7745,11 @@
         <v>1</v>
       </c>
       <c r="Y41">
-        <f>SUM(S41:U41)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z41">
-        <f>SUM(V41:X41)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA41">
@@ -7759,27 +7759,27 @@
         <v>412</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AG41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AH41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AI41" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="R42" s="3" t="s">
@@ -7858,11 +7858,11 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <f>SUM(S42:U42)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z42">
-        <f>SUM(V42:X42)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA42">
@@ -7919,7 +7919,7 @@
         <v>5</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.833333333333332</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -7944,11 +7944,11 @@
         <v>1</v>
       </c>
       <c r="Y43">
-        <f>SUM(S43:U43)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z43">
-        <f>SUM(V43:X43)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA43">
@@ -8005,7 +8005,7 @@
         <v>9</v>
       </c>
       <c r="P44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.666666666666668</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -8030,11 +8030,11 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <f>SUM(S44:U44)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z44">
-        <f>SUM(V44:X44)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA44">
@@ -8091,7 +8091,7 @@
         <v>12</v>
       </c>
       <c r="P45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.166666666666668</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -8116,11 +8116,11 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <f>SUM(S45:U45)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z45">
-        <f>SUM(V45:X45)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA45">
@@ -8177,7 +8177,7 @@
         <v>15</v>
       </c>
       <c r="P46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.833333333333332</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -8202,11 +8202,11 @@
         <v>1</v>
       </c>
       <c r="Y46">
-        <f>SUM(S46:U46)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z46">
-        <f>SUM(V46:X46)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA46">
@@ -8263,7 +8263,7 @@
         <v>9</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.666666666666668</v>
       </c>
       <c r="R47" s="3" t="s">
@@ -8288,11 +8288,11 @@
         <v>1</v>
       </c>
       <c r="Y47">
-        <f>SUM(S47:U47)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z47">
-        <f>SUM(V47:X47)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA47">
@@ -8349,7 +8349,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.666666666666668</v>
       </c>
       <c r="R48" s="3" t="s">
@@ -8374,11 +8374,11 @@
         <v>1</v>
       </c>
       <c r="Y48">
-        <f>SUM(S48:U48)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z48">
-        <f>SUM(V48:X48)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA48">
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.166666666666668</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -8460,11 +8460,11 @@
         <v>1</v>
       </c>
       <c r="Y49">
-        <f>SUM(S49:U49)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z49">
-        <f>SUM(V49:X49)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA49">
@@ -8521,7 +8521,7 @@
         <v>14</v>
       </c>
       <c r="P50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.833333333333332</v>
       </c>
       <c r="R50" s="3" t="s">
@@ -8546,11 +8546,11 @@
         <v>1</v>
       </c>
       <c r="Y50">
-        <f>SUM(S50:U50)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z50">
-        <f>SUM(V50:X50)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA50">
@@ -8607,7 +8607,7 @@
         <v>50</v>
       </c>
       <c r="P51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -8632,11 +8632,11 @@
         <v>1</v>
       </c>
       <c r="Y51">
-        <f>SUM(S51:U51)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z51">
-        <f>SUM(V51:X51)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA51">
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
       <c r="P52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -8718,11 +8718,11 @@
         <v>1</v>
       </c>
       <c r="Y52">
-        <f>SUM(S52:U52)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z52">
-        <f>SUM(V52:X52)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA52">
@@ -8779,7 +8779,7 @@
         <v>74</v>
       </c>
       <c r="P53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -8804,11 +8804,11 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <f>SUM(S53:U53)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z53">
-        <f>SUM(V53:X53)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA53">
@@ -8865,7 +8865,7 @@
         <v>41</v>
       </c>
       <c r="P54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="R54" s="3" t="s">
@@ -8890,11 +8890,11 @@
         <v>1</v>
       </c>
       <c r="Y54">
-        <f>SUM(S54:U54)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z54">
-        <f>SUM(V54:X54)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA54">
@@ -8951,7 +8951,7 @@
         <v>45</v>
       </c>
       <c r="P55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="R55" s="3" t="s">
@@ -8976,11 +8976,11 @@
         <v>1</v>
       </c>
       <c r="Y55">
-        <f>SUM(S55:U55)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z55">
-        <f>SUM(V55:X55)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA55">
@@ -9037,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="P56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.833333333333334</v>
       </c>
       <c r="R56" s="3" t="s">
@@ -9062,11 +9062,11 @@
         <v>1</v>
       </c>
       <c r="Y56">
-        <f>SUM(S56:U56)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z56">
-        <f>SUM(V56:X56)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA56">
@@ -9123,7 +9123,7 @@
         <v>21</v>
       </c>
       <c r="P57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.666666666666666</v>
       </c>
       <c r="R57" s="3" t="s">
@@ -9148,11 +9148,11 @@
         <v>1</v>
       </c>
       <c r="Y57">
-        <f>SUM(S57:U57)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z57">
-        <f>SUM(V57:X57)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA57">
@@ -9209,7 +9209,7 @@
         <v>28</v>
       </c>
       <c r="P58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.833333333333334</v>
       </c>
       <c r="R58" s="3" t="s">
@@ -9234,11 +9234,11 @@
         <v>1</v>
       </c>
       <c r="Y58">
-        <f>SUM(S58:U58)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z58">
-        <f>SUM(V58:X58)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA58">
@@ -9295,7 +9295,7 @@
         <v>31</v>
       </c>
       <c r="P59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="R59" s="3" t="s">
@@ -9320,11 +9320,11 @@
         <v>1</v>
       </c>
       <c r="Y59">
-        <f>SUM(S59:U59)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z59">
-        <f>SUM(V59:X59)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA59">
@@ -9381,7 +9381,7 @@
         <v>50</v>
       </c>
       <c r="P60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -9406,11 +9406,11 @@
         <v>1</v>
       </c>
       <c r="Y60">
-        <f>SUM(S60:U60)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z60">
-        <f>SUM(V60:X60)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA60">
@@ -9467,7 +9467,7 @@
         <v>27</v>
       </c>
       <c r="P61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="R61" s="3" t="s">
@@ -9492,11 +9492,11 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <f>SUM(S61:U61)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z61">
-        <f>SUM(V61:X61)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA61">
@@ -9553,7 +9553,7 @@
         <v>11</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.833333333333334</v>
       </c>
       <c r="R62" s="3" t="s">
@@ -9578,11 +9578,11 @@
         <v>1</v>
       </c>
       <c r="Y62">
-        <f>SUM(S62:U62)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z62">
-        <f>SUM(V62:X62)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA62">
@@ -9639,7 +9639,7 @@
         <v>3</v>
       </c>
       <c r="P63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.666666666666666</v>
       </c>
       <c r="R63" s="3" t="s">
@@ -9664,11 +9664,11 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <f>SUM(S63:U63)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z63">
-        <f>SUM(V63:X63)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA63">
@@ -9725,7 +9725,7 @@
         <v>20</v>
       </c>
       <c r="P64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.333333333333334</v>
       </c>
       <c r="R64" s="3" t="s">
@@ -9750,11 +9750,11 @@
         <v>1</v>
       </c>
       <c r="Y64">
-        <f>SUM(S64:U64)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z64">
-        <f>SUM(V64:X64)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA64">
@@ -9811,7 +9811,7 @@
         <v>29</v>
       </c>
       <c r="P65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.833333333333334</v>
       </c>
       <c r="R65" s="3" t="s">
@@ -9836,11 +9836,11 @@
         <v>1</v>
       </c>
       <c r="Y65">
-        <f>SUM(S65:U65)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z65">
-        <f>SUM(V65:X65)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA65">
@@ -9897,7 +9897,7 @@
         <v>44</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P97" si="8">AVERAGE(J66:O66)</f>
+        <f t="shared" ref="P66:P97" si="12">AVERAGE(J66:O66)</f>
         <v>10.833333333333334</v>
       </c>
       <c r="R66" s="3" t="s">
@@ -9922,11 +9922,11 @@
         <v>1</v>
       </c>
       <c r="Y66">
-        <f>SUM(S66:U66)</f>
+        <f t="shared" ref="Y66:Y97" si="13">SUM(S66:U66)</f>
         <v>2</v>
       </c>
       <c r="Z66">
-        <f>SUM(V66:X66)</f>
+        <f t="shared" ref="Z66:Z97" si="14">SUM(V66:X66)</f>
         <v>1</v>
       </c>
       <c r="AA66">
@@ -9983,7 +9983,7 @@
         <v>47</v>
       </c>
       <c r="P67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10.333333333333334</v>
       </c>
       <c r="R67" s="3" t="s">
@@ -10008,11 +10008,11 @@
         <v>1</v>
       </c>
       <c r="Y67">
-        <f>SUM(S67:U67)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z67">
-        <f>SUM(V67:X67)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA67">
@@ -10069,7 +10069,7 @@
         <v>9</v>
       </c>
       <c r="P68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10.166666666666666</v>
       </c>
       <c r="R68" s="3" t="s">
@@ -10094,11 +10094,11 @@
         <v>1</v>
       </c>
       <c r="Y68">
-        <f>SUM(S68:U68)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z68">
-        <f>SUM(V68:X68)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA68">
@@ -10155,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="P69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="R69" s="3" t="s">
@@ -10180,11 +10180,11 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <f>SUM(S69:U69)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z69">
-        <f>SUM(V69:X69)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA69">
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="P70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="R70" s="3" t="s">
@@ -10266,11 +10266,11 @@
         <v>1</v>
       </c>
       <c r="Y70">
-        <f>SUM(S70:U70)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z70">
-        <f>SUM(V70:X70)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA70">
@@ -10327,7 +10327,7 @@
         <v>5</v>
       </c>
       <c r="P71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.8333333333333339</v>
       </c>
       <c r="R71" s="3" t="s">
@@ -10352,11 +10352,11 @@
         <v>1</v>
       </c>
       <c r="Y71">
-        <f>SUM(S71:U71)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z71">
-        <f>SUM(V71:X71)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA71">
@@ -10413,7 +10413,7 @@
         <v>29</v>
       </c>
       <c r="P72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="R72" s="3" t="s">
@@ -10438,11 +10438,11 @@
         <v>1</v>
       </c>
       <c r="Y72">
-        <f>SUM(S72:U72)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z72">
-        <f>SUM(V72:X72)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA72">
@@ -10499,7 +10499,7 @@
         <v>21</v>
       </c>
       <c r="P73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="R73" s="3" t="s">
@@ -10524,11 +10524,11 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <f>SUM(S73:U73)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z73">
-        <f>SUM(V73:X73)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA73">
@@ -10585,7 +10585,7 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="R74" s="3" t="s">
@@ -10610,11 +10610,11 @@
         <v>1</v>
       </c>
       <c r="Y74">
-        <f>SUM(S74:U74)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z74">
-        <f>SUM(V74:X74)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA74">
@@ -10671,7 +10671,7 @@
         <v>10</v>
       </c>
       <c r="P75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="R75" s="3" t="s">
@@ -10696,11 +10696,11 @@
         <v>1</v>
       </c>
       <c r="Y75">
-        <f>SUM(S75:U75)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z75">
-        <f>SUM(V75:X75)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA75">
@@ -10757,7 +10757,7 @@
         <v>5</v>
       </c>
       <c r="P76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
@@ -10782,11 +10782,11 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <f>SUM(S76:U76)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z76">
-        <f>SUM(V76:X76)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA76">
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="P77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.666666666666667</v>
       </c>
       <c r="R77" s="3" t="s">
@@ -10868,11 +10868,11 @@
         <v>1</v>
       </c>
       <c r="Y77">
-        <f>SUM(S77:U77)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z77">
-        <f>SUM(V77:X77)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA77">
@@ -10929,7 +10929,7 @@
         <v>5</v>
       </c>
       <c r="P78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="R78" s="3" t="s">
@@ -10954,11 +10954,11 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <f>SUM(S78:U78)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z78">
-        <f>SUM(V78:X78)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA78">
@@ -11015,7 +11015,7 @@
         <v>2</v>
       </c>
       <c r="P79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.166666666666667</v>
       </c>
       <c r="R79" s="3" t="s">
@@ -11040,11 +11040,11 @@
         <v>1</v>
       </c>
       <c r="Y79">
-        <f>SUM(S79:U79)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z79">
-        <f>SUM(V79:X79)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA79">
@@ -11101,7 +11101,7 @@
         <v>3</v>
       </c>
       <c r="P80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="R80" s="3" t="s">
@@ -11126,11 +11126,11 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <f>SUM(S80:U80)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z80">
-        <f>SUM(V80:X80)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA80">
@@ -11187,7 +11187,7 @@
         <v>2</v>
       </c>
       <c r="P81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="R81" s="3" t="s">
@@ -11212,11 +11212,11 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <f>SUM(S81:U81)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z81">
-        <f>SUM(V81:X81)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA81">
@@ -11273,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="P82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.833333333333333</v>
       </c>
       <c r="R82" s="3" t="s">
@@ -11298,11 +11298,11 @@
         <v>1</v>
       </c>
       <c r="Y82">
-        <f>SUM(S82:U82)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z82">
-        <f>SUM(V82:X82)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA82">
@@ -11359,7 +11359,7 @@
         <v>9</v>
       </c>
       <c r="P83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.666666666666667</v>
       </c>
       <c r="R83" s="3" t="s">
@@ -11384,11 +11384,11 @@
         <v>1</v>
       </c>
       <c r="Y83">
-        <f>SUM(S83:U83)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z83">
-        <f>SUM(V83:X83)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA83">
@@ -11445,7 +11445,7 @@
         <v>2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.666666666666667</v>
       </c>
       <c r="R84" s="3" t="s">
@@ -11470,11 +11470,11 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <f>SUM(S84:U84)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z84">
-        <f>SUM(V84:X84)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA84">
@@ -11531,7 +11531,7 @@
         <v>3</v>
       </c>
       <c r="P85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="R85" s="3" t="s">
@@ -11556,11 +11556,11 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <f>SUM(S85:U85)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z85">
-        <f>SUM(V85:X85)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA85">
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="R86" s="3" t="s">
@@ -11642,11 +11642,11 @@
         <v>1</v>
       </c>
       <c r="Y86">
-        <f>SUM(S86:U86)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z86">
-        <f>SUM(V86:X86)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA86">
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="P87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="R87" s="3" t="s">
@@ -11728,11 +11728,11 @@
         <v>1</v>
       </c>
       <c r="Y87">
-        <f>SUM(S87:U87)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z87">
-        <f>SUM(V87:X87)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA87">
@@ -11789,7 +11789,7 @@
         <v>30</v>
       </c>
       <c r="P88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.333333333333333</v>
       </c>
       <c r="R88" s="3" t="s">
@@ -11814,11 +11814,11 @@
         <v>0</v>
       </c>
       <c r="Y88">
-        <f>SUM(S88:U88)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z88">
-        <f>SUM(V88:X88)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA88">
@@ -11875,7 +11875,7 @@
         <v>2</v>
       </c>
       <c r="P89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.333333333333333</v>
       </c>
       <c r="R89" s="3" t="s">
@@ -11900,11 +11900,11 @@
         <v>1</v>
       </c>
       <c r="Y89">
-        <f>SUM(S89:U89)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z89">
-        <f>SUM(V89:X89)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA89">
@@ -11961,7 +11961,7 @@
         <v>7</v>
       </c>
       <c r="P90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.166666666666667</v>
       </c>
       <c r="R90" s="3" t="s">
@@ -11986,11 +11986,11 @@
         <v>1</v>
       </c>
       <c r="Y90">
-        <f>SUM(S90:U90)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z90">
-        <f>SUM(V90:X90)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA90">
@@ -12047,7 +12047,7 @@
         <v>17</v>
       </c>
       <c r="P91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -12072,11 +12072,11 @@
         <v>1</v>
       </c>
       <c r="Y91">
-        <f>SUM(S91:U91)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z91">
-        <f>SUM(V91:X91)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA91">
@@ -12133,7 +12133,7 @@
         <v>30</v>
       </c>
       <c r="P92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="R92" s="3" t="s">
@@ -12158,11 +12158,11 @@
         <v>1</v>
       </c>
       <c r="Y92">
-        <f>SUM(S92:U92)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z92">
-        <f>SUM(V92:X92)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA92">
@@ -12219,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -12244,11 +12244,11 @@
         <v>1</v>
       </c>
       <c r="Y93">
-        <f>SUM(S93:U93)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z93">
-        <f>SUM(V93:X93)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA93">
@@ -12305,7 +12305,7 @@
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.833333333333333</v>
       </c>
       <c r="R94" s="3" t="s">
@@ -12330,11 +12330,11 @@
         <v>1</v>
       </c>
       <c r="Y94">
-        <f>SUM(S94:U94)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z94">
-        <f>SUM(V94:X94)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA94">
@@ -12391,7 +12391,7 @@
         <v>11</v>
       </c>
       <c r="P95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.833333333333333</v>
       </c>
       <c r="R95" s="3" t="s">
@@ -12416,11 +12416,11 @@
         <v>1</v>
       </c>
       <c r="Y95">
-        <f>SUM(S95:U95)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z95">
-        <f>SUM(V95:X95)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA95">
@@ -12477,7 +12477,7 @@
         <v>19</v>
       </c>
       <c r="P96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R96" s="3" t="s">
@@ -12502,11 +12502,11 @@
         <v>0</v>
       </c>
       <c r="Y96">
-        <f>SUM(S96:U96)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z96">
-        <f>SUM(V96:X96)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA96">
@@ -12563,7 +12563,7 @@
         <v>13</v>
       </c>
       <c r="P97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R97" s="3" t="s">
@@ -12588,11 +12588,11 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <f>SUM(S97:U97)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Z97">
-        <f>SUM(V97:X97)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AA97">
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:P129" si="9">AVERAGE(J98:O98)</f>
+        <f t="shared" ref="P98:P129" si="15">AVERAGE(J98:O98)</f>
         <v>5.666666666666667</v>
       </c>
       <c r="R98" s="3" t="s">
@@ -12674,11 +12674,11 @@
         <v>1</v>
       </c>
       <c r="Y98">
-        <f>SUM(S98:U98)</f>
+        <f t="shared" ref="Y98:Y129" si="16">SUM(S98:U98)</f>
         <v>2</v>
       </c>
       <c r="Z98">
-        <f>SUM(V98:X98)</f>
+        <f t="shared" ref="Z98:Z129" si="17">SUM(V98:X98)</f>
         <v>1</v>
       </c>
       <c r="AA98">
@@ -12735,7 +12735,7 @@
         <v>23</v>
       </c>
       <c r="P99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R99" s="3" t="s">
@@ -12760,11 +12760,11 @@
         <v>1</v>
       </c>
       <c r="Y99">
-        <f>SUM(S99:U99)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z99">
-        <f>SUM(V99:X99)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA99">
@@ -12821,7 +12821,7 @@
         <v>15</v>
       </c>
       <c r="P100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.666666666666667</v>
       </c>
       <c r="R100" s="3" t="s">
@@ -12846,11 +12846,11 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <f>SUM(S100:U100)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z100">
-        <f>SUM(V100:X100)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA100">
@@ -12907,7 +12907,7 @@
         <v>25</v>
       </c>
       <c r="P101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.5</v>
       </c>
       <c r="R101" s="3" t="s">
@@ -12932,11 +12932,11 @@
         <v>1</v>
       </c>
       <c r="Y101">
-        <f>SUM(S101:U101)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z101">
-        <f>SUM(V101:X101)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA101">
@@ -12993,7 +12993,7 @@
         <v>18</v>
       </c>
       <c r="P102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.5</v>
       </c>
       <c r="R102" s="3" t="s">
@@ -13018,11 +13018,11 @@
         <v>1</v>
       </c>
       <c r="Y102">
-        <f>SUM(S102:U102)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z102">
-        <f>SUM(V102:X102)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA102">
@@ -13079,7 +13079,7 @@
         <v>5</v>
       </c>
       <c r="P103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.333333333333333</v>
       </c>
       <c r="R103" s="3" t="s">
@@ -13104,11 +13104,11 @@
         <v>0</v>
       </c>
       <c r="Y103">
-        <f>SUM(S103:U103)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z103">
-        <f>SUM(V103:X103)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA103">
@@ -13165,7 +13165,7 @@
         <v>5</v>
       </c>
       <c r="P104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R104" s="3" t="s">
@@ -13190,11 +13190,11 @@
         <v>1</v>
       </c>
       <c r="Y104">
-        <f>SUM(S104:U104)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z104">
-        <f>SUM(V104:X104)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA104">
@@ -13251,7 +13251,7 @@
         <v>5</v>
       </c>
       <c r="P105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R105" s="3" t="s">
@@ -13276,11 +13276,11 @@
         <v>1</v>
       </c>
       <c r="Y105">
-        <f>SUM(S105:U105)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z105">
-        <f>SUM(V105:X105)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA105">
@@ -13337,7 +13337,7 @@
         <v>25</v>
       </c>
       <c r="P106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R106" s="3" t="s">
@@ -13362,11 +13362,11 @@
         <v>1</v>
       </c>
       <c r="Y106">
-        <f>SUM(S106:U106)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z106">
-        <f>SUM(V106:X106)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA106">
@@ -13423,7 +13423,7 @@
         <v>14</v>
       </c>
       <c r="P107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.166666666666667</v>
       </c>
       <c r="R107" s="3" t="s">
@@ -13448,11 +13448,11 @@
         <v>1</v>
       </c>
       <c r="Y107">
-        <f>SUM(S107:U107)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z107">
-        <f>SUM(V107:X107)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA107">
@@ -13509,7 +13509,7 @@
         <v>2</v>
       </c>
       <c r="P108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R108" s="3" t="s">
@@ -13534,11 +13534,11 @@
         <v>1</v>
       </c>
       <c r="Y108">
-        <f>SUM(S108:U108)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z108">
-        <f>SUM(V108:X108)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA108">
@@ -13595,7 +13595,7 @@
         <v>2</v>
       </c>
       <c r="P109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.666666666666667</v>
       </c>
       <c r="R109" s="3" t="s">
@@ -13620,11 +13620,11 @@
         <v>0</v>
       </c>
       <c r="Y109">
-        <f>SUM(S109:U109)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z109">
-        <f>SUM(V109:X109)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AA109">
@@ -13681,7 +13681,7 @@
         <v>9</v>
       </c>
       <c r="P110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="R110" s="3" t="s">
@@ -13706,11 +13706,11 @@
         <v>0</v>
       </c>
       <c r="Y110">
-        <f>SUM(S110:U110)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z110">
-        <f>SUM(V110:X110)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA110">
@@ -13767,7 +13767,7 @@
         <v>20</v>
       </c>
       <c r="P111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.333333333333333</v>
       </c>
       <c r="R111" s="3" t="s">
@@ -13792,11 +13792,11 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <f>SUM(S111:U111)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z111">
-        <f>SUM(V111:X111)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA111">
@@ -13853,7 +13853,7 @@
         <v>4</v>
       </c>
       <c r="P112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.333333333333333</v>
       </c>
       <c r="R112" s="3" t="s">
@@ -13878,11 +13878,11 @@
         <v>0</v>
       </c>
       <c r="Y112">
-        <f>SUM(S112:U112)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z112">
-        <f>SUM(V112:X112)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA112">
@@ -13939,7 +13939,7 @@
         <v>8</v>
       </c>
       <c r="P113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="R113" s="3" t="s">
@@ -13964,11 +13964,11 @@
         <v>0</v>
       </c>
       <c r="Y113">
-        <f>SUM(S113:U113)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z113">
-        <f>SUM(V113:X113)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA113">
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="P114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="R114" s="3" t="s">
@@ -14050,11 +14050,11 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <f>SUM(S114:U114)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z114">
-        <f>SUM(V114:X114)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA114">
@@ -14111,7 +14111,7 @@
         <v>4</v>
       </c>
       <c r="P115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="R115" s="3" t="s">
@@ -14136,11 +14136,11 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <f>SUM(S115:U115)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z115">
-        <f>SUM(V115:X115)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA115">
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="P116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R116" s="3" t="s">
@@ -14222,11 +14222,11 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <f>SUM(S116:U116)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z116">
-        <f>SUM(V116:X116)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA116">
@@ -14283,7 +14283,7 @@
         <v>5</v>
       </c>
       <c r="P117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R117" s="3" t="s">
@@ -14308,11 +14308,11 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <f>SUM(S117:U117)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z117">
-        <f>SUM(V117:X117)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA117">
@@ -14369,7 +14369,7 @@
         <v>3</v>
       </c>
       <c r="P118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="R118" s="3" t="s">
@@ -14394,11 +14394,11 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <f>SUM(S118:U118)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z118">
-        <f>SUM(V118:X118)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA118">
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="P119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R119" s="3" t="s">
@@ -14480,11 +14480,11 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <f>SUM(S119:U119)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z119">
-        <f>SUM(V119:X119)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA119">
@@ -14541,7 +14541,7 @@
         <v>9</v>
       </c>
       <c r="P120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R120" s="3" t="s">
@@ -14566,11 +14566,11 @@
         <v>0</v>
       </c>
       <c r="Y120">
-        <f>SUM(S120:U120)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z120">
-        <f>SUM(V120:X120)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA120">
@@ -14627,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="P121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="R121" s="3" t="s">
@@ -14652,11 +14652,11 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <f>SUM(S121:U121)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z121">
-        <f>SUM(V121:X121)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA121">
@@ -14713,7 +14713,7 @@
         <v>8</v>
       </c>
       <c r="P122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
       <c r="R122" s="3" t="s">
@@ -14738,11 +14738,11 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <f>SUM(S122:U122)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z122">
-        <f>SUM(V122:X122)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA122">
@@ -14799,7 +14799,7 @@
         <v>10</v>
       </c>
       <c r="P123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
       <c r="R123" s="3" t="s">
@@ -14824,11 +14824,11 @@
         <v>0</v>
       </c>
       <c r="Y123">
-        <f>SUM(S123:U123)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z123">
-        <f>SUM(V123:X123)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA123">
@@ -14885,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="P124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R124" s="3" t="s">
@@ -14910,11 +14910,11 @@
         <v>0</v>
       </c>
       <c r="Y124">
-        <f>SUM(S124:U124)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Z124">
-        <f>SUM(V124:X124)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA124">
@@ -14971,7 +14971,7 @@
         <v>6</v>
       </c>
       <c r="P125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R125" s="3" t="s">
@@ -14996,11 +14996,11 @@
         <v>1</v>
       </c>
       <c r="Y125">
-        <f>SUM(S125:U125)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z125">
-        <f>SUM(V125:X125)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AA125">
@@ -15057,7 +15057,7 @@
         <v>2</v>
       </c>
       <c r="P126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="R126" s="3" t="s">
@@ -15082,11 +15082,11 @@
         <v>1</v>
       </c>
       <c r="Y126">
-        <f>SUM(S126:U126)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z126">
-        <f>SUM(V126:X126)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AA126">
@@ -15143,7 +15143,7 @@
         <v>3</v>
       </c>
       <c r="P127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R127" s="3" t="s">
@@ -15168,11 +15168,11 @@
         <v>1</v>
       </c>
       <c r="Y127">
-        <f>SUM(S127:U127)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z127">
-        <f>SUM(V127:X127)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AA127">
@@ -15229,7 +15229,7 @@
         <v>5</v>
       </c>
       <c r="P128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R128" s="3" t="s">
@@ -15254,11 +15254,11 @@
         <v>1</v>
       </c>
       <c r="Y128">
-        <f>SUM(S128:U128)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z128">
-        <f>SUM(V128:X128)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AA128">
@@ -15315,7 +15315,7 @@
         <v>5</v>
       </c>
       <c r="P129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="R129" s="3" t="s">
@@ -15340,11 +15340,11 @@
         <v>1</v>
       </c>
       <c r="Y129">
-        <f>SUM(S129:U129)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z129">
-        <f>SUM(V129:X129)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AA129">
@@ -15401,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="P130">
-        <f t="shared" ref="P130:P161" si="10">AVERAGE(J130:O130)</f>
+        <f t="shared" ref="P130:P161" si="18">AVERAGE(J130:O130)</f>
         <v>3</v>
       </c>
       <c r="R130" s="3" t="s">
@@ -15426,11 +15426,11 @@
         <v>1</v>
       </c>
       <c r="Y130">
-        <f>SUM(S130:U130)</f>
+        <f t="shared" ref="Y130:Y161" si="19">SUM(S130:U130)</f>
         <v>1</v>
       </c>
       <c r="Z130">
-        <f>SUM(V130:X130)</f>
+        <f t="shared" ref="Z130:Z161" si="20">SUM(V130:X130)</f>
         <v>2</v>
       </c>
       <c r="AA130">
@@ -15487,7 +15487,7 @@
         <v>5</v>
       </c>
       <c r="P131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R131" s="3" t="s">
@@ -15512,11 +15512,11 @@
         <v>1</v>
       </c>
       <c r="Y131">
-        <f>SUM(S131:U131)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z131">
-        <f>SUM(V131:X131)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA131">
@@ -15573,7 +15573,7 @@
         <v>2</v>
       </c>
       <c r="P132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R132" s="3" t="s">
@@ -15598,11 +15598,11 @@
         <v>1</v>
       </c>
       <c r="Y132">
-        <f>SUM(S132:U132)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z132">
-        <f>SUM(V132:X132)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA132">
@@ -15659,7 +15659,7 @@
         <v>2</v>
       </c>
       <c r="P133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R133" s="3" t="s">
@@ -15684,11 +15684,11 @@
         <v>1</v>
       </c>
       <c r="Y133">
-        <f>SUM(S133:U133)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z133">
-        <f>SUM(V133:X133)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA133">
@@ -15745,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="P134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R134" s="3" t="s">
@@ -15770,11 +15770,11 @@
         <v>1</v>
       </c>
       <c r="Y134">
-        <f>SUM(S134:U134)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z134">
-        <f>SUM(V134:X134)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA134">
@@ -15831,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="P135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R135" s="3" t="s">
@@ -15856,11 +15856,11 @@
         <v>1</v>
       </c>
       <c r="Y135">
-        <f>SUM(S135:U135)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z135">
-        <f>SUM(V135:X135)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA135">
@@ -15917,7 +15917,7 @@
         <v>9</v>
       </c>
       <c r="P136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R136" s="3" t="s">
@@ -15942,11 +15942,11 @@
         <v>1</v>
       </c>
       <c r="Y136">
-        <f>SUM(S136:U136)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z136">
-        <f>SUM(V136:X136)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA136">
@@ -16003,7 +16003,7 @@
         <v>9</v>
       </c>
       <c r="P137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R137" s="3" t="s">
@@ -16028,11 +16028,11 @@
         <v>0</v>
       </c>
       <c r="Y137">
-        <f>SUM(S137:U137)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z137">
-        <f>SUM(V137:X137)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA137">
@@ -16089,7 +16089,7 @@
         <v>2</v>
       </c>
       <c r="P138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R138" s="3" t="s">
@@ -16114,11 +16114,11 @@
         <v>1</v>
       </c>
       <c r="Y138">
-        <f>SUM(S138:U138)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z138">
-        <f>SUM(V138:X138)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA138">
@@ -16175,7 +16175,7 @@
         <v>3</v>
       </c>
       <c r="P139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R139" s="3" t="s">
@@ -16200,11 +16200,11 @@
         <v>1</v>
       </c>
       <c r="Y139">
-        <f>SUM(S139:U139)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z139">
-        <f>SUM(V139:X139)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA139">
@@ -16261,7 +16261,7 @@
         <v>4</v>
       </c>
       <c r="P140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="R140" s="3" t="s">
@@ -16286,11 +16286,11 @@
         <v>1</v>
       </c>
       <c r="Y140">
-        <f>SUM(S140:U140)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z140">
-        <f>SUM(V140:X140)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA140">
@@ -16347,7 +16347,7 @@
         <v>6</v>
       </c>
       <c r="P141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R141" s="3" t="s">
@@ -16372,11 +16372,11 @@
         <v>1</v>
       </c>
       <c r="Y141">
-        <f>SUM(S141:U141)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z141">
-        <f>SUM(V141:X141)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA141">
@@ -16433,7 +16433,7 @@
         <v>3</v>
       </c>
       <c r="P142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R142" s="3" t="s">
@@ -16458,11 +16458,11 @@
         <v>1</v>
       </c>
       <c r="Y142">
-        <f>SUM(S142:U142)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z142">
-        <f>SUM(V142:X142)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA142">
@@ -16519,7 +16519,7 @@
         <v>10</v>
       </c>
       <c r="P143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R143" s="3" t="s">
@@ -16544,11 +16544,11 @@
         <v>1</v>
       </c>
       <c r="Y143">
-        <f>SUM(S143:U143)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z143">
-        <f>SUM(V143:X143)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA143">
@@ -16605,7 +16605,7 @@
         <v>6</v>
       </c>
       <c r="P144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R144" s="3" t="s">
@@ -16630,11 +16630,11 @@
         <v>1</v>
       </c>
       <c r="Y144">
-        <f>SUM(S144:U144)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z144">
-        <f>SUM(V144:X144)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA144">
@@ -16691,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="P145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R145" s="3" t="s">
@@ -16716,11 +16716,11 @@
         <v>1</v>
       </c>
       <c r="Y145">
-        <f>SUM(S145:U145)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z145">
-        <f>SUM(V145:X145)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA145">
@@ -16777,7 +16777,7 @@
         <v>3</v>
       </c>
       <c r="P146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R146" s="3" t="s">
@@ -16802,11 +16802,11 @@
         <v>1</v>
       </c>
       <c r="Y146">
-        <f>SUM(S146:U146)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z146">
-        <f>SUM(V146:X146)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA146">
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="P147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R147" s="3" t="s">
@@ -16888,11 +16888,11 @@
         <v>1</v>
       </c>
       <c r="Y147">
-        <f>SUM(S147:U147)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z147">
-        <f>SUM(V147:X147)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA147">
@@ -16949,7 +16949,7 @@
         <v>3</v>
       </c>
       <c r="P148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R148" s="3" t="s">
@@ -16974,11 +16974,11 @@
         <v>1</v>
       </c>
       <c r="Y148">
-        <f>SUM(S148:U148)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z148">
-        <f>SUM(V148:X148)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA148">
@@ -17035,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="P149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R149" s="3" t="s">
@@ -17060,11 +17060,11 @@
         <v>1</v>
       </c>
       <c r="Y149">
-        <f>SUM(S149:U149)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z149">
-        <f>SUM(V149:X149)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA149">
@@ -17121,7 +17121,7 @@
         <v>3</v>
       </c>
       <c r="P150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R150" s="3" t="s">
@@ -17146,11 +17146,11 @@
         <v>1</v>
       </c>
       <c r="Y150">
-        <f>SUM(S150:U150)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z150">
-        <f>SUM(V150:X150)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA150">
@@ -17207,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="P151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R151" s="3" t="s">
@@ -17232,11 +17232,11 @@
         <v>1</v>
       </c>
       <c r="Y151">
-        <f>SUM(S151:U151)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z151">
-        <f>SUM(V151:X151)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA151">
@@ -17293,7 +17293,7 @@
         <v>1</v>
       </c>
       <c r="P152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R152" s="3" t="s">
@@ -17318,11 +17318,11 @@
         <v>1</v>
       </c>
       <c r="Y152">
-        <f>SUM(S152:U152)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z152">
-        <f>SUM(V152:X152)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA152">
@@ -17379,7 +17379,7 @@
         <v>5</v>
       </c>
       <c r="P153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R153" s="3" t="s">
@@ -17404,11 +17404,11 @@
         <v>1</v>
       </c>
       <c r="Y153">
-        <f>SUM(S153:U153)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z153">
-        <f>SUM(V153:X153)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA153">
@@ -17465,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="P154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R154" s="3" t="s">
@@ -17490,11 +17490,11 @@
         <v>1</v>
       </c>
       <c r="Y154">
-        <f>SUM(S154:U154)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z154">
-        <f>SUM(V154:X154)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA154">
@@ -17551,7 +17551,7 @@
         <v>4</v>
       </c>
       <c r="P155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="R155" s="3" t="s">
@@ -17576,11 +17576,11 @@
         <v>1</v>
       </c>
       <c r="Y155">
-        <f>SUM(S155:U155)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z155">
-        <f>SUM(V155:X155)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA155">
@@ -17637,7 +17637,7 @@
         <v>2</v>
       </c>
       <c r="P156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R156" s="3" t="s">
@@ -17662,11 +17662,11 @@
         <v>1</v>
       </c>
       <c r="Y156">
-        <f>SUM(S156:U156)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z156">
-        <f>SUM(V156:X156)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA156">
@@ -17723,7 +17723,7 @@
         <v>5</v>
       </c>
       <c r="P157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R157" s="3" t="s">
@@ -17748,11 +17748,11 @@
         <v>1</v>
       </c>
       <c r="Y157">
-        <f>SUM(S157:U157)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z157">
-        <f>SUM(V157:X157)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA157">
@@ -17809,7 +17809,7 @@
         <v>4</v>
       </c>
       <c r="P158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R158" s="3" t="s">
@@ -17834,11 +17834,11 @@
         <v>1</v>
       </c>
       <c r="Y158">
-        <f>SUM(S158:U158)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z158">
-        <f>SUM(V158:X158)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA158">
@@ -17895,7 +17895,7 @@
         <v>1</v>
       </c>
       <c r="P159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R159" s="3" t="s">
@@ -17920,11 +17920,11 @@
         <v>1</v>
       </c>
       <c r="Y159">
-        <f>SUM(S159:U159)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z159">
-        <f>SUM(V159:X159)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA159">
@@ -17981,7 +17981,7 @@
         <v>5</v>
       </c>
       <c r="P160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R160" s="3" t="s">
@@ -18006,11 +18006,11 @@
         <v>1</v>
       </c>
       <c r="Y160">
-        <f>SUM(S160:U160)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z160">
-        <f>SUM(V160:X160)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA160">
@@ -18067,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="P161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R161" s="3" t="s">
@@ -18092,11 +18092,11 @@
         <v>1</v>
       </c>
       <c r="Y161">
-        <f>SUM(S161:U161)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z161">
-        <f>SUM(V161:X161)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AA161">
@@ -18153,7 +18153,7 @@
         <v>2</v>
       </c>
       <c r="P162">
-        <f t="shared" ref="P162:P193" si="11">AVERAGE(J162:O162)</f>
+        <f t="shared" ref="P162:P193" si="21">AVERAGE(J162:O162)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="R162" s="3" t="s">
@@ -18178,11 +18178,11 @@
         <v>1</v>
       </c>
       <c r="Y162">
-        <f>SUM(S162:U162)</f>
+        <f t="shared" ref="Y162:Y194" si="22">SUM(S162:U162)</f>
         <v>1</v>
       </c>
       <c r="Z162">
-        <f>SUM(V162:X162)</f>
+        <f t="shared" ref="Z162:Z194" si="23">SUM(V162:X162)</f>
         <v>2</v>
       </c>
       <c r="AA162">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="P163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R163" s="3" t="s">
@@ -18264,11 +18264,11 @@
         <v>1</v>
       </c>
       <c r="Y163">
-        <f>SUM(S163:U163)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z163">
-        <f>SUM(V163:X163)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA163">
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="P164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="R164" s="3" t="s">
@@ -18350,11 +18350,11 @@
         <v>1</v>
       </c>
       <c r="Y164">
-        <f>SUM(S164:U164)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z164">
-        <f>SUM(V164:X164)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA164">
@@ -18411,7 +18411,7 @@
         <v>3</v>
       </c>
       <c r="P165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R165" s="3" t="s">
@@ -18436,11 +18436,11 @@
         <v>1</v>
       </c>
       <c r="Y165">
-        <f>SUM(S165:U165)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z165">
-        <f>SUM(V165:X165)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA165">
@@ -18497,7 +18497,7 @@
         <v>2</v>
       </c>
       <c r="P166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R166" s="3" t="s">
@@ -18522,11 +18522,11 @@
         <v>1</v>
       </c>
       <c r="Y166">
-        <f>SUM(S166:U166)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z166">
-        <f>SUM(V166:X166)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA166">
@@ -18583,7 +18583,7 @@
         <v>3</v>
       </c>
       <c r="P167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R167" s="3" t="s">
@@ -18608,11 +18608,11 @@
         <v>1</v>
       </c>
       <c r="Y167">
-        <f>SUM(S167:U167)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z167">
-        <f>SUM(V167:X167)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA167">
@@ -18669,7 +18669,7 @@
         <v>5</v>
       </c>
       <c r="P168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R168" s="3" t="s">
@@ -18694,11 +18694,11 @@
         <v>1</v>
       </c>
       <c r="Y168">
-        <f>SUM(S168:U168)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z168">
-        <f>SUM(V168:X168)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA168">
@@ -18755,7 +18755,7 @@
         <v>1</v>
       </c>
       <c r="P169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R169" s="3" t="s">
@@ -18780,11 +18780,11 @@
         <v>1</v>
       </c>
       <c r="Y169">
-        <f>SUM(S169:U169)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z169">
-        <f>SUM(V169:X169)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA169">
@@ -18841,7 +18841,7 @@
         <v>2</v>
       </c>
       <c r="P170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R170" s="3" t="s">
@@ -18866,11 +18866,11 @@
         <v>1</v>
       </c>
       <c r="Y170">
-        <f>SUM(S170:U170)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z170">
-        <f>SUM(V170:X170)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AA170">
@@ -18927,7 +18927,7 @@
         <v>3</v>
       </c>
       <c r="P171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R171" s="3" t="s">
@@ -18952,11 +18952,11 @@
         <v>0</v>
       </c>
       <c r="Y171">
-        <f>SUM(S171:U171)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z171">
-        <f>SUM(V171:X171)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AA171">
@@ -19013,7 +19013,7 @@
         <v>3</v>
       </c>
       <c r="P172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="R172" s="3" t="s">
@@ -19038,11 +19038,11 @@
         <v>1</v>
       </c>
       <c r="Y172">
-        <f>SUM(S172:U172)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z172">
-        <f>SUM(V172:X172)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AA172">
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="P173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R173" s="3" t="s">
@@ -19124,11 +19124,11 @@
         <v>1</v>
       </c>
       <c r="Y173">
-        <f>SUM(S173:U173)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z173">
-        <f>SUM(V173:X173)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AA173">
@@ -19185,7 +19185,7 @@
         <v>2</v>
       </c>
       <c r="P174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R174" s="3" t="s">
@@ -19210,11 +19210,11 @@
         <v>1</v>
       </c>
       <c r="Y174">
-        <f>SUM(S174:U174)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z174">
-        <f>SUM(V174:X174)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AA174">
@@ -19271,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="P175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R175" s="3" t="s">
@@ -19296,11 +19296,11 @@
         <v>1</v>
       </c>
       <c r="Y175">
-        <f>SUM(S175:U175)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z175">
-        <f>SUM(V175:X175)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA175">
@@ -19357,7 +19357,7 @@
         <v>3</v>
       </c>
       <c r="P176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R176" s="3" t="s">
@@ -19382,11 +19382,11 @@
         <v>1</v>
       </c>
       <c r="Y176">
-        <f>SUM(S176:U176)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z176">
-        <f>SUM(V176:X176)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA176">
@@ -19443,7 +19443,7 @@
         <v>3</v>
       </c>
       <c r="P177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R177" s="3" t="s">
@@ -19468,11 +19468,11 @@
         <v>1</v>
       </c>
       <c r="Y177">
-        <f>SUM(S177:U177)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z177">
-        <f>SUM(V177:X177)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA177">
@@ -19529,7 +19529,7 @@
         <v>4</v>
       </c>
       <c r="P178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="R178" s="3" t="s">
@@ -19554,11 +19554,11 @@
         <v>1</v>
       </c>
       <c r="Y178">
-        <f>SUM(S178:U178)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z178">
-        <f>SUM(V178:X178)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA178">
@@ -19615,7 +19615,7 @@
         <v>2</v>
       </c>
       <c r="P179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R179" s="3" t="s">
@@ -19640,11 +19640,11 @@
         <v>1</v>
       </c>
       <c r="Y179">
-        <f>SUM(S179:U179)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z179">
-        <f>SUM(V179:X179)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA179">
@@ -19701,7 +19701,7 @@
         <v>2</v>
       </c>
       <c r="P180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R180" s="3" t="s">
@@ -19726,11 +19726,11 @@
         <v>1</v>
       </c>
       <c r="Y180">
-        <f>SUM(S180:U180)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z180">
-        <f>SUM(V180:X180)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA180">
@@ -19787,7 +19787,7 @@
         <v>3</v>
       </c>
       <c r="P181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R181" s="3" t="s">
@@ -19812,11 +19812,11 @@
         <v>1</v>
       </c>
       <c r="Y181">
-        <f>SUM(S181:U181)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z181">
-        <f>SUM(V181:X181)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA181">
@@ -19873,7 +19873,7 @@
         <v>1</v>
       </c>
       <c r="P182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R182" s="3" t="s">
@@ -19898,11 +19898,11 @@
         <v>1</v>
       </c>
       <c r="Y182">
-        <f>SUM(S182:U182)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z182">
-        <f>SUM(V182:X182)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA182">
@@ -19959,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="P183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R183" s="3" t="s">
@@ -19984,11 +19984,11 @@
         <v>1</v>
       </c>
       <c r="Y183">
-        <f>SUM(S183:U183)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z183">
-        <f>SUM(V183:X183)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA183">
@@ -20045,7 +20045,7 @@
         <v>3</v>
       </c>
       <c r="P184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R184" s="3" t="s">
@@ -20070,11 +20070,11 @@
         <v>1</v>
       </c>
       <c r="Y184">
-        <f>SUM(S184:U184)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z184">
-        <f>SUM(V184:X184)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA184">
@@ -20131,7 +20131,7 @@
         <v>2</v>
       </c>
       <c r="P185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R185" s="3" t="s">
@@ -20156,11 +20156,11 @@
         <v>1</v>
       </c>
       <c r="Y185">
-        <f>SUM(S185:U185)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z185">
-        <f>SUM(V185:X185)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA185">
@@ -20217,7 +20217,7 @@
         <v>3</v>
       </c>
       <c r="P186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R186" s="3" t="s">
@@ -20242,11 +20242,11 @@
         <v>1</v>
       </c>
       <c r="Y186">
-        <f>SUM(S186:U186)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z186">
-        <f>SUM(V186:X186)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA186">
@@ -20303,7 +20303,7 @@
         <v>2</v>
       </c>
       <c r="P187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="R187" s="3" t="s">
@@ -20328,11 +20328,11 @@
         <v>1</v>
       </c>
       <c r="Y187">
-        <f>SUM(S187:U187)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z187">
-        <f>SUM(V187:X187)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA187">
@@ -20389,7 +20389,7 @@
         <v>1</v>
       </c>
       <c r="P188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="R188" s="3" t="s">
@@ -20414,11 +20414,11 @@
         <v>1</v>
       </c>
       <c r="Y188">
-        <f>SUM(S188:U188)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z188">
-        <f>SUM(V188:X188)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA188">
@@ -20475,7 +20475,7 @@
         <v>2</v>
       </c>
       <c r="P189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="R189" s="3" t="s">
@@ -20500,11 +20500,11 @@
         <v>1</v>
       </c>
       <c r="Y189">
-        <f>SUM(S189:U189)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z189">
-        <f>SUM(V189:X189)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA189">
@@ -20561,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="P190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="R190" s="3" t="s">
@@ -20586,11 +20586,11 @@
         <v>1</v>
       </c>
       <c r="Y190">
-        <f>SUM(S190:U190)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z190">
-        <f>SUM(V190:X190)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA190">
@@ -20647,7 +20647,7 @@
         <v>3</v>
       </c>
       <c r="P191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="R191" s="3" t="s">
@@ -20672,11 +20672,11 @@
         <v>1</v>
       </c>
       <c r="Y191">
-        <f>SUM(S191:U191)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z191">
-        <f>SUM(V191:X191)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA191">
@@ -20733,7 +20733,7 @@
         <v>1</v>
       </c>
       <c r="P192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="R192" s="3" t="s">
@@ -20758,11 +20758,11 @@
         <v>1</v>
       </c>
       <c r="Y192">
-        <f>SUM(S192:U192)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z192">
-        <f>SUM(V192:X192)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA192">
@@ -20819,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="P193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="R193" s="3" t="s">
@@ -20844,11 +20844,11 @@
         <v>1</v>
       </c>
       <c r="Y193">
-        <f>SUM(S193:U193)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z193">
-        <f>SUM(V193:X193)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA193">
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
       <c r="P194">
-        <f t="shared" ref="P194" si="12">AVERAGE(J194:O194)</f>
+        <f t="shared" ref="P194" si="24">AVERAGE(J194:O194)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="R194" s="3" t="s">
@@ -20930,11 +20930,11 @@
         <v>1</v>
       </c>
       <c r="Y194">
-        <f>SUM(S194:U194)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z194">
-        <f>SUM(V194:X194)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA194">
@@ -20947,23 +20947,23 @@
         <v>3940</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195" si="13">SUM(C2:C194)</f>
+        <f t="shared" ref="C195" si="25">SUM(C2:C194)</f>
         <v>1378</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195" si="14">SUM(D2:D194)</f>
+        <f t="shared" ref="D195" si="26">SUM(D2:D194)</f>
         <v>1157</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195" si="15">SUM(E2:E194)</f>
+        <f t="shared" ref="E195" si="27">SUM(E2:E194)</f>
         <v>24795</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195" si="16">SUM(F2:F194)</f>
+        <f t="shared" ref="F195" si="28">SUM(F2:F194)</f>
         <v>2069</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195" si="17">SUM(G2:G194)</f>
+        <f t="shared" ref="G195" si="29">SUM(G2:G194)</f>
         <v>4507</v>
       </c>
       <c r="S195">
@@ -20971,23 +20971,23 @@
         <v>154</v>
       </c>
       <c r="T195">
-        <f t="shared" ref="T195:X195" si="18">SUM(T2:T194)</f>
+        <f t="shared" ref="T195:X195" si="30">SUM(T2:T194)</f>
         <v>32</v>
       </c>
       <c r="U195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>122</v>
       </c>
       <c r="V195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="W195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="X195">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>159</v>
       </c>
     </row>
@@ -35159,8 +35159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35194,10 +35194,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>724</v>
@@ -35215,10 +35215,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>361</v>
@@ -35236,10 +35236,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>578</v>
+        <v>734</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>544</v>
@@ -35257,10 +35257,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>498</v>
@@ -35278,10 +35278,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>435</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>424</v>
@@ -35299,10 +35299,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>627</v>
@@ -35320,10 +35320,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>687</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>409</v>
@@ -35341,10 +35341,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>546</v>
@@ -35362,10 +35362,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>628</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>762</v>
@@ -35383,10 +35383,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>527</v>
@@ -35404,10 +35404,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>395</v>
@@ -35425,10 +35425,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>435</v>
@@ -35446,10 +35446,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>544</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>513</v>
@@ -35467,10 +35467,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>515</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>607</v>
@@ -35488,10 +35488,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>731</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>827</v>
+        <v>865</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>562</v>
@@ -35509,10 +35509,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>668</v>
@@ -35530,10 +35530,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>506</v>
+        <v>756</v>
       </c>
       <c r="B18" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>638</v>
@@ -35551,10 +35551,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>423</v>
+        <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>352</v>
@@ -35572,10 +35572,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>401</v>
+        <v>707</v>
       </c>
       <c r="B20" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>341</v>
@@ -35593,10 +35593,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>677</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>346</v>
@@ -35614,10 +35614,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>546</v>
+        <v>657</v>
       </c>
       <c r="B22" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>584</v>
@@ -35635,10 +35635,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>547</v>
+        <v>699</v>
       </c>
       <c r="B23" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>655</v>
@@ -35656,10 +35656,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>514</v>
+        <v>670</v>
       </c>
       <c r="B24" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>534</v>
@@ -35677,10 +35677,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>736</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>370</v>
@@ -35698,10 +35698,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>395</v>
+        <v>638</v>
       </c>
       <c r="B26" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>413</v>
@@ -35719,10 +35719,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>534</v>
+        <v>751</v>
       </c>
       <c r="B27" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>515</v>
@@ -35740,10 +35740,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>604</v>
+        <v>749</v>
       </c>
       <c r="B28" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>616</v>
@@ -35762,18 +35762,18 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>699</v>
+        <v>616</v>
       </c>
       <c r="B29" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>686</v>
+        <v>613</v>
       </c>
       <c r="B30" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="H30" t="s">
         <v>823</v>
@@ -35784,10 +35784,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="B31" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="H31" t="s">
         <v>848</v>
@@ -35798,10 +35798,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>375</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="H32" t="s">
         <v>818</v>
@@ -35812,10 +35812,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>576</v>
+        <v>686</v>
       </c>
       <c r="B33" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="H33" t="s">
         <v>862</v>
@@ -35826,10 +35826,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H34" t="s">
         <v>845</v>
@@ -35840,10 +35840,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="B35" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="H35" t="s">
         <v>865</v>
@@ -35854,10 +35854,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>484</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="H36" t="s">
         <v>860</v>
@@ -35868,10 +35868,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="B37" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="H37" t="s">
         <v>842</v>
@@ -35882,10 +35882,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>391</v>
+        <v>562</v>
       </c>
       <c r="B38" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H38" t="s">
         <v>836</v>
@@ -35896,10 +35896,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>543</v>
+        <v>424</v>
       </c>
       <c r="B39" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="H39" t="s">
         <v>847</v>
@@ -35910,10 +35910,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="B40" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="H40" t="s">
         <v>825</v>
@@ -35924,10 +35924,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H41" t="s">
         <v>846</v>
@@ -35938,10 +35938,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="B42" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="H42" t="s">
         <v>822</v>
@@ -35952,10 +35952,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>407</v>
+        <v>540</v>
       </c>
       <c r="B43" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="H43" t="s">
         <v>839</v>
@@ -35966,10 +35966,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="B44" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="H44" t="s">
         <v>869</v>
@@ -35980,7 +35980,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B45" t="s">
         <v>843</v>
@@ -35994,10 +35994,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>739</v>
+        <v>612</v>
       </c>
       <c r="B46" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="H46" t="s">
         <v>864</v>
@@ -36008,10 +36008,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>737</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="H47" t="s">
         <v>821</v>
@@ -36022,10 +36022,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>417</v>
+        <v>687</v>
       </c>
       <c r="B48" t="s">
-        <v>868</v>
+        <v>827</v>
       </c>
       <c r="H48" t="s">
         <v>838</v>
@@ -36036,10 +36036,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="B49" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="H49" t="s">
         <v>829</v>
@@ -36050,7 +36050,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="B50" t="s">
         <v>827</v>
@@ -36064,7 +36064,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="B51" t="s">
         <v>827</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B52" t="s">
         <v>827</v>
@@ -36092,10 +36092,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>380</v>
+        <v>731</v>
       </c>
       <c r="B53" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="H53" t="s">
         <v>858</v>
@@ -36106,10 +36106,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="B54" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="H54" t="s">
         <v>867</v>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="H55" t="s">
         <v>824</v>
@@ -36134,63 +36134,63 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>346</v>
+        <v>677</v>
       </c>
       <c r="B56" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="B57" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="B58" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>640</v>
+        <v>514</v>
       </c>
       <c r="B59" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="B60" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>489</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="B63" t="s">
         <v>827</v>
@@ -36198,7 +36198,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>702</v>
+        <v>571</v>
       </c>
       <c r="B64" t="s">
         <v>827</v>
@@ -36206,127 +36206,127 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>523</v>
+        <v>702</v>
       </c>
       <c r="B68" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>594</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>562</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>332</v>
+        <v>663</v>
       </c>
       <c r="B72" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
       <c r="B73" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="B74" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="B75" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>333</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>334</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>521</v>
+        <v>385</v>
       </c>
       <c r="B79" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>400</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s">
         <v>827</v>
@@ -36334,39 +36334,39 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>560</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>657</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="B83" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>581</v>
+        <v>692</v>
       </c>
       <c r="B84" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="B85" t="s">
         <v>827</v>
@@ -36374,23 +36374,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="B86" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s">
         <v>827</v>
@@ -36398,23 +36398,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>705</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>553</v>
+        <v>759</v>
       </c>
       <c r="B90" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>663</v>
+        <v>595</v>
       </c>
       <c r="B91" t="s">
         <v>827</v>
@@ -36422,23 +36422,23 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="B92" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="B93" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>654</v>
+        <v>399</v>
       </c>
       <c r="B94" t="s">
         <v>827</v>
@@ -36446,7 +36446,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s">
         <v>827</v>
@@ -36454,23 +36454,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>646</v>
+        <v>472</v>
       </c>
       <c r="B96" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>700</v>
+        <v>412</v>
       </c>
       <c r="B97" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>631</v>
+        <v>755</v>
       </c>
       <c r="B98" t="s">
         <v>827</v>
@@ -36478,7 +36478,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
         <v>827</v>
@@ -36486,15 +36486,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>414</v>
+        <v>656</v>
       </c>
       <c r="B100" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="B101" t="s">
         <v>827</v>
@@ -36502,7 +36502,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s">
         <v>827</v>
@@ -36510,31 +36510,31 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="B103" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="B104" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>425</v>
+        <v>584</v>
       </c>
       <c r="B105" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B106" t="s">
         <v>841</v>
@@ -36542,87 +36542,87 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="B107" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>541</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>668</v>
+        <v>375</v>
       </c>
       <c r="B109" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="B110" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>726</v>
+        <v>387</v>
       </c>
       <c r="B111" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>727</v>
+        <v>531</v>
       </c>
       <c r="B112" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="B113" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="B114" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>579</v>
+        <v>448</v>
       </c>
       <c r="B115" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>451</v>
+        <v>553</v>
       </c>
       <c r="B117" t="s">
         <v>841</v>
@@ -36630,26 +36630,26 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>772</v>
+        <v>646</v>
       </c>
       <c r="B118" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="B119" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B120" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -36670,199 +36670,199 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="B123" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>762</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>507</v>
+        <v>648</v>
       </c>
       <c r="B125" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>632</v>
+        <v>454</v>
       </c>
       <c r="B127" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>752</v>
+        <v>533</v>
       </c>
       <c r="B128" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>379</v>
+        <v>647</v>
       </c>
       <c r="B129" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="B130" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B131" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>692</v>
+        <v>577</v>
       </c>
       <c r="B132" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>751</v>
+        <v>489</v>
       </c>
       <c r="B133" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>335</v>
+        <v>739</v>
       </c>
       <c r="B134" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
       <c r="B135" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>474</v>
+        <v>649</v>
       </c>
       <c r="B136" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>749</v>
+        <v>578</v>
       </c>
       <c r="B139" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>539</v>
+        <v>421</v>
       </c>
       <c r="B140" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="B141" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>337</v>
+        <v>482</v>
       </c>
       <c r="B142" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>361</v>
+        <v>729</v>
       </c>
       <c r="B144" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>481</v>
+        <v>684</v>
       </c>
       <c r="B145" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>433</v>
+        <v>763</v>
       </c>
       <c r="B146" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="B147" t="s">
         <v>850</v>
@@ -36870,23 +36870,23 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>748</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
-        <v>850</v>
+        <v>821</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>670</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>593</v>
+        <v>423</v>
       </c>
       <c r="B150" t="s">
         <v>820</v>
@@ -36894,359 +36894,359 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="B151" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="B152" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>457</v>
+        <v>700</v>
       </c>
       <c r="B153" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>750</v>
+        <v>632</v>
       </c>
       <c r="B154" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>447</v>
+        <v>752</v>
       </c>
       <c r="B155" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="B156" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B158" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>421</v>
+        <v>727</v>
       </c>
       <c r="B159" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B160" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>756</v>
+        <v>435</v>
       </c>
       <c r="B161" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>648</v>
+        <v>762</v>
       </c>
       <c r="B162" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>759</v>
+        <v>507</v>
       </c>
       <c r="B163" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>595</v>
+        <v>417</v>
       </c>
       <c r="B164" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>672</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>398</v>
+        <v>518</v>
       </c>
       <c r="B167" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>399</v>
+        <v>637</v>
       </c>
       <c r="B168" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>378</v>
+        <v>609</v>
       </c>
       <c r="B169" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="B170" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>607</v>
+        <v>750</v>
       </c>
       <c r="B171" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="B172" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>412</v>
+        <v>628</v>
       </c>
       <c r="B173" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>471</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>454</v>
+        <v>772</v>
       </c>
       <c r="B175" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>755</v>
+        <v>361</v>
       </c>
       <c r="B176" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="B178" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>656</v>
+        <v>433</v>
       </c>
       <c r="B179" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B180" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>647</v>
+        <v>560</v>
       </c>
       <c r="B181" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="B182" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
       <c r="B183" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>627</v>
+        <v>534</v>
       </c>
       <c r="B184" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>678</v>
+        <v>394</v>
       </c>
       <c r="B186" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>649</v>
+        <v>346</v>
       </c>
       <c r="B187" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>577</v>
+        <v>347</v>
       </c>
       <c r="B188" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>613</v>
+        <v>333</v>
       </c>
       <c r="B189" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>485</v>
+        <v>334</v>
       </c>
       <c r="B190" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>352</v>
+        <v>513</v>
       </c>
       <c r="B191" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="B192" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>517</v>
+        <v>668</v>
       </c>
       <c r="B193" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>482</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I54">
-    <sortCondition descending="1" ref="I1:I54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B194">
+    <sortCondition ref="B2:B194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -41769,7 +41769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DA055-C58C-974D-981B-8C6582101D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C25623A-2FE0-5647-B7A4-1D20C2BC54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4200" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -3988,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFBD464-A7BC-3341-8F04-93E577BF9587}">
   <dimension ref="A1:BE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ35" sqref="AZ35"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4274,6 +4274,14 @@
         <f>VLOOKUP($AD2,$J$1:$P$194,7,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="AK2">
+        <f>SUM(AE2:AJ2)</f>
+        <v>13</v>
+      </c>
+      <c r="AL2">
+        <f>AVERAGE(AE2:AJ2)</f>
+        <v>2.1666666666666665</v>
+      </c>
       <c r="AM2" t="s">
         <v>724</v>
       </c>
@@ -4453,6 +4461,14 @@
         <f t="shared" ref="AJ3:AJ41" si="10">VLOOKUP($AD3,$J$1:$P$194,7,FALSE)</f>
         <v>6</v>
       </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK41" si="11">SUM(AE3:AJ3)</f>
+        <v>16</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL41" si="12">AVERAGE(AE3:AJ3)</f>
+        <v>2.6666666666666665</v>
+      </c>
       <c r="AM3" t="s">
         <v>361</v>
       </c>
@@ -4484,35 +4500,35 @@
         <v>361</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX26" si="11">LOG(AN3+1)</f>
+        <f t="shared" ref="AX3:AX26" si="13">LOG(AN3+1)</f>
         <v>0</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY26" si="12">LOG(AO3+1)</f>
+        <f t="shared" ref="AY3:AY26" si="14">LOG(AO3+1)</f>
         <v>0</v>
       </c>
       <c r="AZ3">
-        <f t="shared" ref="AZ3:AZ26" si="13">LOG(AP3+1)</f>
+        <f t="shared" ref="AZ3:AZ26" si="15">LOG(AP3+1)</f>
         <v>0.78247262416628616</v>
       </c>
       <c r="BA3">
-        <f t="shared" ref="BA3:BA26" si="14">LOG(AQ3+1)</f>
+        <f t="shared" ref="BA3:BA26" si="16">LOG(AQ3+1)</f>
         <v>1.4623979978989561</v>
       </c>
       <c r="BB3">
-        <f t="shared" ref="BB3:BB26" si="15">LOG(AR3+1)</f>
+        <f t="shared" ref="BB3:BB26" si="17">LOG(AR3+1)</f>
         <v>0</v>
       </c>
       <c r="BC3">
-        <f t="shared" ref="BC3:BC26" si="16">LOG(AS3+1)</f>
+        <f t="shared" ref="BC3:BC26" si="18">LOG(AS3+1)</f>
         <v>0</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD26" si="17">LOG(AT3+1)</f>
+        <f t="shared" ref="BD3:BD26" si="19">LOG(AT3+1)</f>
         <v>0</v>
       </c>
       <c r="BE3">
-        <f t="shared" ref="BE3:BE26" si="18">LOG(AU3+1)</f>
+        <f t="shared" ref="BE3:BE26" si="20">LOG(AU3+1)</f>
         <v>0.3010299956639812</v>
       </c>
     </row>
@@ -4632,6 +4648,14 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="AK4">
+        <f t="shared" si="11"/>
+        <v>635</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="12"/>
+        <v>105.83333333333333</v>
+      </c>
       <c r="AM4" t="s">
         <v>544</v>
       </c>
@@ -4663,35 +4687,35 @@
         <v>544</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1414497734004674</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30535136944662378</v>
       </c>
       <c r="AZ4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="BA4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="BB4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4211101297934343</v>
       </c>
       <c r="BC4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4811,6 +4835,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK5">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
       <c r="AM5" t="s">
         <v>498</v>
       </c>
@@ -4842,35 +4874,35 @@
         <v>498</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.30319605742048883</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2864564697469829</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3732798932774961</v>
       </c>
       <c r="BC5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.53275437899249778</v>
       </c>
     </row>
@@ -4990,6 +5022,14 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="AK6">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="12"/>
+        <v>5.166666666666667</v>
+      </c>
       <c r="AM6" t="s">
         <v>424</v>
       </c>
@@ -5021,35 +5061,35 @@
         <v>424</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6001012556913907</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2603099457949201</v>
       </c>
       <c r="BA6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4174716932032929</v>
       </c>
       <c r="BB6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="BD6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.69897000433601886</v>
       </c>
     </row>
@@ -5169,6 +5209,14 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="AK7">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="AM7" t="s">
         <v>627</v>
       </c>
@@ -5200,35 +5248,35 @@
         <v>627</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.90417436828416353</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5454308294653512</v>
       </c>
       <c r="BA7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.28555730900777382</v>
       </c>
       <c r="BC7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32837960343873768</v>
       </c>
     </row>
@@ -5348,6 +5396,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK8">
+        <f t="shared" si="11"/>
+        <v>189</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="12"/>
+        <v>31.5</v>
+      </c>
       <c r="AM8" t="s">
         <v>409</v>
       </c>
@@ -5379,35 +5435,35 @@
         <v>409</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95424250943932487</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="BD8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4771212547196624</v>
       </c>
     </row>
@@ -5527,6 +5583,14 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
+      <c r="AK9">
+        <f t="shared" si="11"/>
+        <v>370</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="12"/>
+        <v>61.666666666666664</v>
+      </c>
       <c r="AM9" t="s">
         <v>546</v>
       </c>
@@ -5558,35 +5622,35 @@
         <v>546</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.67117284271508326</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0874264570362855</v>
       </c>
       <c r="BD9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90254677931399141</v>
       </c>
     </row>
@@ -5706,6 +5770,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK10">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="AM10" t="s">
         <v>762</v>
       </c>
@@ -5737,35 +5809,35 @@
         <v>762</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5185139398778875</v>
       </c>
       <c r="AZ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.146128035678238</v>
       </c>
       <c r="BE10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.69897000433601886</v>
       </c>
     </row>
@@ -5885,6 +5957,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK11">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="12"/>
+        <v>2.8333333333333335</v>
+      </c>
       <c r="AM11" t="s">
         <v>527</v>
       </c>
@@ -5916,35 +5996,35 @@
         <v>527</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.230704313612569</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.182414652434554</v>
       </c>
       <c r="BD11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1792644643390253</v>
       </c>
     </row>
@@ -6064,6 +6144,14 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="AK12">
+        <f t="shared" si="11"/>
+        <v>283</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="12"/>
+        <v>47.166666666666664</v>
+      </c>
       <c r="AM12" t="s">
         <v>395</v>
       </c>
@@ -6095,35 +6183,35 @@
         <v>395</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.6001717619175692E-3</v>
       </c>
       <c r="BA12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1634595517699902</v>
       </c>
       <c r="BD12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2245330626060857</v>
       </c>
     </row>
@@ -6243,6 +6331,14 @@
         <f t="shared" si="10"/>
         <v>748</v>
       </c>
+      <c r="AK13">
+        <f t="shared" si="11"/>
+        <v>1907</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="12"/>
+        <v>317.83333333333331</v>
+      </c>
       <c r="AM13" t="s">
         <v>435</v>
       </c>
@@ -6274,35 +6370,35 @@
         <v>435</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.47712125471966244</v>
       </c>
       <c r="BA13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5202214358819601</v>
       </c>
       <c r="BD13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.47712125471966244</v>
       </c>
     </row>
@@ -6422,6 +6518,14 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="AK14">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
       <c r="AM14" t="s">
         <v>513</v>
       </c>
@@ -6453,35 +6557,35 @@
         <v>513</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3488887230714379</v>
       </c>
       <c r="BD14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.71432975974523305</v>
       </c>
     </row>
@@ -6601,6 +6705,14 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="AK15">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="AM15" t="s">
         <v>607</v>
       </c>
@@ -6632,35 +6744,35 @@
         <v>607</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="13"/>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BB15">
         <f t="shared" si="15"/>
         <v>0.3010299956639812</v>
       </c>
+      <c r="BA15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="17"/>
+        <v>0.3010299956639812</v>
+      </c>
       <c r="BC15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.505149978319906</v>
       </c>
       <c r="BE15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6780,6 +6892,14 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="AK16">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="12"/>
+        <v>9.6666666666666661</v>
+      </c>
       <c r="AM16" t="s">
         <v>562</v>
       </c>
@@ -6811,35 +6931,35 @@
         <v>562</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.33243845991560533</v>
       </c>
       <c r="BA16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47712125471966244</v>
       </c>
       <c r="BC16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6380897219845056</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4913616938342726</v>
       </c>
     </row>
@@ -6959,6 +7079,14 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="AK17">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="12"/>
+        <v>4.666666666666667</v>
+      </c>
       <c r="AM17" t="s">
         <v>668</v>
       </c>
@@ -6990,35 +7118,35 @@
         <v>668</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4183012913197455</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="BE17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0413926851582251</v>
       </c>
     </row>
@@ -7138,6 +7266,14 @@
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="AK18">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="12"/>
+        <v>28.166666666666668</v>
+      </c>
       <c r="AM18" t="s">
         <v>638</v>
       </c>
@@ -7169,35 +7305,35 @@
         <v>638</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9033613362553186</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.330413773349191</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2669369111591731</v>
       </c>
       <c r="BA18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5787537844264345</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6103194063192374</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7481880270062005</v>
       </c>
       <c r="BE18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.4868128863346302</v>
       </c>
     </row>
@@ -7317,6 +7453,14 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="AK19">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
       <c r="AM19" t="s">
         <v>352</v>
       </c>
@@ -7348,35 +7492,35 @@
         <v>352</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95712819767681312</v>
       </c>
       <c r="AY19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2041199826559248</v>
       </c>
       <c r="AZ19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.69897000433601886</v>
       </c>
       <c r="BA19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47712125471966244</v>
       </c>
       <c r="BC19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8450980400142569</v>
       </c>
       <c r="BE19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95424250943932487</v>
       </c>
     </row>
@@ -7496,6 +7640,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK20">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
       <c r="AM20" t="s">
         <v>341</v>
       </c>
@@ -7527,35 +7679,35 @@
         <v>341</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7242758696007889</v>
       </c>
       <c r="AY20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.77815125038364363</v>
       </c>
       <c r="BA20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7634279935629373</v>
       </c>
       <c r="BE20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.47712125471966244</v>
       </c>
     </row>
@@ -7675,6 +7827,14 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="AK21">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="12"/>
+        <v>14.833333333333334</v>
+      </c>
       <c r="AM21" t="s">
         <v>346</v>
       </c>
@@ -7706,35 +7866,35 @@
         <v>346</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7923216363515735</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6334684555795864</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0132586652835165</v>
       </c>
       <c r="BA21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.84509804001425681</v>
       </c>
       <c r="BB21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0572856444182146</v>
       </c>
       <c r="BC21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6229803581833981</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.1910316088486179</v>
       </c>
     </row>
@@ -7854,6 +8014,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK22">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="12"/>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="AM22" t="s">
         <v>584</v>
       </c>
@@ -7885,35 +8053,35 @@
         <v>584</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2787536009528289</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5563025007672873</v>
       </c>
       <c r="BE22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.69897000433601886</v>
       </c>
     </row>
@@ -8033,6 +8201,14 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
+      <c r="AK23">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="12"/>
+        <v>5.833333333333333</v>
+      </c>
       <c r="AM23" t="s">
         <v>655</v>
       </c>
@@ -8064,35 +8240,35 @@
         <v>655</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1023650913385277</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.9566485792052033</v>
       </c>
       <c r="BE23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97220283837906452</v>
       </c>
     </row>
@@ -8212,6 +8388,14 @@
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
+      <c r="AK24">
+        <f t="shared" si="11"/>
+        <v>266</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="12"/>
+        <v>44.333333333333336</v>
+      </c>
       <c r="AM24" t="s">
         <v>534</v>
       </c>
@@ -8243,35 +8427,35 @@
         <v>534</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.37106786227173627</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1374807093841359</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7075701760979363</v>
       </c>
     </row>
@@ -8391,6 +8575,14 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
+      <c r="AK25">
+        <f t="shared" si="11"/>
+        <v>4696</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="12"/>
+        <v>782.66666666666663</v>
+      </c>
       <c r="AM25" t="s">
         <v>370</v>
       </c>
@@ -8422,35 +8614,35 @@
         <v>370</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3396501576136839</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1607685618611281</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.7109969149162221</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0242803760470798</v>
       </c>
     </row>
@@ -8570,6 +8762,14 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
+      <c r="AK26">
+        <f t="shared" si="11"/>
+        <v>1094</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="12"/>
+        <v>182.33333333333334</v>
+      </c>
       <c r="AM26" t="s">
         <v>413</v>
       </c>
@@ -8601,35 +8801,35 @@
         <v>413</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6561940621791857</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9029813997975029</v>
       </c>
       <c r="BA26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.84509804001425681</v>
       </c>
       <c r="BB26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.95424250943932487</v>
       </c>
       <c r="BC26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.6513022485051061</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.6794278966121188</v>
       </c>
     </row>
@@ -8749,6 +8949,14 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="AK27">
+        <f t="shared" si="11"/>
+        <v>633</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="12"/>
+        <v>105.5</v>
+      </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -8866,6 +9074,14 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="AK28">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="12"/>
+        <v>3.8333333333333335</v>
+      </c>
       <c r="AM28" s="3"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
@@ -8984,6 +9200,14 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="AK29">
+        <f t="shared" si="11"/>
+        <v>633</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="12"/>
+        <v>105.5</v>
+      </c>
       <c r="AM29" s="3"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
@@ -9102,6 +9326,14 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="AK30">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="12"/>
+        <v>3.8333333333333335</v>
+      </c>
       <c r="AM30" s="3"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
@@ -9220,6 +9452,14 @@
         <f t="shared" si="10"/>
         <v>478</v>
       </c>
+      <c r="AK31">
+        <f t="shared" si="11"/>
+        <v>5055</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="12"/>
+        <v>842.5</v>
+      </c>
       <c r="AM31" s="3"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
@@ -9338,6 +9578,14 @@
         <f t="shared" si="10"/>
         <v>61</v>
       </c>
+      <c r="AK32">
+        <f t="shared" si="11"/>
+        <v>1399</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="12"/>
+        <v>233.16666666666666</v>
+      </c>
       <c r="AM32" s="3"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
@@ -9456,6 +9704,14 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
+      <c r="AK33">
+        <f t="shared" si="11"/>
+        <v>1094</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="12"/>
+        <v>182.33333333333334</v>
+      </c>
       <c r="AM33" s="3"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
@@ -9481,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="19">SUM(B34:G34)</f>
+        <f t="shared" ref="H34:H65" si="21">SUM(B34:G34)</f>
         <v>183</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -9512,7 +9768,7 @@
         <v>3</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="20">SUM(K34:P34)</f>
+        <f t="shared" ref="Q34:Q65" si="22">SUM(K34:P34)</f>
         <v>12</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -9537,11 +9793,11 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <f t="shared" ref="Z34:Z65" si="21">SUM(T34:V34)</f>
+        <f t="shared" ref="Z34:Z65" si="23">SUM(T34:V34)</f>
         <v>2</v>
       </c>
       <c r="AA34">
-        <f t="shared" ref="AA34:AA65" si="22">SUM(W34:Y34)</f>
+        <f t="shared" ref="AA34:AA65" si="24">SUM(W34:Y34)</f>
         <v>2</v>
       </c>
       <c r="AB34">
@@ -9574,6 +9830,14 @@
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
+      <c r="AK34">
+        <f t="shared" si="11"/>
+        <v>249</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="12"/>
+        <v>41.5</v>
+      </c>
       <c r="AM34" s="3"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
@@ -9599,7 +9863,7 @@
         <v>38</v>
       </c>
       <c r="H35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>174</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -9630,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="S35" s="3" t="s">
@@ -9655,11 +9919,11 @@
         <v>1</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB35">
@@ -9692,6 +9956,14 @@
         <f t="shared" si="10"/>
         <v>183</v>
       </c>
+      <c r="AK35">
+        <f t="shared" si="11"/>
+        <v>211</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="12"/>
+        <v>35.166666666666664</v>
+      </c>
       <c r="AM35" s="3"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
@@ -9717,7 +9989,7 @@
         <v>13</v>
       </c>
       <c r="H36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -9748,7 +10020,7 @@
         <v>14</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>166</v>
       </c>
       <c r="S36" s="3" t="s">
@@ -9773,11 +10045,11 @@
         <v>1</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB36">
@@ -9810,6 +10082,14 @@
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="AK36">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="12"/>
+        <v>28.166666666666668</v>
+      </c>
       <c r="AM36" s="3"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
@@ -9835,7 +10115,7 @@
         <v>24</v>
       </c>
       <c r="H37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>163</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -9866,7 +10146,7 @@
         <v>39</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>347</v>
       </c>
       <c r="S37" s="3" t="s">
@@ -9891,11 +10171,11 @@
         <v>1</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB37">
@@ -9928,6 +10208,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="AK37">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -9952,7 +10240,7 @@
         <v>13</v>
       </c>
       <c r="H38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -9983,7 +10271,7 @@
         <v>18</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="S38" s="3" t="s">
@@ -10008,11 +10296,11 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB38">
@@ -10045,6 +10333,14 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="AK38">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="12"/>
+        <v>14.833333333333334</v>
+      </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -10069,7 +10365,7 @@
         <v>130</v>
       </c>
       <c r="H39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -10100,7 +10396,7 @@
         <v>2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="S39" s="3" t="s">
@@ -10125,11 +10421,11 @@
         <v>1</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB39">
@@ -10162,6 +10458,14 @@
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
+      <c r="AK39">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="12"/>
+        <v>10.833333333333334</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -10186,7 +10490,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>148</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -10217,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="S40" s="3" t="s">
@@ -10242,11 +10546,11 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB40">
@@ -10279,6 +10583,14 @@
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
+      <c r="AK40">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="12"/>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -10303,7 +10615,7 @@
         <v>45</v>
       </c>
       <c r="H41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>145</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -10334,7 +10646,7 @@
         <v>9</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>124</v>
       </c>
       <c r="S41" s="3" t="s">
@@ -10359,11 +10671,11 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB41">
@@ -10396,6 +10708,14 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="AK41">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="12"/>
+        <v>1.8333333333333333</v>
+      </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -10420,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -10451,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="S42" s="3" t="s">
@@ -10476,11 +10796,11 @@
         <v>1</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB42">
@@ -10510,7 +10830,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>143</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -10541,7 +10861,7 @@
         <v>50</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="S43" s="3" t="s">
@@ -10566,11 +10886,11 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB43">
@@ -10600,7 +10920,7 @@
         <v>8</v>
       </c>
       <c r="H44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -10631,7 +10951,7 @@
         <v>11</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="S44" s="3" t="s">
@@ -10656,11 +10976,11 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB44">
@@ -10690,7 +11010,7 @@
         <v>11</v>
       </c>
       <c r="H45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>133</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -10721,7 +11041,7 @@
         <v>6</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>633</v>
       </c>
       <c r="S45" s="3" t="s">
@@ -10746,11 +11066,11 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB45">
@@ -10780,7 +11100,7 @@
         <v>14</v>
       </c>
       <c r="H46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>131</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -10811,7 +11131,7 @@
         <v>14</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>119</v>
       </c>
       <c r="S46" s="3" t="s">
@@ -10836,11 +11156,11 @@
         <v>1</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB46">
@@ -10870,7 +11190,7 @@
         <v>8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>118</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -10901,7 +11221,7 @@
         <v>44</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="S47" s="3" t="s">
@@ -10926,11 +11246,11 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB47">
@@ -10960,7 +11280,7 @@
         <v>17</v>
       </c>
       <c r="H48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>118</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -10991,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="S48" s="3" t="s">
@@ -11016,11 +11336,11 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB48">
@@ -11050,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>115</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -11081,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
@@ -11106,11 +11426,11 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB49">
@@ -11140,7 +11460,7 @@
         <v>13</v>
       </c>
       <c r="H50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>113</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -11171,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="S50" s="3" t="s">
@@ -11196,11 +11516,11 @@
         <v>1</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB50">
@@ -11230,7 +11550,7 @@
         <v>49</v>
       </c>
       <c r="H51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>111</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -11261,7 +11581,7 @@
         <v>29</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="S51" s="3" t="s">
@@ -11286,11 +11606,11 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB51">
@@ -11320,7 +11640,7 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -11351,7 +11671,7 @@
         <v>2</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="S52" s="3" t="s">
@@ -11376,11 +11696,11 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB52">
@@ -11410,7 +11730,7 @@
         <v>73</v>
       </c>
       <c r="H53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -11441,7 +11761,7 @@
         <v>6</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="S53" s="3" t="s">
@@ -11466,11 +11786,11 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB53">
@@ -11500,7 +11820,7 @@
         <v>40</v>
       </c>
       <c r="H54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>84</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -11531,7 +11851,7 @@
         <v>3</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="S54" s="3" t="s">
@@ -11556,11 +11876,11 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB54">
@@ -11590,7 +11910,7 @@
         <v>44</v>
       </c>
       <c r="H55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>84</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -11621,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="S55" s="3" t="s">
@@ -11646,11 +11966,11 @@
         <v>1</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB55">
@@ -11680,7 +12000,7 @@
         <v>8</v>
       </c>
       <c r="H56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -11711,7 +12031,7 @@
         <v>3</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="S56" s="3" t="s">
@@ -11736,11 +12056,11 @@
         <v>1</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AB56">
@@ -11770,7 +12090,7 @@
         <v>20</v>
       </c>
       <c r="H57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>82</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -11801,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="S57" s="3" t="s">
@@ -11826,11 +12146,11 @@
         <v>1</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB57">
@@ -11860,7 +12180,7 @@
         <v>27</v>
       </c>
       <c r="H58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>77</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -11891,7 +12211,7 @@
         <v>2</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="S58" s="3" t="s">
@@ -11916,11 +12236,11 @@
         <v>1</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB58">
@@ -11950,7 +12270,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>75</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -11981,7 +12301,7 @@
         <v>3</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="S59" s="3" t="s">
@@ -12006,11 +12326,11 @@
         <v>1</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB59">
@@ -12040,7 +12360,7 @@
         <v>49</v>
       </c>
       <c r="H60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>72</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -12071,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="S60" s="3" t="s">
@@ -12096,11 +12416,11 @@
         <v>1</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB60">
@@ -12130,7 +12450,7 @@
         <v>26</v>
       </c>
       <c r="H61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>66</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -12161,7 +12481,7 @@
         <v>14</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="S61" s="3" t="s">
@@ -12186,11 +12506,11 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB61">
@@ -12220,7 +12540,7 @@
         <v>10</v>
       </c>
       <c r="H62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -12251,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S62" s="3" t="s">
@@ -12276,11 +12596,11 @@
         <v>1</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB62">
@@ -12310,7 +12630,7 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -12341,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="S63" s="3" t="s">
@@ -12366,11 +12686,11 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB63">
@@ -12400,7 +12720,7 @@
         <v>19</v>
       </c>
       <c r="H64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>62</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -12431,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="S64" s="3" t="s">
@@ -12456,11 +12776,11 @@
         <v>1</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB64">
@@ -12490,7 +12810,7 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -12521,7 +12841,7 @@
         <v>5</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="S65" s="3" t="s">
@@ -12546,11 +12866,11 @@
         <v>1</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AB65">
@@ -12580,7 +12900,7 @@
         <v>43</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H97" si="23">SUM(B66:G66)</f>
+        <f t="shared" ref="H66:H97" si="25">SUM(B66:G66)</f>
         <v>59</v>
       </c>
       <c r="J66" s="3" t="s">
@@ -12611,7 +12931,7 @@
         <v>4</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="24">SUM(K66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="26">SUM(K66:P66)</f>
         <v>11</v>
       </c>
       <c r="S66" s="3" t="s">
@@ -12636,11 +12956,11 @@
         <v>1</v>
       </c>
       <c r="Z66">
-        <f t="shared" ref="Z66:Z97" si="25">SUM(T66:V66)</f>
+        <f t="shared" ref="Z66:Z97" si="27">SUM(T66:V66)</f>
         <v>2</v>
       </c>
       <c r="AA66">
-        <f t="shared" ref="AA66:AA97" si="26">SUM(W66:Y66)</f>
+        <f t="shared" ref="AA66:AA97" si="28">SUM(W66:Y66)</f>
         <v>1</v>
       </c>
       <c r="AB66">
@@ -12670,7 +12990,7 @@
         <v>46</v>
       </c>
       <c r="H67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>56</v>
       </c>
       <c r="J67" s="3" t="s">
@@ -12701,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="S67" s="3" t="s">
@@ -12726,11 +13046,11 @@
         <v>1</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB67">
@@ -12760,7 +13080,7 @@
         <v>8</v>
       </c>
       <c r="H68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>55</v>
       </c>
       <c r="J68" s="3" t="s">
@@ -12791,7 +13111,7 @@
         <v>21</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
       <c r="S68" s="3" t="s">
@@ -12816,11 +13136,11 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB68">
@@ -12850,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
       <c r="J69" s="3" t="s">
@@ -12881,7 +13201,7 @@
         <v>478</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5055</v>
       </c>
       <c r="S69" s="3" t="s">
@@ -12906,11 +13226,11 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB69">
@@ -12940,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>52</v>
       </c>
       <c r="J70" s="3" t="s">
@@ -12971,7 +13291,7 @@
         <v>3</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="S70" s="3" t="s">
@@ -12996,11 +13316,11 @@
         <v>1</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB70">
@@ -13030,7 +13350,7 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -13061,7 +13381,7 @@
         <v>5</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="S71" s="3" t="s">
@@ -13086,11 +13406,11 @@
         <v>1</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB71">
@@ -13120,7 +13440,7 @@
         <v>28</v>
       </c>
       <c r="H72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>44</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -13151,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="S72" s="3" t="s">
@@ -13176,11 +13496,11 @@
         <v>1</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB72">
@@ -13210,7 +13530,7 @@
         <v>20</v>
       </c>
       <c r="H73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>44</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -13241,7 +13561,7 @@
         <v>5</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="S73" s="3" t="s">
@@ -13266,11 +13586,11 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB73">
@@ -13300,7 +13620,7 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>43</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -13331,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="S74" s="3" t="s">
@@ -13356,11 +13676,11 @@
         <v>1</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB74">
@@ -13390,7 +13710,7 @@
         <v>9</v>
       </c>
       <c r="H75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -13421,7 +13741,7 @@
         <v>27</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="S75" s="3" t="s">
@@ -13446,11 +13766,11 @@
         <v>1</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB75">
@@ -13480,7 +13800,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -13511,7 +13831,7 @@
         <v>2</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="S76" s="3" t="s">
@@ -13536,11 +13856,11 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB76">
@@ -13570,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -13601,7 +13921,7 @@
         <v>12</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>635</v>
       </c>
       <c r="S77" s="3" t="s">
@@ -13626,11 +13946,11 @@
         <v>1</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB77">
@@ -13660,7 +13980,7 @@
         <v>4</v>
       </c>
       <c r="H78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -13691,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="S78" s="3" t="s">
@@ -13716,11 +14036,11 @@
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB78">
@@ -13750,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -13781,7 +14101,7 @@
         <v>9</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="S79" s="3" t="s">
@@ -13806,11 +14126,11 @@
         <v>1</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB79">
@@ -13840,7 +14160,7 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -13871,7 +14191,7 @@
         <v>748</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1907</v>
       </c>
       <c r="S80" s="3" t="s">
@@ -13896,11 +14216,11 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB80">
@@ -13930,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -13961,7 +14281,7 @@
         <v>3</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="S81" s="3" t="s">
@@ -13986,11 +14306,11 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB81">
@@ -14020,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -14051,7 +14371,7 @@
         <v>2</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="S82" s="3" t="s">
@@ -14076,11 +14396,11 @@
         <v>1</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB82">
@@ -14110,7 +14430,7 @@
         <v>8</v>
       </c>
       <c r="H83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -14141,7 +14461,7 @@
         <v>11</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>154</v>
       </c>
       <c r="S83" s="3" t="s">
@@ -14166,11 +14486,11 @@
         <v>1</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB83">
@@ -14200,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>34</v>
       </c>
       <c r="J84" s="3" t="s">
@@ -14231,7 +14551,7 @@
         <v>6</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="S84" s="3" t="s">
@@ -14256,11 +14576,11 @@
         <v>1</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB84">
@@ -14290,7 +14610,7 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -14321,7 +14641,7 @@
         <v>9</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="S85" s="3" t="s">
@@ -14346,11 +14666,11 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB85">
@@ -14380,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -14411,7 +14731,7 @@
         <v>4</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="S86" s="3" t="s">
@@ -14436,11 +14756,11 @@
         <v>1</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB86">
@@ -14470,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -14501,7 +14821,7 @@
         <v>3</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="S87" s="3" t="s">
@@ -14526,11 +14846,11 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB87">
@@ -14560,7 +14880,7 @@
         <v>29</v>
       </c>
       <c r="H88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -14591,7 +14911,7 @@
         <v>106</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>637</v>
       </c>
       <c r="S88" s="3" t="s">
@@ -14616,11 +14936,11 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB88">
@@ -14650,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="J89" s="3" t="s">
@@ -14681,7 +15001,7 @@
         <v>3</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="S89" s="3" t="s">
@@ -14706,11 +15026,11 @@
         <v>1</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB89">
@@ -14740,7 +15060,7 @@
         <v>6</v>
       </c>
       <c r="H90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31</v>
       </c>
       <c r="J90" s="3" t="s">
@@ -14771,7 +15091,7 @@
         <v>61</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1399</v>
       </c>
       <c r="S90" s="3" t="s">
@@ -14796,11 +15116,11 @@
         <v>1</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB90">
@@ -14830,7 +15150,7 @@
         <v>16</v>
       </c>
       <c r="H91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -14861,7 +15181,7 @@
         <v>3</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>283</v>
       </c>
       <c r="S91" s="3" t="s">
@@ -14886,11 +15206,11 @@
         <v>1</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB91">
@@ -14920,7 +15240,7 @@
         <v>29</v>
       </c>
       <c r="H92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="J92" s="3" t="s">
@@ -14951,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>189</v>
       </c>
       <c r="S92" s="3" t="s">
@@ -14976,11 +15296,11 @@
         <v>1</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB92">
@@ -15010,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -15041,7 +15361,7 @@
         <v>8</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="S93" s="3" t="s">
@@ -15066,11 +15386,11 @@
         <v>1</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB93">
@@ -15100,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -15131,7 +15451,7 @@
         <v>46</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>151</v>
       </c>
       <c r="S94" s="3" t="s">
@@ -15156,11 +15476,11 @@
         <v>1</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB94">
@@ -15190,7 +15510,7 @@
         <v>10</v>
       </c>
       <c r="H95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -15221,7 +15541,7 @@
         <v>2</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S95" s="3" t="s">
@@ -15246,11 +15566,11 @@
         <v>1</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB95">
@@ -15280,7 +15600,7 @@
         <v>18</v>
       </c>
       <c r="H96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="J96" s="3" t="s">
@@ -15311,7 +15631,7 @@
         <v>307</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>828</v>
       </c>
       <c r="S96" s="3" t="s">
@@ -15336,11 +15656,11 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB96">
@@ -15370,7 +15690,7 @@
         <v>12</v>
       </c>
       <c r="H97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="J97" s="3" t="s">
@@ -15401,7 +15721,7 @@
         <v>7</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>602</v>
       </c>
       <c r="S97" s="3" t="s">
@@ -15426,11 +15746,11 @@
         <v>0</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AB97">
@@ -15460,7 +15780,7 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H129" si="27">SUM(B98:G98)</f>
+        <f t="shared" ref="H98:H129" si="29">SUM(B98:G98)</f>
         <v>28</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -15491,7 +15811,7 @@
         <v>50</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q129" si="28">SUM(K98:P98)</f>
+        <f t="shared" ref="Q98:Q129" si="30">SUM(K98:P98)</f>
         <v>117</v>
       </c>
       <c r="S98" s="3" t="s">
@@ -15516,11 +15836,11 @@
         <v>1</v>
       </c>
       <c r="Z98">
-        <f t="shared" ref="Z98:Z129" si="29">SUM(T98:V98)</f>
+        <f t="shared" ref="Z98:Z129" si="31">SUM(T98:V98)</f>
         <v>2</v>
       </c>
       <c r="AA98">
-        <f t="shared" ref="AA98:AA129" si="30">SUM(W98:Y98)</f>
+        <f t="shared" ref="AA98:AA129" si="32">SUM(W98:Y98)</f>
         <v>1</v>
       </c>
       <c r="AB98">
@@ -15550,7 +15870,7 @@
         <v>22</v>
       </c>
       <c r="H99">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -15581,7 +15901,7 @@
         <v>3</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="S99" s="3" t="s">
@@ -15606,11 +15926,11 @@
         <v>1</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB99">
@@ -15640,7 +15960,7 @@
         <v>14</v>
       </c>
       <c r="H100">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="J100" s="3" t="s">
@@ -15671,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="S100" s="3" t="s">
@@ -15696,11 +16016,11 @@
         <v>1</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB100">
@@ -15730,7 +16050,7 @@
         <v>24</v>
       </c>
       <c r="H101">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="J101" s="3" t="s">
@@ -15761,7 +16081,7 @@
         <v>6</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="S101" s="3" t="s">
@@ -15786,11 +16106,11 @@
         <v>1</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA101">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB101">
@@ -15820,7 +16140,7 @@
         <v>17</v>
       </c>
       <c r="H102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -15851,7 +16171,7 @@
         <v>2</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="S102" s="3" t="s">
@@ -15876,11 +16196,11 @@
         <v>1</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA102">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB102">
@@ -15910,7 +16230,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>26</v>
       </c>
       <c r="J103" s="3" t="s">
@@ -15941,7 +16261,7 @@
         <v>419</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>916</v>
       </c>
       <c r="S103" s="3" t="s">
@@ -15966,11 +16286,11 @@
         <v>0</v>
       </c>
       <c r="Z103">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA103">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB103">
@@ -16000,7 +16320,7 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -16031,7 +16351,7 @@
         <v>5</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="S104" s="3" t="s">
@@ -16056,11 +16376,11 @@
         <v>1</v>
       </c>
       <c r="Z104">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA104">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB104">
@@ -16090,7 +16410,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J105" s="3" t="s">
@@ -16121,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="S105" s="3" t="s">
@@ -16146,11 +16466,11 @@
         <v>1</v>
       </c>
       <c r="Z105">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA105">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB105">
@@ -16180,7 +16500,7 @@
         <v>24</v>
       </c>
       <c r="H106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J106" s="3" t="s">
@@ -16211,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="S106" s="3" t="s">
@@ -16236,11 +16556,11 @@
         <v>1</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB106">
@@ -16270,7 +16590,7 @@
         <v>13</v>
       </c>
       <c r="H107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -16301,7 +16621,7 @@
         <v>3</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="S107" s="3" t="s">
@@ -16326,11 +16646,11 @@
         <v>1</v>
       </c>
       <c r="Z107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA107">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB107">
@@ -16360,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -16391,7 +16711,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>150</v>
       </c>
       <c r="S108" s="3" t="s">
@@ -16416,11 +16736,11 @@
         <v>1</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA108">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB108">
@@ -16450,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -16481,7 +16801,7 @@
         <v>11</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>71</v>
       </c>
       <c r="S109" s="3" t="s">
@@ -16506,11 +16826,11 @@
         <v>0</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB109">
@@ -16540,7 +16860,7 @@
         <v>8</v>
       </c>
       <c r="H110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -16571,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="S110" s="3" t="s">
@@ -16596,11 +16916,11 @@
         <v>0</v>
       </c>
       <c r="Z110">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB110">
@@ -16630,7 +16950,7 @@
         <v>19</v>
       </c>
       <c r="H111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -16661,7 +16981,7 @@
         <v>3</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>230</v>
       </c>
       <c r="S111" s="3" t="s">
@@ -16686,11 +17006,11 @@
         <v>0</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB111">
@@ -16720,7 +17040,7 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -16751,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="S112" s="3" t="s">
@@ -16776,11 +17096,11 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA112">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB112">
@@ -16810,7 +17130,7 @@
         <v>7</v>
       </c>
       <c r="H113">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -16841,7 +17161,7 @@
         <v>32</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>370</v>
       </c>
       <c r="S113" s="3" t="s">
@@ -16866,11 +17186,11 @@
         <v>0</v>
       </c>
       <c r="Z113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA113">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB113">
@@ -16900,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="J114" s="3" t="s">
@@ -16931,7 +17251,7 @@
         <v>11</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>211</v>
       </c>
       <c r="S114" s="3" t="s">
@@ -16956,11 +17276,11 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB114">
@@ -16990,7 +17310,7 @@
         <v>3</v>
       </c>
       <c r="H115">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -17021,7 +17341,7 @@
         <v>3</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>39</v>
       </c>
       <c r="S115" s="3" t="s">
@@ -17046,11 +17366,11 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB115">
@@ -17080,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -17111,7 +17431,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>233</v>
       </c>
       <c r="S116" s="3" t="s">
@@ -17136,11 +17456,11 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA116">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB116">
@@ -17170,7 +17490,7 @@
         <v>4</v>
       </c>
       <c r="H117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="J117" s="3" t="s">
@@ -17201,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="S117" s="3" t="s">
@@ -17226,11 +17546,11 @@
         <v>0</v>
       </c>
       <c r="Z117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB117">
@@ -17260,7 +17580,7 @@
         <v>2</v>
       </c>
       <c r="H118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -17291,7 +17611,7 @@
         <v>2</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="S118" s="3" t="s">
@@ -17316,11 +17636,11 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA118">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB118">
@@ -17350,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -17381,7 +17701,7 @@
         <v>5</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="S119" s="3" t="s">
@@ -17406,11 +17726,11 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA119">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB119">
@@ -17440,7 +17760,7 @@
         <v>8</v>
       </c>
       <c r="H120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="J120" s="3" t="s">
@@ -17471,7 +17791,7 @@
         <v>4</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="S120" s="3" t="s">
@@ -17496,11 +17816,11 @@
         <v>0</v>
       </c>
       <c r="Z120">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB120">
@@ -17530,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -17561,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="S121" s="3" t="s">
@@ -17586,11 +17906,11 @@
         <v>0</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA121">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB121">
@@ -17620,7 +17940,7 @@
         <v>7</v>
       </c>
       <c r="H122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="J122" s="3" t="s">
@@ -17651,7 +17971,7 @@
         <v>3</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="S122" s="3" t="s">
@@ -17676,11 +17996,11 @@
         <v>0</v>
       </c>
       <c r="Z122">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB122">
@@ -17710,7 +18030,7 @@
         <v>9</v>
       </c>
       <c r="H123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="J123" s="3" t="s">
@@ -17741,7 +18061,7 @@
         <v>2</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="S123" s="3" t="s">
@@ -17766,11 +18086,11 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA123">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB123">
@@ -17800,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="J124" s="3" t="s">
@@ -17831,7 +18151,7 @@
         <v>9</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>148</v>
       </c>
       <c r="S124" s="3" t="s">
@@ -17856,11 +18176,11 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AA124">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB124">
@@ -17890,7 +18210,7 @@
         <v>5</v>
       </c>
       <c r="H125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="J125" s="3" t="s">
@@ -17921,7 +18241,7 @@
         <v>2</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="S125" s="3" t="s">
@@ -17946,11 +18266,11 @@
         <v>1</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA125">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AB125">
@@ -17980,7 +18300,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="J126" s="3" t="s">
@@ -18011,7 +18331,7 @@
         <v>9</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="S126" s="3" t="s">
@@ -18036,11 +18356,11 @@
         <v>1</v>
       </c>
       <c r="Z126">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA126">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AB126">
@@ -18070,7 +18390,7 @@
         <v>2</v>
       </c>
       <c r="H127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="J127" s="3" t="s">
@@ -18101,7 +18421,7 @@
         <v>2</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>43</v>
       </c>
       <c r="S127" s="3" t="s">
@@ -18126,11 +18446,11 @@
         <v>1</v>
       </c>
       <c r="Z127">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA127">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AB127">
@@ -18160,7 +18480,7 @@
         <v>4</v>
       </c>
       <c r="H128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="J128" s="3" t="s">
@@ -18191,7 +18511,7 @@
         <v>2</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="S128" s="3" t="s">
@@ -18216,11 +18536,11 @@
         <v>1</v>
       </c>
       <c r="Z128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA128">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AB128">
@@ -18250,7 +18570,7 @@
         <v>4</v>
       </c>
       <c r="H129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="J129" s="3" t="s">
@@ -18281,7 +18601,7 @@
         <v>3</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="S129" s="3" t="s">
@@ -18306,11 +18626,11 @@
         <v>1</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA129">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AB129">
@@ -18340,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H161" si="31">SUM(B130:G130)</f>
+        <f t="shared" ref="H130:H161" si="33">SUM(B130:G130)</f>
         <v>12</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -18371,7 +18691,7 @@
         <v>3</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="32">SUM(K130:P130)</f>
+        <f t="shared" ref="Q130:Q161" si="34">SUM(K130:P130)</f>
         <v>42</v>
       </c>
       <c r="S130" s="3" t="s">
@@ -18396,11 +18716,11 @@
         <v>1</v>
       </c>
       <c r="Z130">
-        <f t="shared" ref="Z130:Z161" si="33">SUM(T130:V130)</f>
+        <f t="shared" ref="Z130:Z161" si="35">SUM(T130:V130)</f>
         <v>1</v>
       </c>
       <c r="AA130">
-        <f t="shared" ref="AA130:AA161" si="34">SUM(W130:Y130)</f>
+        <f t="shared" ref="AA130:AA161" si="36">SUM(W130:Y130)</f>
         <v>2</v>
       </c>
       <c r="AB130">
@@ -18430,7 +18750,7 @@
         <v>4</v>
       </c>
       <c r="H131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J131" s="3" t="s">
@@ -18461,7 +18781,7 @@
         <v>41</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="S131" s="3" t="s">
@@ -18486,11 +18806,11 @@
         <v>1</v>
       </c>
       <c r="Z131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB131">
@@ -18520,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -18551,7 +18871,7 @@
         <v>10</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="S132" s="3" t="s">
@@ -18576,11 +18896,11 @@
         <v>1</v>
       </c>
       <c r="Z132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB132">
@@ -18610,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -18641,7 +18961,7 @@
         <v>5</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="S133" s="3" t="s">
@@ -18666,11 +18986,11 @@
         <v>1</v>
       </c>
       <c r="Z133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB133">
@@ -18700,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J134" s="3" t="s">
@@ -18731,7 +19051,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>39</v>
       </c>
       <c r="S134" s="3" t="s">
@@ -18756,11 +19076,11 @@
         <v>1</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB134">
@@ -18790,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J135" s="3" t="s">
@@ -18821,7 +19141,7 @@
         <v>5</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>31</v>
       </c>
       <c r="S135" s="3" t="s">
@@ -18846,11 +19166,11 @@
         <v>1</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB135">
@@ -18880,7 +19200,7 @@
         <v>8</v>
       </c>
       <c r="H136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J136" s="3" t="s">
@@ -18911,7 +19231,7 @@
         <v>10</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="S136" s="3" t="s">
@@ -18936,11 +19256,11 @@
         <v>1</v>
       </c>
       <c r="Z136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB136">
@@ -18970,7 +19290,7 @@
         <v>8</v>
       </c>
       <c r="H137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J137" s="3" t="s">
@@ -19001,7 +19321,7 @@
         <v>5</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="S137" s="3" t="s">
@@ -19026,11 +19346,11 @@
         <v>0</v>
       </c>
       <c r="Z137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB137">
@@ -19060,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J138" s="3" t="s">
@@ -19091,7 +19411,7 @@
         <v>9</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="S138" s="3" t="s">
@@ -19116,11 +19436,11 @@
         <v>1</v>
       </c>
       <c r="Z138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB138">
@@ -19150,7 +19470,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J139" s="3" t="s">
@@ -19181,7 +19501,7 @@
         <v>3</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="S139" s="3" t="s">
@@ -19206,11 +19526,11 @@
         <v>1</v>
       </c>
       <c r="Z139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB139">
@@ -19240,7 +19560,7 @@
         <v>3</v>
       </c>
       <c r="H140">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="J140" s="3" t="s">
@@ -19271,7 +19591,7 @@
         <v>5</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="S140" s="3" t="s">
@@ -19296,11 +19616,11 @@
         <v>1</v>
       </c>
       <c r="Z140">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA140">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB140">
@@ -19330,7 +19650,7 @@
         <v>5</v>
       </c>
       <c r="H141">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="J141" s="3" t="s">
@@ -19361,7 +19681,7 @@
         <v>21</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="S141" s="3" t="s">
@@ -19386,11 +19706,11 @@
         <v>1</v>
       </c>
       <c r="Z141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB141">
@@ -19420,7 +19740,7 @@
         <v>2</v>
       </c>
       <c r="H142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
@@ -19451,7 +19771,7 @@
         <v>19</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>34</v>
       </c>
       <c r="S142" s="3" t="s">
@@ -19476,11 +19796,11 @@
         <v>1</v>
       </c>
       <c r="Z142">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA142">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB142">
@@ -19510,7 +19830,7 @@
         <v>9</v>
       </c>
       <c r="H143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="J143" s="3" t="s">
@@ -19541,7 +19861,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="S143" s="3" t="s">
@@ -19566,11 +19886,11 @@
         <v>1</v>
       </c>
       <c r="Z143">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA143">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB143">
@@ -19600,7 +19920,7 @@
         <v>5</v>
       </c>
       <c r="H144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="J144" s="3" t="s">
@@ -19631,7 +19951,7 @@
         <v>5</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="S144" s="3" t="s">
@@ -19656,11 +19976,11 @@
         <v>1</v>
       </c>
       <c r="Z144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB144">
@@ -19690,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="J145" s="3" t="s">
@@ -19721,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="S145" s="3" t="s">
@@ -19746,11 +20066,11 @@
         <v>1</v>
       </c>
       <c r="Z145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB145">
@@ -19780,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="H146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J146" s="3" t="s">
@@ -19811,7 +20131,7 @@
         <v>155</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>604</v>
       </c>
       <c r="S146" s="3" t="s">
@@ -19836,11 +20156,11 @@
         <v>1</v>
       </c>
       <c r="Z146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB146">
@@ -19870,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J147" s="3" t="s">
@@ -19901,7 +20221,7 @@
         <v>23</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>34</v>
       </c>
       <c r="S147" s="3" t="s">
@@ -19926,11 +20246,11 @@
         <v>1</v>
       </c>
       <c r="Z147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB147">
@@ -19960,7 +20280,7 @@
         <v>2</v>
       </c>
       <c r="H148">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J148" s="3" t="s">
@@ -19991,7 +20311,7 @@
         <v>15</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>34</v>
       </c>
       <c r="S148" s="3" t="s">
@@ -20016,11 +20336,11 @@
         <v>1</v>
       </c>
       <c r="Z148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB148">
@@ -20050,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J149" s="3" t="s">
@@ -20081,7 +20401,7 @@
         <v>25</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>31</v>
       </c>
       <c r="S149" s="3" t="s">
@@ -20106,11 +20426,11 @@
         <v>1</v>
       </c>
       <c r="Z149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB149">
@@ -20140,7 +20460,7 @@
         <v>2</v>
       </c>
       <c r="H150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J150" s="3" t="s">
@@ -20171,7 +20491,7 @@
         <v>20</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>26</v>
       </c>
       <c r="S150" s="3" t="s">
@@ -20196,11 +20516,11 @@
         <v>1</v>
       </c>
       <c r="Z150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB150">
@@ -20230,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J151" s="3" t="s">
@@ -20261,7 +20581,7 @@
         <v>4</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>26</v>
       </c>
       <c r="S151" s="3" t="s">
@@ -20286,11 +20606,11 @@
         <v>1</v>
       </c>
       <c r="Z151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB151">
@@ -20320,7 +20640,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="J152" s="3" t="s">
@@ -20351,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="S152" s="3" t="s">
@@ -20376,11 +20696,11 @@
         <v>1</v>
       </c>
       <c r="Z152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA152">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB152">
@@ -20410,7 +20730,7 @@
         <v>4</v>
       </c>
       <c r="H153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="J153" s="3" t="s">
@@ -20441,7 +20761,7 @@
         <v>15</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>137</v>
       </c>
       <c r="S153" s="3" t="s">
@@ -20466,11 +20786,11 @@
         <v>1</v>
       </c>
       <c r="Z153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA153">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB153">
@@ -20500,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="J154" s="3" t="s">
@@ -20531,7 +20851,7 @@
         <v>45</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="S154" s="3" t="s">
@@ -20556,11 +20876,11 @@
         <v>1</v>
       </c>
       <c r="Z154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB154">
@@ -20590,7 +20910,7 @@
         <v>3</v>
       </c>
       <c r="H155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="J155" s="3" t="s">
@@ -20621,7 +20941,7 @@
         <v>5</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="S155" s="3" t="s">
@@ -20646,11 +20966,11 @@
         <v>1</v>
       </c>
       <c r="Z155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB155">
@@ -20680,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J156" s="3" t="s">
@@ -20711,7 +21031,7 @@
         <v>18</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>124</v>
       </c>
       <c r="S156" s="3" t="s">
@@ -20736,11 +21056,11 @@
         <v>1</v>
       </c>
       <c r="Z156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB156">
@@ -20770,7 +21090,7 @@
         <v>4</v>
       </c>
       <c r="H157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J157" s="3" t="s">
@@ -20801,7 +21121,7 @@
         <v>20</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="S157" s="3" t="s">
@@ -20826,11 +21146,11 @@
         <v>1</v>
       </c>
       <c r="Z157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB157">
@@ -20860,7 +21180,7 @@
         <v>3</v>
       </c>
       <c r="H158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J158" s="3" t="s">
@@ -20891,7 +21211,7 @@
         <v>3</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>49</v>
       </c>
       <c r="S158" s="3" t="s">
@@ -20916,11 +21236,11 @@
         <v>1</v>
       </c>
       <c r="Z158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA158">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB158">
@@ -20950,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J159" s="3" t="s">
@@ -20981,7 +21301,7 @@
         <v>17</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36</v>
       </c>
       <c r="S159" s="3" t="s">
@@ -21006,11 +21326,11 @@
         <v>1</v>
       </c>
       <c r="Z159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB159">
@@ -21040,7 +21360,7 @@
         <v>4</v>
       </c>
       <c r="H160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J160" s="3" t="s">
@@ -21071,7 +21391,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>24</v>
       </c>
       <c r="S160" s="3" t="s">
@@ -21096,11 +21416,11 @@
         <v>1</v>
       </c>
       <c r="Z160">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA160">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB160">
@@ -21130,7 +21450,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="J161" s="3" t="s">
@@ -21161,7 +21481,7 @@
         <v>5</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>23</v>
       </c>
       <c r="S161" s="3" t="s">
@@ -21186,11 +21506,11 @@
         <v>1</v>
       </c>
       <c r="Z161">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA161">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AB161">
@@ -21220,7 +21540,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <f t="shared" ref="H162:H193" si="35">SUM(B162:G162)</f>
+        <f t="shared" ref="H162:H193" si="37">SUM(B162:G162)</f>
         <v>7</v>
       </c>
       <c r="J162" s="3" t="s">
@@ -21251,7 +21571,7 @@
         <v>2</v>
       </c>
       <c r="Q162">
-        <f t="shared" ref="Q162:Q193" si="36">SUM(K162:P162)</f>
+        <f t="shared" ref="Q162:Q193" si="38">SUM(K162:P162)</f>
         <v>20</v>
       </c>
       <c r="S162" s="3" t="s">
@@ -21276,11 +21596,11 @@
         <v>1</v>
       </c>
       <c r="Z162">
-        <f t="shared" ref="Z162:Z194" si="37">SUM(T162:V162)</f>
+        <f t="shared" ref="Z162:Z194" si="39">SUM(T162:V162)</f>
         <v>1</v>
       </c>
       <c r="AA162">
-        <f t="shared" ref="AA162:AA194" si="38">SUM(W162:Y162)</f>
+        <f t="shared" ref="AA162:AA194" si="40">SUM(W162:Y162)</f>
         <v>2</v>
       </c>
       <c r="AB162">
@@ -21310,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="J163" s="3" t="s">
@@ -21341,7 +21661,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="S163" s="3" t="s">
@@ -21366,11 +21686,11 @@
         <v>1</v>
       </c>
       <c r="Z163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA163">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB163">
@@ -21400,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="J164" s="3" t="s">
@@ -21431,7 +21751,7 @@
         <v>3</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="S164" s="3" t="s">
@@ -21456,11 +21776,11 @@
         <v>1</v>
       </c>
       <c r="Z164">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA164">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB164">
@@ -21490,7 +21810,7 @@
         <v>2</v>
       </c>
       <c r="H165">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J165" s="3" t="s">
@@ -21521,7 +21841,7 @@
         <v>3</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>469</v>
       </c>
       <c r="S165" s="3" t="s">
@@ -21546,11 +21866,11 @@
         <v>1</v>
       </c>
       <c r="Z165">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA165">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB165">
@@ -21580,7 +21900,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J166" s="3" t="s">
@@ -21611,7 +21931,7 @@
         <v>15</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>306</v>
       </c>
       <c r="S166" s="3" t="s">
@@ -21636,11 +21956,11 @@
         <v>1</v>
       </c>
       <c r="Z166">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB166">
@@ -21670,7 +21990,7 @@
         <v>2</v>
       </c>
       <c r="H167">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J167" s="3" t="s">
@@ -21701,7 +22021,7 @@
         <v>39</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="S167" s="3" t="s">
@@ -21726,11 +22046,11 @@
         <v>1</v>
       </c>
       <c r="Z167">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB167">
@@ -21760,7 +22080,7 @@
         <v>4</v>
       </c>
       <c r="H168">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J168" s="3" t="s">
@@ -21791,7 +22111,7 @@
         <v>7</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>37</v>
       </c>
       <c r="S168" s="3" t="s">
@@ -21816,11 +22136,11 @@
         <v>1</v>
       </c>
       <c r="Z168">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB168">
@@ -21850,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J169" s="3" t="s">
@@ -21881,7 +22201,7 @@
         <v>4</v>
       </c>
       <c r="Q169">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
       <c r="S169" s="3" t="s">
@@ -21906,11 +22226,11 @@
         <v>1</v>
       </c>
       <c r="Z169">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB169">
@@ -21940,7 +22260,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J170" s="3" t="s">
@@ -21971,7 +22291,7 @@
         <v>2</v>
       </c>
       <c r="Q170">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="S170" s="3" t="s">
@@ -21996,11 +22316,11 @@
         <v>1</v>
       </c>
       <c r="Z170">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA170">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AB170">
@@ -22030,7 +22350,7 @@
         <v>2</v>
       </c>
       <c r="H171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J171" s="3" t="s">
@@ -22061,7 +22381,7 @@
         <v>5</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="S171" s="3" t="s">
@@ -22086,11 +22406,11 @@
         <v>0</v>
       </c>
       <c r="Z171">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AA171">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AB171">
@@ -22120,7 +22440,7 @@
         <v>2</v>
       </c>
       <c r="H172">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="J172" s="3" t="s">
@@ -22151,7 +22471,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="S172" s="3" t="s">
@@ -22176,11 +22496,11 @@
         <v>1</v>
       </c>
       <c r="Z172">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA172">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="AB172">
@@ -22210,7 +22530,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J173" s="3" t="s">
@@ -22241,7 +22561,7 @@
         <v>3</v>
       </c>
       <c r="Q173">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1737</v>
       </c>
       <c r="S173" s="3" t="s">
@@ -22266,11 +22586,11 @@
         <v>1</v>
       </c>
       <c r="Z173">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA173">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="AB173">
@@ -22300,7 +22620,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J174" s="3" t="s">
@@ -22331,7 +22651,7 @@
         <v>95</v>
       </c>
       <c r="Q174">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>734</v>
       </c>
       <c r="S174" s="3" t="s">
@@ -22356,11 +22676,11 @@
         <v>1</v>
       </c>
       <c r="Z174">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="AB174">
@@ -22390,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J175" s="3" t="s">
@@ -22421,7 +22741,7 @@
         <v>3</v>
       </c>
       <c r="Q175">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>302</v>
       </c>
       <c r="S175" s="3" t="s">
@@ -22446,11 +22766,11 @@
         <v>1</v>
       </c>
       <c r="Z175">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB175">
@@ -22480,7 +22800,7 @@
         <v>2</v>
       </c>
       <c r="H176">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J176" s="3" t="s">
@@ -22511,7 +22831,7 @@
         <v>2</v>
       </c>
       <c r="Q176">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>42</v>
       </c>
       <c r="S176" s="3" t="s">
@@ -22536,11 +22856,11 @@
         <v>1</v>
       </c>
       <c r="Z176">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB176">
@@ -22570,7 +22890,7 @@
         <v>2</v>
       </c>
       <c r="H177">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J177" s="3" t="s">
@@ -22601,7 +22921,7 @@
         <v>2</v>
       </c>
       <c r="Q177">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>40</v>
       </c>
       <c r="S177" s="3" t="s">
@@ -22626,11 +22946,11 @@
         <v>1</v>
       </c>
       <c r="Z177">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB177">
@@ -22660,7 +22980,7 @@
         <v>3</v>
       </c>
       <c r="H178">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J178" s="3" t="s">
@@ -22691,7 +23011,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="S178" s="3" t="s">
@@ -22716,11 +23036,11 @@
         <v>1</v>
       </c>
       <c r="Z178">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB178">
@@ -22750,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J179" s="3" t="s">
@@ -22781,7 +23101,7 @@
         <v>10</v>
       </c>
       <c r="Q179">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1943</v>
       </c>
       <c r="S179" s="3" t="s">
@@ -22806,11 +23126,11 @@
         <v>1</v>
       </c>
       <c r="Z179">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB179">
@@ -22840,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J180" s="3" t="s">
@@ -22871,7 +23191,7 @@
         <v>51</v>
       </c>
       <c r="Q180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>192</v>
       </c>
       <c r="S180" s="3" t="s">
@@ -22896,11 +23216,11 @@
         <v>1</v>
       </c>
       <c r="Z180">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA180">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB180">
@@ -22930,7 +23250,7 @@
         <v>2</v>
       </c>
       <c r="H181">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J181" s="3" t="s">
@@ -22961,7 +23281,7 @@
         <v>47</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>62</v>
       </c>
       <c r="S181" s="3" t="s">
@@ -22986,11 +23306,11 @@
         <v>1</v>
       </c>
       <c r="Z181">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA181">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB181">
@@ -23020,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J182" s="3" t="s">
@@ -23051,7 +23371,7 @@
         <v>30</v>
       </c>
       <c r="Q182">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>38</v>
       </c>
       <c r="S182" s="3" t="s">
@@ -23076,11 +23396,11 @@
         <v>1</v>
       </c>
       <c r="Z182">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA182">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB182">
@@ -23110,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J183" s="3" t="s">
@@ -23141,7 +23461,7 @@
         <v>8</v>
       </c>
       <c r="Q183">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
       <c r="S183" s="3" t="s">
@@ -23166,11 +23486,11 @@
         <v>1</v>
       </c>
       <c r="Z183">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA183">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB183">
@@ -23200,7 +23520,7 @@
         <v>2</v>
       </c>
       <c r="H184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J184" s="3" t="s">
@@ -23231,7 +23551,7 @@
         <v>2</v>
       </c>
       <c r="Q184">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="S184" s="3" t="s">
@@ -23256,11 +23576,11 @@
         <v>1</v>
       </c>
       <c r="Z184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA184">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB184">
@@ -23290,7 +23610,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J185" s="3" t="s">
@@ -23321,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="S185" s="3" t="s">
@@ -23346,11 +23666,11 @@
         <v>1</v>
       </c>
       <c r="Z185">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB185">
@@ -23380,7 +23700,7 @@
         <v>2</v>
       </c>
       <c r="H186">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J186" s="3" t="s">
@@ -23411,7 +23731,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="S186" s="3" t="s">
@@ -23436,11 +23756,11 @@
         <v>1</v>
       </c>
       <c r="Z186">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA186">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB186">
@@ -23470,7 +23790,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J187" s="3" t="s">
@@ -23501,7 +23821,7 @@
         <v>32</v>
       </c>
       <c r="Q187">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>586</v>
       </c>
       <c r="S187" s="3" t="s">
@@ -23526,11 +23846,11 @@
         <v>1</v>
       </c>
       <c r="Z187">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA187">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB187">
@@ -23560,7 +23880,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J188" s="3" t="s">
@@ -23591,7 +23911,7 @@
         <v>12</v>
       </c>
       <c r="Q188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>139</v>
       </c>
       <c r="S188" s="3" t="s">
@@ -23616,11 +23936,11 @@
         <v>1</v>
       </c>
       <c r="Z188">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA188">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB188">
@@ -23650,7 +23970,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J189" s="3" t="s">
@@ -23681,7 +24001,7 @@
         <v>3</v>
       </c>
       <c r="Q189">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="S189" s="3" t="s">
@@ -23706,11 +24026,11 @@
         <v>1</v>
       </c>
       <c r="Z189">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA189">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB189">
@@ -23740,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J190" s="3" t="s">
@@ -23771,7 +24091,7 @@
         <v>9</v>
       </c>
       <c r="Q190">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="S190" s="3" t="s">
@@ -23796,11 +24116,11 @@
         <v>1</v>
       </c>
       <c r="Z190">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA190">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB190">
@@ -23830,7 +24150,7 @@
         <v>2</v>
       </c>
       <c r="H191">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J191" s="3" t="s">
@@ -23861,7 +24181,7 @@
         <v>3</v>
       </c>
       <c r="Q191">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="S191" s="3" t="s">
@@ -23886,11 +24206,11 @@
         <v>1</v>
       </c>
       <c r="Z191">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA191">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB191">
@@ -23920,7 +24240,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J192" s="3" t="s">
@@ -23951,7 +24271,7 @@
         <v>14</v>
       </c>
       <c r="Q192">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>172</v>
       </c>
       <c r="S192" s="3" t="s">
@@ -23976,11 +24296,11 @@
         <v>1</v>
       </c>
       <c r="Z192">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA192">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB192">
@@ -24010,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J193" s="3" t="s">
@@ -24041,7 +24361,7 @@
         <v>2</v>
       </c>
       <c r="Q193">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="S193" s="3" t="s">
@@ -24066,11 +24386,11 @@
         <v>1</v>
       </c>
       <c r="Z193">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA193">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB193">
@@ -24100,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H225" si="39">SUM(B194:G194)</f>
+        <f t="shared" ref="H194" si="41">SUM(B194:G194)</f>
         <v>2</v>
       </c>
       <c r="J194" s="3" t="s">
@@ -24131,7 +24451,7 @@
         <v>10</v>
       </c>
       <c r="Q194">
-        <f t="shared" ref="Q194:Q225" si="40">SUM(K194:P194)</f>
+        <f t="shared" ref="Q194" si="42">SUM(K194:P194)</f>
         <v>16</v>
       </c>
       <c r="S194" s="3" t="s">
@@ -24156,11 +24476,11 @@
         <v>1</v>
       </c>
       <c r="Z194">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA194">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AB194">
@@ -24173,23 +24493,23 @@
         <v>154</v>
       </c>
       <c r="U195">
-        <f t="shared" ref="U195:Y195" si="41">SUM(U2:U194)</f>
+        <f t="shared" ref="U195:Y195" si="43">SUM(U2:U194)</f>
         <v>32</v>
       </c>
       <c r="V195">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>122</v>
       </c>
       <c r="W195">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>98</v>
       </c>
       <c r="X195">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
       <c r="Y195">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>159</v>
       </c>
     </row>
@@ -34953,7 +35273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8CADBC-F79A-8041-B4F0-B4AA463E989E}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -35756,8 +36076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:M37"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49893,8 +50213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53999,7 +54319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DD8E9-5CCD-AF45-9D6A-B809B10417DE}">
   <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L193"/>
     </sheetView>
   </sheetViews>
@@ -59672,15 +59992,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192636B-1268-864E-BFD4-8694A9B5E7B9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A19" zoomScale="133" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -67628,7 +67948,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/08_other_files/amps_tables.xlsx
+++ b/08_other_files/amps_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C25623A-2FE0-5647-B7A4-1D20C2BC54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717F127-5A29-7748-AE47-3354EF145E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{9D1A98CB-DC08-EA42-B350-3CAE810190DF}"/>
   </bookViews>
   <sheets>
     <sheet name="readcounts" sheetId="2" r:id="rId1"/>
@@ -36076,8 +36076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC91AE-BB3C-D445-857D-BF013CB9D47D}">
   <dimension ref="A1:AA1096"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q28"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50213,7 +50213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB916D6-2511-874D-B076-27DA60C31731}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
